--- a/README.xlsx
+++ b/README.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chall\Documents\我的文件\stepic_back\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61196D8-60EB-4B52-A821-9B7190847AF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCDFCF6-4752-4FA1-AD4C-E6654E11C2A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="242">
   <si>
     <t>请求地址</t>
   </si>
@@ -564,10 +564,6 @@
     <t>[ { "birthday": "", "exper": "", "intro": "", "phone": "", "sex": "\u7537", "uid": 1, "uname": "dmar", "unick": "" }, { "birthday": null, "exper": 0, "intro": "\u6682\u65f6\u6ca1\u6709\u4e2a\u4eba\u7b80\u4ecb\u3002", "phone": null, "sex": "\u672a\u77e5", "uid": 2, "uname": "liweii", "unick": null }, { "birthday": null, "exper": 0, "intro": "\u6682\u65f6\u6ca1\u6709\u4e2a\u4eba\u7b80\u4ecb\u3002", "phone": null, "sex": "\u672a\u77e5", "uid": 3, "uname": "admin", "unick": null } ]</t>
   </si>
   <si>
-    <t>用户修改个人信息/修改用户信息</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>删除某一用户</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -855,12 +851,265 @@
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>用户新增经验值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://106.13.236.185:5000/api/user/update_exper</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://106.13.236.185:5000/api/admin/query_info</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员查询个人信息</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>aname</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员登录名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "address": null, "aid": 1, "aname": "admin", "aphone": null }</t>
+  </si>
+  <si>
+    <t>管理员修改个人信息</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>aphone</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://106.13.236.185:5000/api/admin/update_info</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除某一管理员</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询所有管理员</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ { "address": "\u5c71\u4e1c\u7406\u5de5\u5927\u5b66", "aid": 1, "aname": "admin", "aphone": "17753062762" } ]</t>
+  </si>
+  <si>
+    <t>包含所有管理员信息的json数据【外层列表】【内层字典】</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://106.13.236.185:5000/api/admin/query_all</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发者</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://106.13.236.185:5000/api/user/update_user</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户编号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用户信息（根据uid修改）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户修改个人信息（根据uname修改）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>得分</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>empty</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>空（没有用户）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>空（没有游戏）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>空（没有管理员）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据uid查询得分</t>
+  </si>
+  <si>
+    <t>[ { "date": "2020-12-23", "gid": 1, "gname": "2048", "score": 1, "sid": 1, "uid": 1, "uname": "dmar" } ]</t>
+  </si>
+  <si>
+    <t>包含得分信息的json数据【字典】</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>空（没有得分数据）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://106.13.236.185:5000/api/score/query_by_uid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询所有得分</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://106.13.236.185:5000/api/score/query_all</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://106.13.236.185:5000/api/score/query_by_gid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据gid查询得分</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询游戏最高纪录</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://106.13.236.185:5000/api/score/query_max</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "score": 1 }</t>
+  </si>
+  <si>
+    <t>包含得分信息的json数据【外层列表】【内层字典】</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增一条游戏得分</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://106.13.236.185:5001/api/score/add</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "did": 1, "dname": "developer1", "dnick": null, "dphone": null }</t>
+  </si>
+  <si>
+    <t>开发者查询个人信息</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发者修改个人信息</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询所有开发者</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除某一开发者</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://106.13.236.185:5000/api/developer/query_info</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://106.13.236.185:5000/api/developer/update_info</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://106.13.236.185:5000/api/developer/delete</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://106.13.236.185:5000/api/developer/query_all</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://106.13.236.185:5000/api/admin/delete</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dname</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发者登录名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含所有开发者信息的json数据【外层列表】【内层字典】</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>空（没有开发者）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ { "did": 1, "dname": "developer1", "dnick": null, "dphone": null } ]</t>
+  </si>
+  <si>
+    <t>dphone</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dnick</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发者昵称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -950,8 +1199,16 @@
       <name val="Var(--monospace)"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="19.25"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -961,6 +1218,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8F8F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,7 +1406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1236,68 +1505,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1314,23 +1531,81 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1341,17 +1616,76 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2589,16 +2923,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="31.5546875" customWidth="1"/>
-    <col min="2" max="2" width="51.77734375" style="50" customWidth="1"/>
+    <col min="2" max="2" width="51.77734375" style="41" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="13.109375" customWidth="1"/>
     <col min="5" max="5" width="39.21875" customWidth="1"/>
@@ -2606,54 +2940,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30.6">
-      <c r="A1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="A1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6" ht="15">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
     </row>
     <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
     </row>
     <row r="5" spans="1:6" ht="24">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
@@ -2676,10 +3010,10 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="71" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -2696,8 +3030,8 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="69"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="71"/>
       <c r="C8" s="3" t="s">
         <v>29</v>
       </c>
@@ -2712,10 +3046,10 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="71" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -2732,8 +3066,8 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="70"/>
-      <c r="B10" s="51"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="71"/>
       <c r="C10" s="9" t="s">
         <v>29</v>
       </c>
@@ -2748,8 +3082,8 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="70"/>
-      <c r="B11" s="51"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="71"/>
       <c r="C11" s="10"/>
       <c r="D11" s="6"/>
       <c r="E11" s="7" t="s">
@@ -2760,10 +3094,10 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="71" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -2780,8 +3114,8 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="69"/>
-      <c r="B13" s="51"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="71"/>
       <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
@@ -2796,10 +3130,10 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="71" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -2816,8 +3150,8 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="70"/>
-      <c r="B15" s="51"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="71"/>
       <c r="C15" s="9" t="s">
         <v>45</v>
       </c>
@@ -2832,8 +3166,8 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="70"/>
-      <c r="B16" s="51"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="71"/>
       <c r="C16" s="10"/>
       <c r="D16" s="6"/>
       <c r="E16" s="7" t="s">
@@ -2844,10 +3178,10 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="71" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -2864,8 +3198,8 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="69"/>
-      <c r="B18" s="51"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="3" t="s">
         <v>29</v>
       </c>
@@ -2880,10 +3214,10 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="71" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -2900,8 +3234,8 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="72"/>
-      <c r="B20" s="51"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="71"/>
       <c r="C20" s="9" t="s">
         <v>45</v>
       </c>
@@ -2916,8 +3250,8 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="73"/>
-      <c r="B21" s="51"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="71"/>
       <c r="C21" s="10"/>
       <c r="D21" s="6"/>
       <c r="E21" s="7" t="s">
@@ -2928,14 +3262,14 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="24">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="44"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="77"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
@@ -2961,7 +3295,7 @@
       <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="42" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -2974,14 +3308,14 @@
         <v>23</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="70" t="s">
-        <v>128</v>
-      </c>
-      <c r="B26" s="51" t="s">
+      <c r="A26" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="B26" s="71" t="s">
         <v>122</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -2998,8 +3332,8 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="70"/>
-      <c r="B27" s="51"/>
+      <c r="A27" s="64"/>
+      <c r="B27" s="71"/>
       <c r="C27" s="5" t="s">
         <v>49</v>
       </c>
@@ -3014,8 +3348,8 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="70"/>
-      <c r="B28" s="51"/>
+      <c r="A28" s="64"/>
+      <c r="B28" s="71"/>
       <c r="C28" s="5" t="s">
         <v>50</v>
       </c>
@@ -3026,8 +3360,8 @@
       <c r="F28" s="17"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="70"/>
-      <c r="B29" s="51"/>
+      <c r="A29" s="64"/>
+      <c r="B29" s="71"/>
       <c r="C29" s="5" t="s">
         <v>51</v>
       </c>
@@ -3038,8 +3372,8 @@
       <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="70"/>
-      <c r="B30" s="51"/>
+      <c r="A30" s="64"/>
+      <c r="B30" s="71"/>
       <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
@@ -3050,8 +3384,8 @@
       <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="70"/>
-      <c r="B31" s="51"/>
+      <c r="A31" s="64"/>
+      <c r="B31" s="71"/>
       <c r="C31" s="5" t="s">
         <v>53</v>
       </c>
@@ -3062,664 +3396,1393 @@
       <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="70"/>
-      <c r="B32" s="51"/>
+      <c r="A32" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="B32" s="81" t="s">
+        <v>197</v>
+      </c>
       <c r="C32" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="61"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="61"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="61"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="19"/>
+      <c r="F35" s="17"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="61"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="19"/>
+      <c r="F36" s="17"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="61"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="19"/>
+      <c r="F37" s="17"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="61"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="19"/>
+      <c r="F38" s="17"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="62"/>
+      <c r="B39" s="83"/>
+      <c r="C39" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D39" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" ht="106.8" customHeight="1">
-      <c r="A33" s="74" t="s">
+      <c r="E39" s="20"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" ht="106.8" customHeight="1">
+      <c r="A40" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="B33" s="52" t="s">
+      <c r="B40" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C40" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D40" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F40" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="62"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="64"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="64"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="24">
+      <c r="A47" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="76"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="77"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="151.80000000000001">
+      <c r="A49" s="96" t="s">
+        <v>173</v>
+      </c>
+      <c r="B49" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="94" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="92" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="70" t="s">
-        <v>129</v>
-      </c>
-      <c r="B34" s="57" t="s">
+    <row r="50" spans="1:6">
+      <c r="A50" s="97"/>
+      <c r="B50" s="83"/>
+      <c r="C50" s="95"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="78" t="s">
+        <v>174</v>
+      </c>
+      <c r="B51" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="79"/>
+      <c r="B52" s="71"/>
+      <c r="C52" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="79"/>
+      <c r="B53" s="71"/>
+      <c r="C53" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53" s="39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="79"/>
+      <c r="B54" s="71"/>
+      <c r="C54" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E54" s="24"/>
+      <c r="F54" s="40"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="79"/>
+      <c r="B55" s="71"/>
+      <c r="C55" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" s="24"/>
+      <c r="F55" s="40"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="79"/>
+      <c r="B56" s="71"/>
+      <c r="C56" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" s="24"/>
+      <c r="F56" s="40"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="79"/>
+      <c r="B57" s="71"/>
+      <c r="C57" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57" s="24"/>
+      <c r="F57" s="40"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="80"/>
+      <c r="B58" s="71"/>
+      <c r="C58" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="E58" s="25"/>
+      <c r="F58" s="38"/>
+    </row>
+    <row r="59" spans="1:6" ht="234.6">
+      <c r="A59" s="96" t="s">
+        <v>175</v>
+      </c>
+      <c r="B59" s="81" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="100" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="98" t="s">
+        <v>142</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="97"/>
+      <c r="B60" s="83"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="98"/>
+      <c r="E60" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" s="99" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" s="99" t="s">
+        <v>140</v>
+      </c>
+      <c r="E61" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61" s="43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="D62" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="E62" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62" s="43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="B63" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="D63" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="E63" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63" s="43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="B64" s="85" t="s">
+        <v>144</v>
+      </c>
+      <c r="C64" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D64" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="E64" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="C34" s="18" t="s">
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="84"/>
+      <c r="B65" s="85"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="F65" s="43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="86" t="s">
+        <v>145</v>
+      </c>
+      <c r="B66" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="D66" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="E66" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66" s="43" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="86"/>
+      <c r="B67" s="71"/>
+      <c r="C67" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E67" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F67" s="45" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="86"/>
+      <c r="B68" s="71"/>
+      <c r="C68" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D68" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="E68" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="F68" s="45" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="86"/>
+      <c r="B69" s="71"/>
+      <c r="C69" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D69" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="E69" s="26"/>
+      <c r="F69" s="24"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="86"/>
+      <c r="B70" s="71"/>
+      <c r="C70" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D70" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="E70" s="26"/>
+      <c r="F70" s="24"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="86"/>
+      <c r="B71" s="71"/>
+      <c r="C71" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D71" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="E71" s="26"/>
+      <c r="F71" s="24"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="86"/>
+      <c r="B72" s="71"/>
+      <c r="C72" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D72" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E72" s="27"/>
+      <c r="F72" s="25"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="87" t="s">
+        <v>162</v>
+      </c>
+      <c r="B73" s="71" t="s">
+        <v>163</v>
+      </c>
+      <c r="C73" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="D73" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="E73" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73" s="43" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="87"/>
+      <c r="B74" s="71"/>
+      <c r="C74" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D74" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="E74" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F74" s="45" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="87"/>
+      <c r="B75" s="71"/>
+      <c r="C75" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D75" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="E75" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="F75" s="45" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="87"/>
+      <c r="B76" s="71"/>
+      <c r="C76" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D76" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="E76" s="27"/>
+      <c r="F76" s="25"/>
+    </row>
+    <row r="77" spans="1:6" ht="138">
+      <c r="A77" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="B77" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="C77" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="D77" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="E77" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="78" t="s">
+        <v>176</v>
+      </c>
+      <c r="B78" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="C78" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="D78" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="79"/>
+      <c r="B79" s="82"/>
+      <c r="C79" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E79" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F79" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="79"/>
+      <c r="B80" s="82"/>
+      <c r="C80" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="79"/>
+      <c r="B81" s="82"/>
+      <c r="C81" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="79"/>
+      <c r="B82" s="82"/>
+      <c r="C82" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="79"/>
+      <c r="B83" s="82"/>
+      <c r="C83" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="79"/>
+      <c r="B84" s="82"/>
+      <c r="C84" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="79"/>
+      <c r="B85" s="82"/>
+      <c r="C85" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D85" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="80"/>
+      <c r="B86" s="83"/>
+      <c r="C86" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+    </row>
+    <row r="88" spans="1:6" ht="27">
+      <c r="A88" s="57" t="s">
+        <v>179</v>
+      </c>
+      <c r="B88" s="58"/>
+      <c r="C88" s="58"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="59"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="27.6">
+      <c r="A90" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="B90" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="B91" s="81" t="s">
+        <v>190</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="61"/>
+      <c r="B92" s="82"/>
+      <c r="C92" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D92" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="E92" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="62"/>
+      <c r="B93" s="83"/>
+      <c r="C93" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D93" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="E93" s="19"/>
+      <c r="F93" s="17"/>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="64" t="s">
+        <v>191</v>
+      </c>
+      <c r="B94" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="64"/>
+      <c r="B95" s="63"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="55.2">
+      <c r="A96" s="64" t="s">
+        <v>192</v>
+      </c>
+      <c r="B96" s="71" t="s">
+        <v>195</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D96" s="101" t="s">
+        <v>126</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="64"/>
+      <c r="B97" s="71"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="102"/>
+      <c r="E97" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="27">
+      <c r="A99" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="B99" s="58"/>
+      <c r="C99" s="58"/>
+      <c r="D99" s="58"/>
+      <c r="E99" s="58"/>
+      <c r="F99" s="59"/>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="41.4">
+      <c r="A101" s="86" t="s">
+        <v>207</v>
+      </c>
+      <c r="B101" s="81" t="s">
+        <v>211</v>
+      </c>
+      <c r="C101" s="103" t="s">
+        <v>198</v>
+      </c>
+      <c r="D101" s="103" t="s">
+        <v>199</v>
+      </c>
+      <c r="E101" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="86"/>
+      <c r="B102" s="83"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="F102" s="21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="41.4">
+      <c r="A103" s="86" t="s">
+        <v>212</v>
+      </c>
+      <c r="B103" s="71" t="s">
+        <v>213</v>
+      </c>
+      <c r="C103" s="103" t="s">
+        <v>126</v>
+      </c>
+      <c r="D103" s="103" t="s">
+        <v>126</v>
+      </c>
+      <c r="E103" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="86"/>
+      <c r="B104" s="71"/>
+      <c r="C104" s="25"/>
+      <c r="D104" s="25"/>
+      <c r="E104" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="F104" s="21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="41.4">
+      <c r="A105" s="86" t="s">
+        <v>215</v>
+      </c>
+      <c r="B105" s="71" t="s">
+        <v>214</v>
+      </c>
+      <c r="C105" s="103" t="s">
+        <v>139</v>
+      </c>
+      <c r="D105" s="103" t="s">
+        <v>140</v>
+      </c>
+      <c r="E105" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="86"/>
+      <c r="B106" s="71"/>
+      <c r="C106" s="25"/>
+      <c r="D106" s="25"/>
+      <c r="E106" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="F106" s="21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="27.6">
+      <c r="A107" s="86" t="s">
+        <v>216</v>
+      </c>
+      <c r="B107" s="71" t="s">
+        <v>217</v>
+      </c>
+      <c r="C107" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D107" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="E107" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="F107" s="104" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="86"/>
+      <c r="B108" s="71"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="25"/>
+      <c r="E108" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="F108" s="21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="86" t="s">
+        <v>220</v>
+      </c>
+      <c r="B109" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="C109" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D109" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E109" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F109" s="105" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="86"/>
+      <c r="B110" s="71"/>
+      <c r="C110" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D110" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E110" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F110" s="45" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="86"/>
+      <c r="B111" s="71"/>
+      <c r="C111" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="D111" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="E111" s="25"/>
+      <c r="F111" s="25"/>
+    </row>
+    <row r="113" spans="1:6" ht="27">
+      <c r="A113" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="B113" s="58"/>
+      <c r="C113" s="58"/>
+      <c r="D113" s="58"/>
+      <c r="E113" s="58"/>
+      <c r="F113" s="59"/>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E114" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="F114" s="51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="27.6">
+      <c r="A115" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="B115" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="B116" s="71" t="s">
+        <v>230</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F116" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="61"/>
+      <c r="B117" s="71"/>
+      <c r="C117" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D117" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="E117" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F117" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="62"/>
+      <c r="B118" s="71"/>
+      <c r="C118" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D118" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="E118" s="19"/>
+      <c r="F118" s="17"/>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="B119" s="71" t="s">
+        <v>231</v>
+      </c>
+      <c r="C119" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="64"/>
+      <c r="B120" s="71"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F120" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="70"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="24">
-      <c r="A37" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="44"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="151.80000000000001">
-      <c r="A39" s="75" t="s">
-        <v>174</v>
-      </c>
-      <c r="B39" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="76" t="s">
-        <v>175</v>
-      </c>
-      <c r="B40" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="77"/>
-      <c r="B41" s="51"/>
-      <c r="C41" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="F41" s="23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="77"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F42" s="47" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="77"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="48"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="77"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="48"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="77"/>
-      <c r="B45" s="51"/>
-      <c r="C45" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="48"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="77"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D46" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="48"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="78"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E47" s="25"/>
-      <c r="F47" s="46"/>
-    </row>
-    <row r="48" spans="1:6" ht="234.6">
-      <c r="A48" s="75" t="s">
-        <v>176</v>
-      </c>
-      <c r="B48" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="79" t="s">
-        <v>134</v>
-      </c>
-      <c r="B49" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="C49" s="59" t="s">
-        <v>140</v>
-      </c>
-      <c r="D49" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="E49" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="F49" s="59" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="79" t="s">
-        <v>135</v>
-      </c>
-      <c r="B50" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="C50" s="59" t="s">
-        <v>140</v>
-      </c>
-      <c r="D50" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="E50" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="F50" s="59" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="79" t="s">
-        <v>136</v>
-      </c>
-      <c r="B51" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="C51" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="D51" s="63" t="s">
-        <v>141</v>
-      </c>
-      <c r="E51" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="F51" s="59" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="80" t="s">
-        <v>144</v>
-      </c>
-      <c r="B52" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="C52" s="64" t="s">
-        <v>140</v>
-      </c>
-      <c r="D52" s="63" t="s">
-        <v>141</v>
-      </c>
-      <c r="E52" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="F52" s="59" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="80"/>
-      <c r="B53" s="61"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="F53" s="59" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="81" t="s">
-        <v>146</v>
-      </c>
-      <c r="B54" s="51" t="s">
-        <v>147</v>
-      </c>
-      <c r="C54" s="59" t="s">
-        <v>148</v>
-      </c>
-      <c r="D54" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="E54" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="F54" s="59" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="81"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D55" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="E55" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="F55" s="63" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="81"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="D56" s="65" t="s">
-        <v>150</v>
-      </c>
-      <c r="E56" s="64" t="s">
-        <v>161</v>
-      </c>
-      <c r="F56" s="63" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="81"/>
-      <c r="B57" s="51"/>
-      <c r="C57" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="D57" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="E57" s="26"/>
-      <c r="F57" s="24"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="81"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="D58" s="65" t="s">
-        <v>151</v>
-      </c>
-      <c r="E58" s="26"/>
-      <c r="F58" s="24"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="81"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="D59" s="65" t="s">
-        <v>157</v>
-      </c>
-      <c r="E59" s="26"/>
-      <c r="F59" s="24"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="81"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="D60" s="65" t="s">
-        <v>158</v>
-      </c>
-      <c r="E60" s="27"/>
-      <c r="F60" s="25"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="82" t="s">
-        <v>163</v>
-      </c>
-      <c r="B61" s="51" t="s">
-        <v>164</v>
-      </c>
-      <c r="C61" s="59" t="s">
-        <v>148</v>
-      </c>
-      <c r="D61" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="E61" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="F61" s="59" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="82"/>
-      <c r="B62" s="51"/>
-      <c r="C62" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="D62" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="E62" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="F62" s="63" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="82"/>
-      <c r="B63" s="51"/>
-      <c r="C63" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="D63" s="65" t="s">
-        <v>151</v>
-      </c>
-      <c r="E63" s="64" t="s">
-        <v>161</v>
-      </c>
-      <c r="F63" s="63" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="82"/>
-      <c r="B64" s="51"/>
-      <c r="C64" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="D64" s="65" t="s">
-        <v>157</v>
-      </c>
-      <c r="E64" s="27"/>
-      <c r="F64" s="25"/>
-    </row>
-    <row r="65" spans="1:6" ht="138">
-      <c r="A65" s="75" t="s">
-        <v>171</v>
-      </c>
-      <c r="B65" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="C65" s="67" t="s">
-        <v>140</v>
-      </c>
-      <c r="D65" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="E65" s="66" t="s">
-        <v>165</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="76" t="s">
-        <v>177</v>
-      </c>
-      <c r="B66" s="55" t="s">
-        <v>172</v>
-      </c>
-      <c r="C66" s="67" t="s">
-        <v>140</v>
-      </c>
-      <c r="D66" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="77"/>
-      <c r="B67" s="60"/>
-      <c r="C67" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E67" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F67" s="23" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="77"/>
-      <c r="B68" s="60"/>
-      <c r="C68" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D68" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="77"/>
-      <c r="B69" s="60"/>
-      <c r="C69" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D69" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="77"/>
-      <c r="B70" s="60"/>
-      <c r="C70" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D70" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="77"/>
-      <c r="B71" s="60"/>
-      <c r="C71" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D71" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="77"/>
-      <c r="B72" s="60"/>
-      <c r="C72" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D72" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="77"/>
-      <c r="B73" s="60"/>
-      <c r="C73" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D73" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="78"/>
-      <c r="B74" s="56"/>
-      <c r="C74" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D74" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
+    <row r="121" spans="1:6" ht="41.4">
+      <c r="A121" s="64" t="s">
+        <v>227</v>
+      </c>
+      <c r="B121" s="71" t="s">
+        <v>232</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D121" s="101" t="s">
+        <v>126</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="64"/>
+      <c r="B122" s="71"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="102"/>
+      <c r="E122" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>237</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A66:A74"/>
-    <mergeCell ref="B66:B74"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A54:A60"/>
-    <mergeCell ref="B54:B60"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="A40:A47"/>
-    <mergeCell ref="B40:B47"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
+  <mergeCells count="69">
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B109:B111"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="B32:B39"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A78:A86"/>
+    <mergeCell ref="B78:B86"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="A66:A72"/>
+    <mergeCell ref="B66:B72"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A51:A58"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="A5:F5"/>
@@ -3737,6 +4800,12 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A113:F113"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3748,8 +4817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{197CB377-331C-4E75-9CEF-672BC1008DFE}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3764,15 +4833,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="32" t="s">
@@ -3903,15 +4972,15 @@
       <c r="G7" s="37"/>
     </row>
     <row r="9" spans="1:7" ht="17.399999999999999">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="32" t="s">
@@ -4042,15 +5111,15 @@
       <c r="G15" s="37"/>
     </row>
     <row r="17" spans="1:7" ht="17.399999999999999">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="32" t="s">
@@ -4271,15 +5340,15 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.399999999999999">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="32" t="s">
@@ -4410,15 +5479,15 @@
       <c r="G35" s="37"/>
     </row>
     <row r="37" spans="1:7" ht="17.399999999999999">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="88"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="32" t="s">

--- a/README.xlsx
+++ b/README.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chall\Documents\我的文件\stepic_back\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCDFCF6-4752-4FA1-AD4C-E6654E11C2A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F513B0B-7988-4FE1-AA3A-B9C2C002E34F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="244">
   <si>
     <t>请求地址</t>
   </si>
@@ -1102,6 +1102,14 @@
   </si>
   <si>
     <t>开发者昵称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据uid显示个人动态中游戏得分（只显示每条游戏最高分，时间倒序排序）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://106.13.236.185:5000/api/score/query_event</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1406,7 +1414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1544,109 +1552,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1658,12 +1564,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1686,6 +1586,120 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2923,10 +2937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F122"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2940,14 +2954,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30.6">
-      <c r="A1" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
+      <c r="A1" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="56" t="s">
@@ -2960,34 +2974,34 @@
       <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6" ht="15">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
     </row>
     <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="102" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
     </row>
     <row r="5" spans="1:6" ht="24">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
@@ -3010,10 +3024,10 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="73" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -3030,8 +3044,8 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="70"/>
-      <c r="B8" s="71"/>
+      <c r="A8" s="98"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="3" t="s">
         <v>29</v>
       </c>
@@ -3046,10 +3060,10 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="73" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -3066,8 +3080,8 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="64"/>
-      <c r="B10" s="71"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="73"/>
       <c r="C10" s="9" t="s">
         <v>29</v>
       </c>
@@ -3082,8 +3096,8 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="64"/>
-      <c r="B11" s="71"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="73"/>
       <c r="C11" s="10"/>
       <c r="D11" s="6"/>
       <c r="E11" s="7" t="s">
@@ -3094,10 +3108,10 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="73" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -3114,8 +3128,8 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="70"/>
-      <c r="B13" s="71"/>
+      <c r="A13" s="98"/>
+      <c r="B13" s="73"/>
       <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
@@ -3130,10 +3144,10 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="73" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -3150,8 +3164,8 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="64"/>
-      <c r="B15" s="71"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="73"/>
       <c r="C15" s="9" t="s">
         <v>45</v>
       </c>
@@ -3166,8 +3180,8 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="64"/>
-      <c r="B16" s="71"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="73"/>
       <c r="C16" s="10"/>
       <c r="D16" s="6"/>
       <c r="E16" s="7" t="s">
@@ -3178,10 +3192,10 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="73" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -3198,8 +3212,8 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="70"/>
-      <c r="B18" s="71"/>
+      <c r="A18" s="98"/>
+      <c r="B18" s="73"/>
       <c r="C18" s="3" t="s">
         <v>29</v>
       </c>
@@ -3214,10 +3228,10 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="73" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -3234,8 +3248,8 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="61"/>
-      <c r="B20" s="71"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="73"/>
       <c r="C20" s="9" t="s">
         <v>45</v>
       </c>
@@ -3250,8 +3264,8 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="62"/>
-      <c r="B21" s="71"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="73"/>
       <c r="C21" s="10"/>
       <c r="D21" s="6"/>
       <c r="E21" s="7" t="s">
@@ -3262,14 +3276,14 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="24">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="77"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="94"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
@@ -3312,10 +3326,10 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="64" t="s">
+      <c r="A26" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="B26" s="71" t="s">
+      <c r="B26" s="73" t="s">
         <v>122</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -3332,8 +3346,8 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="64"/>
-      <c r="B27" s="71"/>
+      <c r="A27" s="74"/>
+      <c r="B27" s="73"/>
       <c r="C27" s="5" t="s">
         <v>49</v>
       </c>
@@ -3348,8 +3362,8 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="64"/>
-      <c r="B28" s="71"/>
+      <c r="A28" s="74"/>
+      <c r="B28" s="73"/>
       <c r="C28" s="5" t="s">
         <v>50</v>
       </c>
@@ -3360,8 +3374,8 @@
       <c r="F28" s="17"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="64"/>
-      <c r="B29" s="71"/>
+      <c r="A29" s="74"/>
+      <c r="B29" s="73"/>
       <c r="C29" s="5" t="s">
         <v>51</v>
       </c>
@@ -3372,8 +3386,8 @@
       <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="64"/>
-      <c r="B30" s="71"/>
+      <c r="A30" s="74"/>
+      <c r="B30" s="73"/>
       <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
@@ -3384,8 +3398,8 @@
       <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="64"/>
-      <c r="B31" s="71"/>
+      <c r="A31" s="74"/>
+      <c r="B31" s="73"/>
       <c r="C31" s="5" t="s">
         <v>53</v>
       </c>
@@ -3396,10 +3410,10 @@
       <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="60" t="s">
+      <c r="A32" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="B32" s="81" t="s">
+      <c r="B32" s="76" t="s">
         <v>197</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -3416,8 +3430,8 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="61"/>
-      <c r="B33" s="82"/>
+      <c r="A33" s="71"/>
+      <c r="B33" s="78"/>
       <c r="C33" s="5" t="s">
         <v>54</v>
       </c>
@@ -3432,8 +3446,8 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="61"/>
-      <c r="B34" s="82"/>
+      <c r="A34" s="71"/>
+      <c r="B34" s="78"/>
       <c r="C34" s="5" t="s">
         <v>49</v>
       </c>
@@ -3444,8 +3458,8 @@
       <c r="F34" s="24"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="61"/>
-      <c r="B35" s="82"/>
+      <c r="A35" s="71"/>
+      <c r="B35" s="78"/>
       <c r="C35" s="5" t="s">
         <v>50</v>
       </c>
@@ -3456,8 +3470,8 @@
       <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="61"/>
-      <c r="B36" s="82"/>
+      <c r="A36" s="71"/>
+      <c r="B36" s="78"/>
       <c r="C36" s="5" t="s">
         <v>51</v>
       </c>
@@ -3468,8 +3482,8 @@
       <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="61"/>
-      <c r="B37" s="82"/>
+      <c r="A37" s="71"/>
+      <c r="B37" s="78"/>
       <c r="C37" s="5" t="s">
         <v>52</v>
       </c>
@@ -3480,8 +3494,8 @@
       <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="61"/>
-      <c r="B38" s="82"/>
+      <c r="A38" s="71"/>
+      <c r="B38" s="78"/>
       <c r="C38" s="5" t="s">
         <v>53</v>
       </c>
@@ -3492,8 +3506,8 @@
       <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="62"/>
-      <c r="B39" s="83"/>
+      <c r="A39" s="72"/>
+      <c r="B39" s="77"/>
       <c r="C39" s="5" t="s">
         <v>55</v>
       </c>
@@ -3504,16 +3518,16 @@
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6" ht="106.8" customHeight="1">
-      <c r="A40" s="60" t="s">
+      <c r="A40" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="B40" s="81" t="s">
+      <c r="B40" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="C40" s="90" t="s">
+      <c r="C40" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="D40" s="90" t="s">
+      <c r="D40" s="82" t="s">
         <v>126</v>
       </c>
       <c r="E40" s="5" t="s">
@@ -3524,10 +3538,10 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="62"/>
-      <c r="B41" s="83"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="91"/>
+      <c r="A41" s="72"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="83"/>
+      <c r="D41" s="83"/>
       <c r="E41" s="7" t="s">
         <v>203</v>
       </c>
@@ -3536,10 +3550,10 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="64" t="s">
+      <c r="A42" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="B42" s="65" t="s">
+      <c r="B42" s="95" t="s">
         <v>129</v>
       </c>
       <c r="C42" s="18" t="s">
@@ -3556,8 +3570,8 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="64"/>
-      <c r="B43" s="66"/>
+      <c r="A43" s="74"/>
+      <c r="B43" s="96"/>
       <c r="C43" s="20"/>
       <c r="D43" s="6"/>
       <c r="E43" s="7" t="s">
@@ -3568,10 +3582,10 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="64" t="s">
+      <c r="A44" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="B44" s="71" t="s">
+      <c r="B44" s="73" t="s">
         <v>178</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -3588,8 +3602,8 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="64"/>
-      <c r="B45" s="71"/>
+      <c r="A45" s="74"/>
+      <c r="B45" s="73"/>
       <c r="C45" s="5" t="s">
         <v>55</v>
       </c>
@@ -3604,14 +3618,14 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="24">
-      <c r="A47" s="75" t="s">
+      <c r="A47" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="76"/>
-      <c r="C47" s="76"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="77"/>
+      <c r="B47" s="93"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="94"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
@@ -3620,10 +3634,10 @@
       <c r="B48" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="93" t="s">
+      <c r="C48" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="93" t="s">
+      <c r="D48" s="59" t="s">
         <v>3</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -3634,19 +3648,19 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="151.80000000000001">
-      <c r="A49" s="96" t="s">
+      <c r="A49" s="84" t="s">
         <v>173</v>
       </c>
-      <c r="B49" s="81" t="s">
+      <c r="B49" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="94" t="s">
+      <c r="C49" s="60" t="s">
         <v>26</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="92" t="s">
+      <c r="E49" s="58" t="s">
         <v>27</v>
       </c>
       <c r="F49" s="4" t="s">
@@ -3654,9 +3668,9 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="97"/>
-      <c r="B50" s="83"/>
-      <c r="C50" s="95"/>
+      <c r="A50" s="85"/>
+      <c r="B50" s="77"/>
+      <c r="C50" s="61"/>
       <c r="D50" s="15"/>
       <c r="E50" s="7" t="s">
         <v>203</v>
@@ -3666,10 +3680,10 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="78" t="s">
+      <c r="A51" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="B51" s="71" t="s">
+      <c r="B51" s="73" t="s">
         <v>28</v>
       </c>
       <c r="C51" s="6" t="s">
@@ -3686,8 +3700,8 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="79"/>
-      <c r="B52" s="71"/>
+      <c r="A52" s="87"/>
+      <c r="B52" s="73"/>
       <c r="C52" s="21" t="s">
         <v>65</v>
       </c>
@@ -3702,8 +3716,8 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="79"/>
-      <c r="B53" s="71"/>
+      <c r="A53" s="87"/>
+      <c r="B53" s="73"/>
       <c r="C53" s="21" t="s">
         <v>66</v>
       </c>
@@ -3718,8 +3732,8 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="79"/>
-      <c r="B54" s="71"/>
+      <c r="A54" s="87"/>
+      <c r="B54" s="73"/>
       <c r="C54" s="21" t="s">
         <v>67</v>
       </c>
@@ -3730,8 +3744,8 @@
       <c r="F54" s="40"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="79"/>
-      <c r="B55" s="71"/>
+      <c r="A55" s="87"/>
+      <c r="B55" s="73"/>
       <c r="C55" s="21" t="s">
         <v>68</v>
       </c>
@@ -3742,8 +3756,8 @@
       <c r="F55" s="40"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="79"/>
-      <c r="B56" s="71"/>
+      <c r="A56" s="87"/>
+      <c r="B56" s="73"/>
       <c r="C56" s="21" t="s">
         <v>69</v>
       </c>
@@ -3754,8 +3768,8 @@
       <c r="F56" s="40"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="79"/>
-      <c r="B57" s="71"/>
+      <c r="A57" s="87"/>
+      <c r="B57" s="73"/>
       <c r="C57" s="21" t="s">
         <v>70</v>
       </c>
@@ -3766,31 +3780,31 @@
       <c r="F57" s="40"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="80"/>
-      <c r="B58" s="71"/>
+      <c r="A58" s="88"/>
+      <c r="B58" s="73"/>
       <c r="C58" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D58" s="89" t="s">
+      <c r="D58" s="57" t="s">
         <v>78</v>
       </c>
       <c r="E58" s="25"/>
       <c r="F58" s="38"/>
     </row>
     <row r="59" spans="1:6" ht="234.6">
-      <c r="A59" s="96" t="s">
+      <c r="A59" s="84" t="s">
         <v>175</v>
       </c>
-      <c r="B59" s="81" t="s">
+      <c r="B59" s="76" t="s">
         <v>132</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D59" s="100" t="s">
+      <c r="D59" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="E59" s="98" t="s">
+      <c r="E59" s="62" t="s">
         <v>142</v>
       </c>
       <c r="F59" s="4" t="s">
@@ -3798,10 +3812,10 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="97"/>
-      <c r="B60" s="83"/>
+      <c r="A60" s="85"/>
+      <c r="B60" s="77"/>
       <c r="C60" s="15"/>
-      <c r="D60" s="98"/>
+      <c r="D60" s="62"/>
       <c r="E60" s="7" t="s">
         <v>203</v>
       </c>
@@ -3816,10 +3830,10 @@
       <c r="B61" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="C61" s="99" t="s">
+      <c r="C61" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="D61" s="99" t="s">
+      <c r="D61" s="63" t="s">
         <v>140</v>
       </c>
       <c r="E61" s="43" t="s">
@@ -3870,10 +3884,10 @@
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="84" t="s">
+      <c r="A64" s="89" t="s">
         <v>143</v>
       </c>
-      <c r="B64" s="85" t="s">
+      <c r="B64" s="90" t="s">
         <v>144</v>
       </c>
       <c r="C64" s="46" t="s">
@@ -3890,8 +3904,8 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="84"/>
-      <c r="B65" s="85"/>
+      <c r="A65" s="89"/>
+      <c r="B65" s="90"/>
       <c r="C65" s="27"/>
       <c r="D65" s="25"/>
       <c r="E65" s="44" t="s">
@@ -3902,10 +3916,10 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="86" t="s">
+      <c r="A66" s="75" t="s">
         <v>145</v>
       </c>
-      <c r="B66" s="71" t="s">
+      <c r="B66" s="73" t="s">
         <v>146</v>
       </c>
       <c r="C66" s="43" t="s">
@@ -3922,8 +3936,8 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="86"/>
-      <c r="B67" s="71"/>
+      <c r="A67" s="75"/>
+      <c r="B67" s="73"/>
       <c r="C67" s="21" t="s">
         <v>71</v>
       </c>
@@ -3938,8 +3952,8 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="86"/>
-      <c r="B68" s="71"/>
+      <c r="A68" s="75"/>
+      <c r="B68" s="73"/>
       <c r="C68" s="21" t="s">
         <v>151</v>
       </c>
@@ -3954,8 +3968,8 @@
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="86"/>
-      <c r="B69" s="71"/>
+      <c r="A69" s="75"/>
+      <c r="B69" s="73"/>
       <c r="C69" s="21" t="s">
         <v>152</v>
       </c>
@@ -3966,8 +3980,8 @@
       <c r="F69" s="24"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="86"/>
-      <c r="B70" s="71"/>
+      <c r="A70" s="75"/>
+      <c r="B70" s="73"/>
       <c r="C70" s="21" t="s">
         <v>153</v>
       </c>
@@ -3978,8 +3992,8 @@
       <c r="F70" s="24"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="86"/>
-      <c r="B71" s="71"/>
+      <c r="A71" s="75"/>
+      <c r="B71" s="73"/>
       <c r="C71" s="21" t="s">
         <v>154</v>
       </c>
@@ -3990,8 +4004,8 @@
       <c r="F71" s="24"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="86"/>
-      <c r="B72" s="71"/>
+      <c r="A72" s="75"/>
+      <c r="B72" s="73"/>
       <c r="C72" s="21" t="s">
         <v>155</v>
       </c>
@@ -4002,10 +4016,10 @@
       <c r="F72" s="25"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="87" t="s">
+      <c r="A73" s="91" t="s">
         <v>162</v>
       </c>
-      <c r="B73" s="71" t="s">
+      <c r="B73" s="73" t="s">
         <v>163</v>
       </c>
       <c r="C73" s="43" t="s">
@@ -4022,8 +4036,8 @@
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="87"/>
-      <c r="B74" s="71"/>
+      <c r="A74" s="91"/>
+      <c r="B74" s="73"/>
       <c r="C74" s="21" t="s">
         <v>139</v>
       </c>
@@ -4038,8 +4052,8 @@
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="87"/>
-      <c r="B75" s="71"/>
+      <c r="A75" s="91"/>
+      <c r="B75" s="73"/>
       <c r="C75" s="21" t="s">
         <v>153</v>
       </c>
@@ -4054,8 +4068,8 @@
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="87"/>
-      <c r="B76" s="71"/>
+      <c r="A76" s="91"/>
+      <c r="B76" s="73"/>
       <c r="C76" s="21" t="s">
         <v>154</v>
       </c>
@@ -4086,10 +4100,10 @@
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="78" t="s">
+      <c r="A78" s="86" t="s">
         <v>176</v>
       </c>
-      <c r="B78" s="81" t="s">
+      <c r="B78" s="76" t="s">
         <v>171</v>
       </c>
       <c r="C78" s="49" t="s">
@@ -4106,8 +4120,8 @@
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="79"/>
-      <c r="B79" s="82"/>
+      <c r="A79" s="87"/>
+      <c r="B79" s="78"/>
       <c r="C79" s="5" t="s">
         <v>71</v>
       </c>
@@ -4122,8 +4136,8 @@
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="79"/>
-      <c r="B80" s="82"/>
+      <c r="A80" s="87"/>
+      <c r="B80" s="78"/>
       <c r="C80" s="21" t="s">
         <v>65</v>
       </c>
@@ -4134,8 +4148,8 @@
       <c r="F80" s="24"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="79"/>
-      <c r="B81" s="82"/>
+      <c r="A81" s="87"/>
+      <c r="B81" s="78"/>
       <c r="C81" s="21" t="s">
         <v>66</v>
       </c>
@@ -4146,8 +4160,8 @@
       <c r="F81" s="24"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="79"/>
-      <c r="B82" s="82"/>
+      <c r="A82" s="87"/>
+      <c r="B82" s="78"/>
       <c r="C82" s="21" t="s">
         <v>67</v>
       </c>
@@ -4158,8 +4172,8 @@
       <c r="F82" s="24"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="79"/>
-      <c r="B83" s="82"/>
+      <c r="A83" s="87"/>
+      <c r="B83" s="78"/>
       <c r="C83" s="21" t="s">
         <v>68</v>
       </c>
@@ -4170,8 +4184,8 @@
       <c r="F83" s="24"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="79"/>
-      <c r="B84" s="82"/>
+      <c r="A84" s="87"/>
+      <c r="B84" s="78"/>
       <c r="C84" s="21" t="s">
         <v>69</v>
       </c>
@@ -4182,8 +4196,8 @@
       <c r="F84" s="24"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="79"/>
-      <c r="B85" s="82"/>
+      <c r="A85" s="87"/>
+      <c r="B85" s="78"/>
       <c r="C85" s="21" t="s">
         <v>70</v>
       </c>
@@ -4194,8 +4208,8 @@
       <c r="F85" s="24"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="80"/>
-      <c r="B86" s="83"/>
+      <c r="A86" s="88"/>
+      <c r="B86" s="77"/>
       <c r="C86" s="21" t="s">
         <v>72</v>
       </c>
@@ -4206,14 +4220,14 @@
       <c r="F86" s="25"/>
     </row>
     <row r="88" spans="1:6" ht="27">
-      <c r="A88" s="57" t="s">
+      <c r="A88" s="79" t="s">
         <v>179</v>
       </c>
-      <c r="B88" s="58"/>
-      <c r="C88" s="58"/>
-      <c r="D88" s="58"/>
-      <c r="E88" s="58"/>
-      <c r="F88" s="59"/>
+      <c r="B88" s="80"/>
+      <c r="C88" s="80"/>
+      <c r="D88" s="80"/>
+      <c r="E88" s="80"/>
+      <c r="F88" s="81"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="51" t="s">
@@ -4256,10 +4270,10 @@
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="60" t="s">
+      <c r="A91" s="70" t="s">
         <v>185</v>
       </c>
-      <c r="B91" s="81" t="s">
+      <c r="B91" s="76" t="s">
         <v>190</v>
       </c>
       <c r="C91" s="4" t="s">
@@ -4276,8 +4290,8 @@
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="61"/>
-      <c r="B92" s="82"/>
+      <c r="A92" s="71"/>
+      <c r="B92" s="78"/>
       <c r="C92" s="5" t="s">
         <v>186</v>
       </c>
@@ -4292,8 +4306,8 @@
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="62"/>
-      <c r="B93" s="83"/>
+      <c r="A93" s="72"/>
+      <c r="B93" s="77"/>
       <c r="C93" s="5" t="s">
         <v>187</v>
       </c>
@@ -4304,10 +4318,10 @@
       <c r="F93" s="17"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="64" t="s">
+      <c r="A94" s="74" t="s">
         <v>191</v>
       </c>
-      <c r="B94" s="63" t="s">
+      <c r="B94" s="104" t="s">
         <v>233</v>
       </c>
       <c r="C94" s="18" t="s">
@@ -4324,8 +4338,8 @@
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="64"/>
-      <c r="B95" s="63"/>
+      <c r="A95" s="74"/>
+      <c r="B95" s="104"/>
       <c r="C95" s="19"/>
       <c r="D95" s="17"/>
       <c r="E95" s="7" t="s">
@@ -4336,16 +4350,16 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="55.2">
-      <c r="A96" s="64" t="s">
+      <c r="A96" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="B96" s="71" t="s">
+      <c r="B96" s="73" t="s">
         <v>195</v>
       </c>
       <c r="C96" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D96" s="101" t="s">
+      <c r="D96" s="65" t="s">
         <v>126</v>
       </c>
       <c r="E96" s="7" t="s">
@@ -4356,10 +4370,10 @@
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="64"/>
-      <c r="B97" s="71"/>
+      <c r="A97" s="74"/>
+      <c r="B97" s="73"/>
       <c r="C97" s="6"/>
-      <c r="D97" s="102"/>
+      <c r="D97" s="66"/>
       <c r="E97" s="7" t="s">
         <v>203</v>
       </c>
@@ -4368,14 +4382,14 @@
       </c>
     </row>
     <row r="99" spans="1:6" ht="27">
-      <c r="A99" s="57" t="s">
+      <c r="A99" s="79" t="s">
         <v>202</v>
       </c>
-      <c r="B99" s="58"/>
-      <c r="C99" s="58"/>
-      <c r="D99" s="58"/>
-      <c r="E99" s="58"/>
-      <c r="F99" s="59"/>
+      <c r="B99" s="80"/>
+      <c r="C99" s="80"/>
+      <c r="D99" s="80"/>
+      <c r="E99" s="80"/>
+      <c r="F99" s="81"/>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="55" t="s">
@@ -4398,16 +4412,16 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="41.4">
-      <c r="A101" s="86" t="s">
+      <c r="A101" s="75" t="s">
         <v>207</v>
       </c>
-      <c r="B101" s="81" t="s">
+      <c r="B101" s="76" t="s">
         <v>211</v>
       </c>
-      <c r="C101" s="103" t="s">
+      <c r="C101" s="67" t="s">
         <v>198</v>
       </c>
-      <c r="D101" s="103" t="s">
+      <c r="D101" s="67" t="s">
         <v>199</v>
       </c>
       <c r="E101" s="48" t="s">
@@ -4418,8 +4432,8 @@
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="86"/>
-      <c r="B102" s="83"/>
+      <c r="A102" s="75"/>
+      <c r="B102" s="77"/>
       <c r="C102" s="25"/>
       <c r="D102" s="25"/>
       <c r="E102" s="21" t="s">
@@ -4430,16 +4444,16 @@
       </c>
     </row>
     <row r="103" spans="1:6" ht="41.4">
-      <c r="A103" s="86" t="s">
+      <c r="A103" s="75" t="s">
         <v>212</v>
       </c>
-      <c r="B103" s="71" t="s">
+      <c r="B103" s="73" t="s">
         <v>213</v>
       </c>
-      <c r="C103" s="103" t="s">
+      <c r="C103" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="D103" s="103" t="s">
+      <c r="D103" s="67" t="s">
         <v>126</v>
       </c>
       <c r="E103" s="48" t="s">
@@ -4450,8 +4464,8 @@
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="86"/>
-      <c r="B104" s="71"/>
+      <c r="A104" s="75"/>
+      <c r="B104" s="73"/>
       <c r="C104" s="25"/>
       <c r="D104" s="25"/>
       <c r="E104" s="21" t="s">
@@ -4462,16 +4476,16 @@
       </c>
     </row>
     <row r="105" spans="1:6" ht="41.4">
-      <c r="A105" s="86" t="s">
+      <c r="A105" s="75" t="s">
         <v>215</v>
       </c>
-      <c r="B105" s="71" t="s">
+      <c r="B105" s="73" t="s">
         <v>214</v>
       </c>
-      <c r="C105" s="103" t="s">
+      <c r="C105" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="D105" s="103" t="s">
+      <c r="D105" s="67" t="s">
         <v>140</v>
       </c>
       <c r="E105" s="48" t="s">
@@ -4482,8 +4496,8 @@
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="86"/>
-      <c r="B106" s="71"/>
+      <c r="A106" s="75"/>
+      <c r="B106" s="73"/>
       <c r="C106" s="25"/>
       <c r="D106" s="25"/>
       <c r="E106" s="21" t="s">
@@ -4494,10 +4508,10 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="27.6">
-      <c r="A107" s="86" t="s">
+      <c r="A107" s="75" t="s">
         <v>216</v>
       </c>
-      <c r="B107" s="71" t="s">
+      <c r="B107" s="73" t="s">
         <v>217</v>
       </c>
       <c r="C107" s="23" t="s">
@@ -4509,13 +4523,13 @@
       <c r="E107" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="F107" s="104" t="s">
+      <c r="F107" s="68" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="86"/>
-      <c r="B108" s="71"/>
+      <c r="A108" s="75"/>
+      <c r="B108" s="73"/>
       <c r="C108" s="25"/>
       <c r="D108" s="25"/>
       <c r="E108" s="21" t="s">
@@ -4526,10 +4540,10 @@
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="86" t="s">
+      <c r="A109" s="75" t="s">
         <v>220</v>
       </c>
-      <c r="B109" s="71" t="s">
+      <c r="B109" s="73" t="s">
         <v>221</v>
       </c>
       <c r="C109" s="21" t="s">
@@ -4541,13 +4555,13 @@
       <c r="E109" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="F109" s="105" t="s">
+      <c r="F109" s="69" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="86"/>
-      <c r="B110" s="71"/>
+      <c r="A110" s="75"/>
+      <c r="B110" s="73"/>
       <c r="C110" s="21" t="s">
         <v>139</v>
       </c>
@@ -4562,8 +4576,8 @@
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="86"/>
-      <c r="B111" s="71"/>
+      <c r="A111" s="75"/>
+      <c r="B111" s="73"/>
       <c r="C111" s="21" t="s">
         <v>222</v>
       </c>
@@ -4573,186 +4587,241 @@
       <c r="E111" s="25"/>
       <c r="F111" s="25"/>
     </row>
-    <row r="113" spans="1:6" ht="27">
-      <c r="A113" s="57" t="s">
+    <row r="112" spans="1:6" ht="41.4">
+      <c r="A112" s="106" t="s">
+        <v>242</v>
+      </c>
+      <c r="B112" s="73" t="s">
+        <v>243</v>
+      </c>
+      <c r="C112" s="67" t="s">
+        <v>198</v>
+      </c>
+      <c r="D112" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="E112" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="107"/>
+      <c r="B113" s="73"/>
+      <c r="C113" s="25"/>
+      <c r="D113" s="25"/>
+      <c r="E113" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="F113" s="21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="27">
+      <c r="A115" s="79" t="s">
         <v>196</v>
       </c>
-      <c r="B113" s="58"/>
-      <c r="C113" s="58"/>
-      <c r="D113" s="58"/>
-      <c r="E113" s="58"/>
-      <c r="F113" s="59"/>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="51" t="s">
+      <c r="B115" s="80"/>
+      <c r="C115" s="80"/>
+      <c r="D115" s="80"/>
+      <c r="E115" s="80"/>
+      <c r="F115" s="81"/>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B114" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C114" s="51" t="s">
+      <c r="B116" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D114" s="51" t="s">
+      <c r="D116" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E114" s="51" t="s">
+      <c r="E116" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F114" s="51" t="s">
+      <c r="F116" s="51" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="27.6">
-      <c r="A115" s="55" t="s">
+    <row r="117" spans="1:6" ht="27.6">
+      <c r="A117" s="55" t="s">
         <v>225</v>
       </c>
-      <c r="B115" s="54" t="s">
+      <c r="B117" s="54" t="s">
         <v>229</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C117" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D115" s="4" t="s">
+      <c r="D117" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="E115" s="4" t="s">
+      <c r="E117" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="F115" s="4" t="s">
+      <c r="F117" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="60" t="s">
+    <row r="118" spans="1:6">
+      <c r="A118" s="70" t="s">
         <v>226</v>
       </c>
-      <c r="B116" s="71" t="s">
+      <c r="B118" s="73" t="s">
         <v>230</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C118" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="D118" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="E116" s="11" t="s">
+      <c r="E118" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F116" s="11" t="s">
+      <c r="F118" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="61"/>
-      <c r="B117" s="71"/>
-      <c r="C117" s="5" t="s">
+    <row r="119" spans="1:6">
+      <c r="A119" s="71"/>
+      <c r="B119" s="73"/>
+      <c r="C119" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D117" s="16" t="s">
+      <c r="D119" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="E117" s="18" t="s">
+      <c r="E119" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F117" s="11" t="s">
+      <c r="F119" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="62"/>
-      <c r="B118" s="71"/>
-      <c r="C118" s="5" t="s">
+    <row r="120" spans="1:6">
+      <c r="A120" s="72"/>
+      <c r="B120" s="73"/>
+      <c r="C120" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="D118" s="16" t="s">
+      <c r="D120" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="E118" s="19"/>
-      <c r="F118" s="17"/>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="64" t="s">
+      <c r="E120" s="19"/>
+      <c r="F120" s="17"/>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="74" t="s">
         <v>228</v>
       </c>
-      <c r="B119" s="71" t="s">
+      <c r="B121" s="73" t="s">
         <v>231</v>
       </c>
-      <c r="C119" s="18" t="s">
+      <c r="C121" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="D119" s="11" t="s">
+      <c r="D121" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="E119" s="7" t="s">
+      <c r="E121" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F119" s="5" t="s">
+      <c r="F121" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="64"/>
-      <c r="B120" s="71"/>
-      <c r="C120" s="19"/>
-      <c r="D120" s="17"/>
-      <c r="E120" s="7" t="s">
+    <row r="122" spans="1:6">
+      <c r="A122" s="74"/>
+      <c r="B122" s="73"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F120" s="5" t="s">
+      <c r="F122" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="41.4">
-      <c r="A121" s="64" t="s">
+    <row r="123" spans="1:6" ht="41.4">
+      <c r="A123" s="74" t="s">
         <v>227</v>
       </c>
-      <c r="B121" s="71" t="s">
+      <c r="B123" s="73" t="s">
         <v>232</v>
       </c>
-      <c r="C121" s="11" t="s">
+      <c r="C123" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D121" s="101" t="s">
+      <c r="D123" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="E121" s="7" t="s">
+      <c r="E123" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F121" s="4" t="s">
+      <c r="F123" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="64"/>
-      <c r="B122" s="71"/>
-      <c r="C122" s="6"/>
-      <c r="D122" s="102"/>
-      <c r="E122" s="7" t="s">
+    <row r="124" spans="1:6">
+      <c r="A124" s="74"/>
+      <c r="B124" s="73"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="66"/>
+      <c r="E124" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F122" s="4" t="s">
+      <c r="F124" s="4" t="s">
         <v>237</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="69">
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B109:B111"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
+  <mergeCells count="71">
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A51:A58"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B78:B86"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="A66:A72"/>
+    <mergeCell ref="B66:B72"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="A73:A76"/>
     <mergeCell ref="A26:A31"/>
     <mergeCell ref="B26:B31"/>
     <mergeCell ref="B32:B39"/>
@@ -4769,43 +4838,22 @@
     <mergeCell ref="B96:B97"/>
     <mergeCell ref="A96:A97"/>
     <mergeCell ref="A78:A86"/>
-    <mergeCell ref="B78:B86"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A66:A72"/>
-    <mergeCell ref="B66:B72"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="A51:A58"/>
-    <mergeCell ref="B51:B58"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B109:B111"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4833,15 +4881,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="105" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="32" t="s">
@@ -4972,15 +5020,15 @@
       <c r="G7" s="37"/>
     </row>
     <row r="9" spans="1:7" ht="17.399999999999999">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="32" t="s">
@@ -5111,15 +5159,15 @@
       <c r="G15" s="37"/>
     </row>
     <row r="17" spans="1:7" ht="17.399999999999999">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="32" t="s">
@@ -5340,15 +5388,15 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.399999999999999">
-      <c r="A29" s="88" t="s">
+      <c r="A29" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="B29" s="88"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="32" t="s">
@@ -5479,15 +5527,15 @@
       <c r="G35" s="37"/>
     </row>
     <row r="37" spans="1:7" ht="17.399999999999999">
-      <c r="A37" s="88" t="s">
+      <c r="A37" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="B37" s="88"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="32" t="s">

--- a/README.xlsx
+++ b/README.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chall\Documents\我的文件\stepic_back\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F513B0B-7988-4FE1-AA3A-B9C2C002E34F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D63846-EFCB-4189-9C16-089C3A43A28D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="247">
   <si>
     <t>请求地址</t>
   </si>
@@ -1111,6 +1111,17 @@
   <si>
     <t>http://106.13.236.185:5000/api/score/query_event</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询并展示所有游戏的最高分以及得分者（只显示每条游戏最高分，时间倒序排序）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://106.13.236.185:5000/api/score/query_max_all</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"date":"2020-12-25","gname":"\u8d2a\u5403\u86c7\u5927\u4f5c\u6218","score":30,"uname":"dmar","unick":""},{"date":"2020-12-23","gname":"2048","score":100,"uname":"dmar","unick":""}]</t>
   </si>
 </sst>
 </file>
@@ -1587,6 +1598,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1596,21 +1628,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1694,12 +1711,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2937,10 +2948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F124"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="E112" sqref="E112"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2954,14 +2965,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30.6">
-      <c r="A1" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
+      <c r="A1" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="56" t="s">
@@ -2974,34 +2985,34 @@
       <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6" ht="15">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
     </row>
     <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
     </row>
     <row r="5" spans="1:6" ht="24">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
@@ -3024,10 +3035,10 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="71" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -3044,8 +3055,8 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="98"/>
-      <c r="B8" s="73"/>
+      <c r="A8" s="100"/>
+      <c r="B8" s="71"/>
       <c r="C8" s="3" t="s">
         <v>29</v>
       </c>
@@ -3060,10 +3071,10 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="71" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -3080,8 +3091,8 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="74"/>
-      <c r="B10" s="73"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="71"/>
       <c r="C10" s="9" t="s">
         <v>29</v>
       </c>
@@ -3096,8 +3107,8 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="74"/>
-      <c r="B11" s="73"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="71"/>
       <c r="C11" s="10"/>
       <c r="D11" s="6"/>
       <c r="E11" s="7" t="s">
@@ -3108,10 +3119,10 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="98" t="s">
+      <c r="A12" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="71" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -3128,8 +3139,8 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="98"/>
-      <c r="B13" s="73"/>
+      <c r="A13" s="100"/>
+      <c r="B13" s="71"/>
       <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
@@ -3144,10 +3155,10 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="71" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -3164,8 +3175,8 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="74"/>
-      <c r="B15" s="73"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="71"/>
       <c r="C15" s="9" t="s">
         <v>45</v>
       </c>
@@ -3180,8 +3191,8 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="74"/>
-      <c r="B16" s="73"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="71"/>
       <c r="C16" s="10"/>
       <c r="D16" s="6"/>
       <c r="E16" s="7" t="s">
@@ -3192,10 +3203,10 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="98" t="s">
+      <c r="A17" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="71" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -3212,8 +3223,8 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="98"/>
-      <c r="B18" s="73"/>
+      <c r="A18" s="100"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="3" t="s">
         <v>29</v>
       </c>
@@ -3228,10 +3239,10 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="71" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -3248,8 +3259,8 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="71"/>
-      <c r="B20" s="73"/>
+      <c r="A20" s="78"/>
+      <c r="B20" s="71"/>
       <c r="C20" s="9" t="s">
         <v>45</v>
       </c>
@@ -3264,8 +3275,8 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="72"/>
-      <c r="B21" s="73"/>
+      <c r="A21" s="79"/>
+      <c r="B21" s="71"/>
       <c r="C21" s="10"/>
       <c r="D21" s="6"/>
       <c r="E21" s="7" t="s">
@@ -3276,14 +3287,14 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="24">
-      <c r="A23" s="92" t="s">
+      <c r="A23" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="93"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="94"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="96"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
@@ -3326,10 +3337,10 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="71" t="s">
         <v>122</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -3346,8 +3357,8 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="74"/>
-      <c r="B27" s="73"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="71"/>
       <c r="C27" s="5" t="s">
         <v>49</v>
       </c>
@@ -3362,8 +3373,8 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="74"/>
-      <c r="B28" s="73"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="71"/>
       <c r="C28" s="5" t="s">
         <v>50</v>
       </c>
@@ -3374,8 +3385,8 @@
       <c r="F28" s="17"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="74"/>
-      <c r="B29" s="73"/>
+      <c r="A29" s="70"/>
+      <c r="B29" s="71"/>
       <c r="C29" s="5" t="s">
         <v>51</v>
       </c>
@@ -3386,8 +3397,8 @@
       <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="74"/>
-      <c r="B30" s="73"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="71"/>
       <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
@@ -3398,8 +3409,8 @@
       <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="74"/>
-      <c r="B31" s="73"/>
+      <c r="A31" s="70"/>
+      <c r="B31" s="71"/>
       <c r="C31" s="5" t="s">
         <v>53</v>
       </c>
@@ -3410,10 +3421,10 @@
       <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="70" t="s">
+      <c r="A32" s="77" t="s">
         <v>200</v>
       </c>
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="74" t="s">
         <v>197</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -3430,8 +3441,8 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="71"/>
-      <c r="B33" s="78"/>
+      <c r="A33" s="78"/>
+      <c r="B33" s="80"/>
       <c r="C33" s="5" t="s">
         <v>54</v>
       </c>
@@ -3446,8 +3457,8 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="71"/>
-      <c r="B34" s="78"/>
+      <c r="A34" s="78"/>
+      <c r="B34" s="80"/>
       <c r="C34" s="5" t="s">
         <v>49</v>
       </c>
@@ -3458,8 +3469,8 @@
       <c r="F34" s="24"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="71"/>
-      <c r="B35" s="78"/>
+      <c r="A35" s="78"/>
+      <c r="B35" s="80"/>
       <c r="C35" s="5" t="s">
         <v>50</v>
       </c>
@@ -3470,8 +3481,8 @@
       <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="71"/>
-      <c r="B36" s="78"/>
+      <c r="A36" s="78"/>
+      <c r="B36" s="80"/>
       <c r="C36" s="5" t="s">
         <v>51</v>
       </c>
@@ -3482,8 +3493,8 @@
       <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="71"/>
-      <c r="B37" s="78"/>
+      <c r="A37" s="78"/>
+      <c r="B37" s="80"/>
       <c r="C37" s="5" t="s">
         <v>52</v>
       </c>
@@ -3494,8 +3505,8 @@
       <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="71"/>
-      <c r="B38" s="78"/>
+      <c r="A38" s="78"/>
+      <c r="B38" s="80"/>
       <c r="C38" s="5" t="s">
         <v>53</v>
       </c>
@@ -3506,8 +3517,8 @@
       <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="72"/>
-      <c r="B39" s="77"/>
+      <c r="A39" s="79"/>
+      <c r="B39" s="75"/>
       <c r="C39" s="5" t="s">
         <v>55</v>
       </c>
@@ -3518,16 +3529,16 @@
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6" ht="106.8" customHeight="1">
-      <c r="A40" s="70" t="s">
+      <c r="A40" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="B40" s="76" t="s">
+      <c r="B40" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="C40" s="82" t="s">
+      <c r="C40" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="D40" s="82" t="s">
+      <c r="D40" s="84" t="s">
         <v>126</v>
       </c>
       <c r="E40" s="5" t="s">
@@ -3538,10 +3549,10 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="72"/>
-      <c r="B41" s="77"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="83"/>
+      <c r="A41" s="79"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="85"/>
       <c r="E41" s="7" t="s">
         <v>203</v>
       </c>
@@ -3550,10 +3561,10 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="74" t="s">
+      <c r="A42" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="B42" s="95" t="s">
+      <c r="B42" s="97" t="s">
         <v>129</v>
       </c>
       <c r="C42" s="18" t="s">
@@ -3570,8 +3581,8 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="74"/>
-      <c r="B43" s="96"/>
+      <c r="A43" s="70"/>
+      <c r="B43" s="98"/>
       <c r="C43" s="20"/>
       <c r="D43" s="6"/>
       <c r="E43" s="7" t="s">
@@ -3582,10 +3593,10 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="74" t="s">
+      <c r="A44" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="B44" s="73" t="s">
+      <c r="B44" s="71" t="s">
         <v>178</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -3602,8 +3613,8 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="74"/>
-      <c r="B45" s="73"/>
+      <c r="A45" s="70"/>
+      <c r="B45" s="71"/>
       <c r="C45" s="5" t="s">
         <v>55</v>
       </c>
@@ -3618,14 +3629,14 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="24">
-      <c r="A47" s="92" t="s">
+      <c r="A47" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="93"/>
-      <c r="C47" s="93"/>
-      <c r="D47" s="93"/>
-      <c r="E47" s="93"/>
-      <c r="F47" s="94"/>
+      <c r="B47" s="95"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="96"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
@@ -3648,10 +3659,10 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="151.80000000000001">
-      <c r="A49" s="84" t="s">
+      <c r="A49" s="86" t="s">
         <v>173</v>
       </c>
-      <c r="B49" s="76" t="s">
+      <c r="B49" s="74" t="s">
         <v>25</v>
       </c>
       <c r="C49" s="60" t="s">
@@ -3668,8 +3679,8 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="85"/>
-      <c r="B50" s="77"/>
+      <c r="A50" s="87"/>
+      <c r="B50" s="75"/>
       <c r="C50" s="61"/>
       <c r="D50" s="15"/>
       <c r="E50" s="7" t="s">
@@ -3680,10 +3691,10 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="86" t="s">
+      <c r="A51" s="88" t="s">
         <v>174</v>
       </c>
-      <c r="B51" s="73" t="s">
+      <c r="B51" s="71" t="s">
         <v>28</v>
       </c>
       <c r="C51" s="6" t="s">
@@ -3700,8 +3711,8 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="87"/>
-      <c r="B52" s="73"/>
+      <c r="A52" s="89"/>
+      <c r="B52" s="71"/>
       <c r="C52" s="21" t="s">
         <v>65</v>
       </c>
@@ -3716,8 +3727,8 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="87"/>
-      <c r="B53" s="73"/>
+      <c r="A53" s="89"/>
+      <c r="B53" s="71"/>
       <c r="C53" s="21" t="s">
         <v>66</v>
       </c>
@@ -3732,8 +3743,8 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="87"/>
-      <c r="B54" s="73"/>
+      <c r="A54" s="89"/>
+      <c r="B54" s="71"/>
       <c r="C54" s="21" t="s">
         <v>67</v>
       </c>
@@ -3744,8 +3755,8 @@
       <c r="F54" s="40"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="87"/>
-      <c r="B55" s="73"/>
+      <c r="A55" s="89"/>
+      <c r="B55" s="71"/>
       <c r="C55" s="21" t="s">
         <v>68</v>
       </c>
@@ -3756,8 +3767,8 @@
       <c r="F55" s="40"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="87"/>
-      <c r="B56" s="73"/>
+      <c r="A56" s="89"/>
+      <c r="B56" s="71"/>
       <c r="C56" s="21" t="s">
         <v>69</v>
       </c>
@@ -3768,8 +3779,8 @@
       <c r="F56" s="40"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="87"/>
-      <c r="B57" s="73"/>
+      <c r="A57" s="89"/>
+      <c r="B57" s="71"/>
       <c r="C57" s="21" t="s">
         <v>70</v>
       </c>
@@ -3780,8 +3791,8 @@
       <c r="F57" s="40"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="88"/>
-      <c r="B58" s="73"/>
+      <c r="A58" s="90"/>
+      <c r="B58" s="71"/>
       <c r="C58" s="23" t="s">
         <v>72</v>
       </c>
@@ -3792,10 +3803,10 @@
       <c r="F58" s="38"/>
     </row>
     <row r="59" spans="1:6" ht="234.6">
-      <c r="A59" s="84" t="s">
+      <c r="A59" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="B59" s="76" t="s">
+      <c r="B59" s="74" t="s">
         <v>132</v>
       </c>
       <c r="C59" s="14" t="s">
@@ -3812,8 +3823,8 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="85"/>
-      <c r="B60" s="77"/>
+      <c r="A60" s="87"/>
+      <c r="B60" s="75"/>
       <c r="C60" s="15"/>
       <c r="D60" s="62"/>
       <c r="E60" s="7" t="s">
@@ -3884,10 +3895,10 @@
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="89" t="s">
+      <c r="A64" s="91" t="s">
         <v>143</v>
       </c>
-      <c r="B64" s="90" t="s">
+      <c r="B64" s="92" t="s">
         <v>144</v>
       </c>
       <c r="C64" s="46" t="s">
@@ -3904,8 +3915,8 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="89"/>
-      <c r="B65" s="90"/>
+      <c r="A65" s="91"/>
+      <c r="B65" s="92"/>
       <c r="C65" s="27"/>
       <c r="D65" s="25"/>
       <c r="E65" s="44" t="s">
@@ -3916,10 +3927,10 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="75" t="s">
+      <c r="A66" s="76" t="s">
         <v>145</v>
       </c>
-      <c r="B66" s="73" t="s">
+      <c r="B66" s="71" t="s">
         <v>146</v>
       </c>
       <c r="C66" s="43" t="s">
@@ -3936,8 +3947,8 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="75"/>
-      <c r="B67" s="73"/>
+      <c r="A67" s="76"/>
+      <c r="B67" s="71"/>
       <c r="C67" s="21" t="s">
         <v>71</v>
       </c>
@@ -3952,8 +3963,8 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="75"/>
-      <c r="B68" s="73"/>
+      <c r="A68" s="76"/>
+      <c r="B68" s="71"/>
       <c r="C68" s="21" t="s">
         <v>151</v>
       </c>
@@ -3968,8 +3979,8 @@
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="75"/>
-      <c r="B69" s="73"/>
+      <c r="A69" s="76"/>
+      <c r="B69" s="71"/>
       <c r="C69" s="21" t="s">
         <v>152</v>
       </c>
@@ -3980,8 +3991,8 @@
       <c r="F69" s="24"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="75"/>
-      <c r="B70" s="73"/>
+      <c r="A70" s="76"/>
+      <c r="B70" s="71"/>
       <c r="C70" s="21" t="s">
         <v>153</v>
       </c>
@@ -3992,8 +4003,8 @@
       <c r="F70" s="24"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="75"/>
-      <c r="B71" s="73"/>
+      <c r="A71" s="76"/>
+      <c r="B71" s="71"/>
       <c r="C71" s="21" t="s">
         <v>154</v>
       </c>
@@ -4004,8 +4015,8 @@
       <c r="F71" s="24"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="75"/>
-      <c r="B72" s="73"/>
+      <c r="A72" s="76"/>
+      <c r="B72" s="71"/>
       <c r="C72" s="21" t="s">
         <v>155</v>
       </c>
@@ -4016,10 +4027,10 @@
       <c r="F72" s="25"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="91" t="s">
+      <c r="A73" s="93" t="s">
         <v>162</v>
       </c>
-      <c r="B73" s="73" t="s">
+      <c r="B73" s="71" t="s">
         <v>163</v>
       </c>
       <c r="C73" s="43" t="s">
@@ -4036,8 +4047,8 @@
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="91"/>
-      <c r="B74" s="73"/>
+      <c r="A74" s="93"/>
+      <c r="B74" s="71"/>
       <c r="C74" s="21" t="s">
         <v>139</v>
       </c>
@@ -4052,8 +4063,8 @@
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="91"/>
-      <c r="B75" s="73"/>
+      <c r="A75" s="93"/>
+      <c r="B75" s="71"/>
       <c r="C75" s="21" t="s">
         <v>153</v>
       </c>
@@ -4068,8 +4079,8 @@
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="91"/>
-      <c r="B76" s="73"/>
+      <c r="A76" s="93"/>
+      <c r="B76" s="71"/>
       <c r="C76" s="21" t="s">
         <v>154</v>
       </c>
@@ -4100,10 +4111,10 @@
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="86" t="s">
+      <c r="A78" s="88" t="s">
         <v>176</v>
       </c>
-      <c r="B78" s="76" t="s">
+      <c r="B78" s="74" t="s">
         <v>171</v>
       </c>
       <c r="C78" s="49" t="s">
@@ -4120,8 +4131,8 @@
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="87"/>
-      <c r="B79" s="78"/>
+      <c r="A79" s="89"/>
+      <c r="B79" s="80"/>
       <c r="C79" s="5" t="s">
         <v>71</v>
       </c>
@@ -4136,8 +4147,8 @@
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="87"/>
-      <c r="B80" s="78"/>
+      <c r="A80" s="89"/>
+      <c r="B80" s="80"/>
       <c r="C80" s="21" t="s">
         <v>65</v>
       </c>
@@ -4148,8 +4159,8 @@
       <c r="F80" s="24"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="87"/>
-      <c r="B81" s="78"/>
+      <c r="A81" s="89"/>
+      <c r="B81" s="80"/>
       <c r="C81" s="21" t="s">
         <v>66</v>
       </c>
@@ -4160,8 +4171,8 @@
       <c r="F81" s="24"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="87"/>
-      <c r="B82" s="78"/>
+      <c r="A82" s="89"/>
+      <c r="B82" s="80"/>
       <c r="C82" s="21" t="s">
         <v>67</v>
       </c>
@@ -4172,8 +4183,8 @@
       <c r="F82" s="24"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="87"/>
-      <c r="B83" s="78"/>
+      <c r="A83" s="89"/>
+      <c r="B83" s="80"/>
       <c r="C83" s="21" t="s">
         <v>68</v>
       </c>
@@ -4184,8 +4195,8 @@
       <c r="F83" s="24"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="87"/>
-      <c r="B84" s="78"/>
+      <c r="A84" s="89"/>
+      <c r="B84" s="80"/>
       <c r="C84" s="21" t="s">
         <v>69</v>
       </c>
@@ -4196,8 +4207,8 @@
       <c r="F84" s="24"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="87"/>
-      <c r="B85" s="78"/>
+      <c r="A85" s="89"/>
+      <c r="B85" s="80"/>
       <c r="C85" s="21" t="s">
         <v>70</v>
       </c>
@@ -4208,8 +4219,8 @@
       <c r="F85" s="24"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="88"/>
-      <c r="B86" s="77"/>
+      <c r="A86" s="90"/>
+      <c r="B86" s="75"/>
       <c r="C86" s="21" t="s">
         <v>72</v>
       </c>
@@ -4220,14 +4231,14 @@
       <c r="F86" s="25"/>
     </row>
     <row r="88" spans="1:6" ht="27">
-      <c r="A88" s="79" t="s">
+      <c r="A88" s="81" t="s">
         <v>179</v>
       </c>
-      <c r="B88" s="80"/>
-      <c r="C88" s="80"/>
-      <c r="D88" s="80"/>
-      <c r="E88" s="80"/>
-      <c r="F88" s="81"/>
+      <c r="B88" s="82"/>
+      <c r="C88" s="82"/>
+      <c r="D88" s="82"/>
+      <c r="E88" s="82"/>
+      <c r="F88" s="83"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="51" t="s">
@@ -4270,10 +4281,10 @@
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="70" t="s">
+      <c r="A91" s="77" t="s">
         <v>185</v>
       </c>
-      <c r="B91" s="76" t="s">
+      <c r="B91" s="74" t="s">
         <v>190</v>
       </c>
       <c r="C91" s="4" t="s">
@@ -4290,8 +4301,8 @@
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="71"/>
-      <c r="B92" s="78"/>
+      <c r="A92" s="78"/>
+      <c r="B92" s="80"/>
       <c r="C92" s="5" t="s">
         <v>186</v>
       </c>
@@ -4306,8 +4317,8 @@
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="72"/>
-      <c r="B93" s="77"/>
+      <c r="A93" s="79"/>
+      <c r="B93" s="75"/>
       <c r="C93" s="5" t="s">
         <v>187</v>
       </c>
@@ -4318,10 +4329,10 @@
       <c r="F93" s="17"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="74" t="s">
+      <c r="A94" s="70" t="s">
         <v>191</v>
       </c>
-      <c r="B94" s="104" t="s">
+      <c r="B94" s="106" t="s">
         <v>233</v>
       </c>
       <c r="C94" s="18" t="s">
@@ -4338,8 +4349,8 @@
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="74"/>
-      <c r="B95" s="104"/>
+      <c r="A95" s="70"/>
+      <c r="B95" s="106"/>
       <c r="C95" s="19"/>
       <c r="D95" s="17"/>
       <c r="E95" s="7" t="s">
@@ -4350,10 +4361,10 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="55.2">
-      <c r="A96" s="74" t="s">
+      <c r="A96" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="B96" s="73" t="s">
+      <c r="B96" s="71" t="s">
         <v>195</v>
       </c>
       <c r="C96" s="11" t="s">
@@ -4370,8 +4381,8 @@
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="74"/>
-      <c r="B97" s="73"/>
+      <c r="A97" s="70"/>
+      <c r="B97" s="71"/>
       <c r="C97" s="6"/>
       <c r="D97" s="66"/>
       <c r="E97" s="7" t="s">
@@ -4382,14 +4393,14 @@
       </c>
     </row>
     <row r="99" spans="1:6" ht="27">
-      <c r="A99" s="79" t="s">
+      <c r="A99" s="81" t="s">
         <v>202</v>
       </c>
-      <c r="B99" s="80"/>
-      <c r="C99" s="80"/>
-      <c r="D99" s="80"/>
-      <c r="E99" s="80"/>
-      <c r="F99" s="81"/>
+      <c r="B99" s="82"/>
+      <c r="C99" s="82"/>
+      <c r="D99" s="82"/>
+      <c r="E99" s="82"/>
+      <c r="F99" s="83"/>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="55" t="s">
@@ -4412,10 +4423,10 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="41.4">
-      <c r="A101" s="75" t="s">
+      <c r="A101" s="76" t="s">
         <v>207</v>
       </c>
-      <c r="B101" s="76" t="s">
+      <c r="B101" s="74" t="s">
         <v>211</v>
       </c>
       <c r="C101" s="67" t="s">
@@ -4432,8 +4443,8 @@
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="75"/>
-      <c r="B102" s="77"/>
+      <c r="A102" s="76"/>
+      <c r="B102" s="75"/>
       <c r="C102" s="25"/>
       <c r="D102" s="25"/>
       <c r="E102" s="21" t="s">
@@ -4444,10 +4455,10 @@
       </c>
     </row>
     <row r="103" spans="1:6" ht="41.4">
-      <c r="A103" s="75" t="s">
+      <c r="A103" s="76" t="s">
         <v>212</v>
       </c>
-      <c r="B103" s="73" t="s">
+      <c r="B103" s="71" t="s">
         <v>213</v>
       </c>
       <c r="C103" s="67" t="s">
@@ -4464,8 +4475,8 @@
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="75"/>
-      <c r="B104" s="73"/>
+      <c r="A104" s="76"/>
+      <c r="B104" s="71"/>
       <c r="C104" s="25"/>
       <c r="D104" s="25"/>
       <c r="E104" s="21" t="s">
@@ -4476,10 +4487,10 @@
       </c>
     </row>
     <row r="105" spans="1:6" ht="41.4">
-      <c r="A105" s="75" t="s">
+      <c r="A105" s="76" t="s">
         <v>215</v>
       </c>
-      <c r="B105" s="73" t="s">
+      <c r="B105" s="71" t="s">
         <v>214</v>
       </c>
       <c r="C105" s="67" t="s">
@@ -4496,8 +4507,8 @@
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="75"/>
-      <c r="B106" s="73"/>
+      <c r="A106" s="76"/>
+      <c r="B106" s="71"/>
       <c r="C106" s="25"/>
       <c r="D106" s="25"/>
       <c r="E106" s="21" t="s">
@@ -4508,10 +4519,10 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="27.6">
-      <c r="A107" s="75" t="s">
+      <c r="A107" s="76" t="s">
         <v>216</v>
       </c>
-      <c r="B107" s="73" t="s">
+      <c r="B107" s="71" t="s">
         <v>217</v>
       </c>
       <c r="C107" s="23" t="s">
@@ -4528,8 +4539,8 @@
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="75"/>
-      <c r="B108" s="73"/>
+      <c r="A108" s="76"/>
+      <c r="B108" s="71"/>
       <c r="C108" s="25"/>
       <c r="D108" s="25"/>
       <c r="E108" s="21" t="s">
@@ -4540,10 +4551,10 @@
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="75" t="s">
+      <c r="A109" s="76" t="s">
         <v>220</v>
       </c>
-      <c r="B109" s="73" t="s">
+      <c r="B109" s="71" t="s">
         <v>221</v>
       </c>
       <c r="C109" s="21" t="s">
@@ -4560,8 +4571,8 @@
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="75"/>
-      <c r="B110" s="73"/>
+      <c r="A110" s="76"/>
+      <c r="B110" s="71"/>
       <c r="C110" s="21" t="s">
         <v>139</v>
       </c>
@@ -4576,8 +4587,8 @@
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="75"/>
-      <c r="B111" s="73"/>
+      <c r="A111" s="76"/>
+      <c r="B111" s="71"/>
       <c r="C111" s="21" t="s">
         <v>222</v>
       </c>
@@ -4588,10 +4599,10 @@
       <c r="F111" s="25"/>
     </row>
     <row r="112" spans="1:6" ht="41.4">
-      <c r="A112" s="106" t="s">
+      <c r="A112" s="72" t="s">
         <v>242</v>
       </c>
-      <c r="B112" s="73" t="s">
+      <c r="B112" s="71" t="s">
         <v>243</v>
       </c>
       <c r="C112" s="67" t="s">
@@ -4608,8 +4619,8 @@
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="107"/>
-      <c r="B113" s="73"/>
+      <c r="A113" s="73"/>
+      <c r="B113" s="71"/>
       <c r="C113" s="25"/>
       <c r="D113" s="25"/>
       <c r="E113" s="21" t="s">
@@ -4619,173 +4630,207 @@
         <v>210</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="27">
-      <c r="A115" s="79" t="s">
+    <row r="114" spans="1:6" ht="82.8">
+      <c r="A114" s="72" t="s">
+        <v>244</v>
+      </c>
+      <c r="B114" s="74" t="s">
+        <v>245</v>
+      </c>
+      <c r="C114" s="67" t="s">
+        <v>126</v>
+      </c>
+      <c r="D114" s="67" t="s">
+        <v>126</v>
+      </c>
+      <c r="E114" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="73"/>
+      <c r="B115" s="75"/>
+      <c r="C115" s="25"/>
+      <c r="D115" s="25"/>
+      <c r="E115" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="F115" s="21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="27">
+      <c r="A117" s="81" t="s">
         <v>196</v>
       </c>
-      <c r="B115" s="80"/>
-      <c r="C115" s="80"/>
-      <c r="D115" s="80"/>
-      <c r="E115" s="80"/>
-      <c r="F115" s="81"/>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="51" t="s">
+      <c r="B117" s="82"/>
+      <c r="C117" s="82"/>
+      <c r="D117" s="82"/>
+      <c r="E117" s="82"/>
+      <c r="F117" s="83"/>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B116" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C116" s="51" t="s">
+      <c r="B118" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D116" s="51" t="s">
+      <c r="D118" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E116" s="51" t="s">
+      <c r="E118" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F116" s="51" t="s">
+      <c r="F118" s="51" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="27.6">
-      <c r="A117" s="55" t="s">
+    <row r="119" spans="1:6" ht="27.6">
+      <c r="A119" s="55" t="s">
         <v>225</v>
       </c>
-      <c r="B117" s="54" t="s">
+      <c r="B119" s="54" t="s">
         <v>229</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C119" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="D119" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="E117" s="4" t="s">
+      <c r="E119" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="F117" s="4" t="s">
+      <c r="F119" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="70" t="s">
+    <row r="120" spans="1:6">
+      <c r="A120" s="77" t="s">
         <v>226</v>
       </c>
-      <c r="B118" s="73" t="s">
+      <c r="B120" s="71" t="s">
         <v>230</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C120" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="D120" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="E118" s="11" t="s">
+      <c r="E120" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F118" s="11" t="s">
+      <c r="F120" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="71"/>
-      <c r="B119" s="73"/>
-      <c r="C119" s="5" t="s">
+    <row r="121" spans="1:6">
+      <c r="A121" s="78"/>
+      <c r="B121" s="71"/>
+      <c r="C121" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D119" s="16" t="s">
+      <c r="D121" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="E119" s="18" t="s">
+      <c r="E121" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F119" s="11" t="s">
+      <c r="F121" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="72"/>
-      <c r="B120" s="73"/>
-      <c r="C120" s="5" t="s">
+    <row r="122" spans="1:6">
+      <c r="A122" s="79"/>
+      <c r="B122" s="71"/>
+      <c r="C122" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="D120" s="16" t="s">
+      <c r="D122" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="E120" s="19"/>
-      <c r="F120" s="17"/>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="74" t="s">
+      <c r="E122" s="19"/>
+      <c r="F122" s="17"/>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="70" t="s">
         <v>228</v>
       </c>
-      <c r="B121" s="73" t="s">
+      <c r="B123" s="71" t="s">
         <v>231</v>
       </c>
-      <c r="C121" s="18" t="s">
+      <c r="C123" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="D121" s="11" t="s">
+      <c r="D123" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="E121" s="7" t="s">
+      <c r="E123" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F121" s="5" t="s">
+      <c r="F123" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="74"/>
-      <c r="B122" s="73"/>
-      <c r="C122" s="19"/>
-      <c r="D122" s="17"/>
-      <c r="E122" s="7" t="s">
+    <row r="124" spans="1:6">
+      <c r="A124" s="70"/>
+      <c r="B124" s="71"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F122" s="5" t="s">
+      <c r="F124" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="41.4">
-      <c r="A123" s="74" t="s">
+    <row r="125" spans="1:6" ht="41.4">
+      <c r="A125" s="70" t="s">
         <v>227</v>
       </c>
-      <c r="B123" s="73" t="s">
+      <c r="B125" s="71" t="s">
         <v>232</v>
       </c>
-      <c r="C123" s="11" t="s">
+      <c r="C125" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D123" s="65" t="s">
+      <c r="D125" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="E123" s="7" t="s">
+      <c r="E125" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F123" s="4" t="s">
+      <c r="F125" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="74"/>
-      <c r="B124" s="73"/>
-      <c r="C124" s="6"/>
-      <c r="D124" s="66"/>
-      <c r="E124" s="7" t="s">
+    <row r="126" spans="1:6">
+      <c r="A126" s="70"/>
+      <c r="B126" s="71"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="66"/>
+      <c r="E126" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F124" s="4" t="s">
+      <c r="F126" s="4" t="s">
         <v>237</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="71">
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
+  <mergeCells count="73">
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
     <mergeCell ref="A88:F88"/>
     <mergeCell ref="A94:A95"/>
     <mergeCell ref="B94:B95"/>
@@ -4838,22 +4883,22 @@
     <mergeCell ref="B96:B97"/>
     <mergeCell ref="A96:A97"/>
     <mergeCell ref="A78:A86"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
     <mergeCell ref="A107:A108"/>
     <mergeCell ref="B107:B108"/>
     <mergeCell ref="B109:B111"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4881,15 +4926,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="32" t="s">
@@ -5020,15 +5065,15 @@
       <c r="G7" s="37"/>
     </row>
     <row r="9" spans="1:7" ht="17.399999999999999">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="107" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="32" t="s">
@@ -5159,15 +5204,15 @@
       <c r="G15" s="37"/>
     </row>
     <row r="17" spans="1:7" ht="17.399999999999999">
-      <c r="A17" s="105" t="s">
+      <c r="A17" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="32" t="s">
@@ -5388,15 +5433,15 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.399999999999999">
-      <c r="A29" s="105" t="s">
+      <c r="A29" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="107"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="32" t="s">
@@ -5527,15 +5572,15 @@
       <c r="G35" s="37"/>
     </row>
     <row r="37" spans="1:7" ht="17.399999999999999">
-      <c r="A37" s="105" t="s">
+      <c r="A37" s="107" t="s">
         <v>120</v>
       </c>
-      <c r="B37" s="105"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="105"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="107"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="107"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="32" t="s">

--- a/README.xlsx
+++ b/README.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chall\Documents\我的文件\stepic_back\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D63846-EFCB-4189-9C16-089C3A43A28D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4911E7A-B552-4EEF-B2A5-236D4157B937}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7572" yWindow="3384" windowWidth="17508" windowHeight="11232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="253">
   <si>
     <t>请求地址</t>
   </si>
@@ -617,9 +617,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>[ { "filename": "2048.py", "fileurl": "http://106.13.236.185:5000/static/game/2048.py", "gid": 1, "gname": "2048", "image": "http://106.13.236.185:5000/static/image/2048.png", "name": "2048", "note": null, "star": 0, "status": "\u5ba1\u6838\u901a\u8fc7", "version": "1.0" }, { "filename": "tanchi", "fileurl": "http://106.13.236.185:5000/static/game/tanchi", "gid": 2, "gname": "\u8d2a\u5403\u86c7\u5927\u4f5c\u6218", "image": "http://106.13.236.185:5000/static/image/tanchi.png", "name": "tanchi", "note": null, "star": 0, "status": "\u5ba1\u6838\u901a\u8fc7", "version": "1.0" } ]</t>
-  </si>
-  <si>
     <t>删除某游戏</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1123,12 +1120,51 @@
   <si>
     <t>[{"date":"2020-12-25","gname":"\u8d2a\u5403\u86c7\u5927\u4f5c\u6218","score":30,"uname":"dmar","unick":""},{"date":"2020-12-23","gname":"2048","score":100,"uname":"dmar","unick":""}]</t>
   </si>
+  <si>
+    <t>http://106.13.236.185:5000/api/game/query_upload</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发者查询已上传的游戏</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{ "did": 1, "filename": "2048.py", "fileurl": "http://106.13.236.185:5000/static/game/2048.py", "gid": 1, "gname": "2048", "image": "http://106.13.236.185:5000/static/image/2048.png", "name": "2048", "note": null, "status": "\u5ba1\u6838\u5931\u8d25", "version": "1.5" }]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ { "dname": "developer1", "filename": "2048.py", "fileurl": "http://106.13.236.185:5000/static/game/2048.py", "gid": 1, "gname": "2048", "image": "http://106.13.236.185:5000/static/image/2048.png", "name": "2048", "note": null, "status": "\u5ba1\u6838\u5931\u8d25", "version": "1.5" }]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>查询所有待审核游戏</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFA7A7A7"/>
+        <rFont val="Var(--monospace)"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://106.13.236.185:5000/api/game/query_all_check</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ { "dname": "developer1", "filename": "elsfk.py", "fileurl": "http://106.13.236.185:5000/static/game/elsfk.py", "gid": 3, "gname": "\u4fc4\u7f57\u65af\u65b9\u5757", "image": "http://106.13.236.185:5000/static/image/elsfk.png", "name": "elsfk", "note": "\u4fc4\u7f57\u65af\u65b9\u5757\uff0c\u4f53\u9a8c\u5feb\u4e50", "status": "\u672a\u5ba1\u6838", "version": "1.1" } ]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1226,6 +1262,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1236,12 +1280,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF8F8F8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1249,6 +1287,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1422,77 +1466,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1524,9 +1512,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1541,180 +1526,298 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="60">
     <dxf>
@@ -2948,16 +3051,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90:B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="31.5546875" customWidth="1"/>
-    <col min="2" max="2" width="51.77734375" style="41" customWidth="1"/>
+    <col min="2" max="2" width="51.77734375" style="17" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="13.109375" customWidth="1"/>
     <col min="5" max="5" width="39.21875" customWidth="1"/>
@@ -2965,336 +3068,336 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30.6">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" ht="15">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:6" ht="24">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="53" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="70" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="100"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="3" t="s">
+      <c r="A8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="70" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="57" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="70"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="9" t="s">
+      <c r="A10" s="55"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="57" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="70"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7" t="s">
+      <c r="A11" s="55"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="57" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="100" t="s">
+      <c r="A12" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="70" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="100"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="3" t="s">
+      <c r="A13" s="67"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="70" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="57" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="70"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="9" t="s">
+      <c r="A15" s="55"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="57" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="70"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7" t="s">
+      <c r="A16" s="55"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="57" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="100" t="s">
+      <c r="A17" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="70" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="100"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="3" t="s">
+      <c r="A18" s="67"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="70" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="57" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="78"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="9" t="s">
+      <c r="A20" s="65"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="57" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="79"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7" t="s">
+      <c r="A21" s="66"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="57" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="24">
-      <c r="A23" s="94" t="s">
+      <c r="A23" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="95"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="96"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="45"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
@@ -3317,326 +3420,326 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="41.4">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="70" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="B26" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="55"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="109" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="110" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="55"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="109" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="52"/>
+      <c r="F28" s="111"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="55"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="109" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="52"/>
+      <c r="F29" s="111"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="55"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="109" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="52"/>
+      <c r="F30" s="111"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="55"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="109" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="52"/>
+      <c r="F31" s="111"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="80" t="s">
+        <v>199</v>
+      </c>
+      <c r="B32" s="81" t="s">
+        <v>196</v>
+      </c>
+      <c r="C32" s="70" t="s">
+        <v>197</v>
+      </c>
+      <c r="D32" s="74" t="s">
+        <v>198</v>
+      </c>
+      <c r="E32" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="73" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="82"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="73" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="82"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="82"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="76"/>
+      <c r="F35" s="77"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="82"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="76"/>
+      <c r="F36" s="77"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="82"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="76"/>
+      <c r="F37" s="77"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="82"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="76"/>
+      <c r="F38" s="77"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="85"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="87"/>
+      <c r="F39" s="72"/>
+    </row>
+    <row r="40" spans="1:6" ht="106.8" customHeight="1">
+      <c r="A40" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="114" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="130" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="130" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="F40" s="57" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="70" t="s">
-        <v>201</v>
-      </c>
-      <c r="B26" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" s="5" t="s">
+    <row r="41" spans="1:6">
+      <c r="A41" s="66"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="131"/>
+      <c r="D41" s="131"/>
+      <c r="E41" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="F41" s="57" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D42" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E42" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F42" s="70" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="67"/>
+      <c r="B43" s="90"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" s="70" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="B44" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="57" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="70"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="18" t="s">
+    <row r="45" spans="1:6">
+      <c r="A45" s="55"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="70"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="17"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="70"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="17"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="70"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="17"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="70"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="17"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="77" t="s">
-        <v>200</v>
-      </c>
-      <c r="B32" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="78"/>
-      <c r="B33" s="80"/>
-      <c r="C33" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="78"/>
-      <c r="B34" s="80"/>
-      <c r="C34" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="78"/>
-      <c r="B35" s="80"/>
-      <c r="C35" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="17"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="78"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="17"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="78"/>
-      <c r="B37" s="80"/>
-      <c r="C37" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="17"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="78"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="17"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="79"/>
-      <c r="B39" s="75"/>
-      <c r="C39" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="1:6" ht="106.8" customHeight="1">
-      <c r="A40" s="77" t="s">
-        <v>121</v>
-      </c>
-      <c r="B40" s="74" t="s">
-        <v>124</v>
-      </c>
-      <c r="C40" s="84" t="s">
-        <v>126</v>
-      </c>
-      <c r="D40" s="84" t="s">
-        <v>126</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="79"/>
-      <c r="B41" s="75"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="70" t="s">
-        <v>128</v>
-      </c>
-      <c r="B42" s="97" t="s">
-        <v>129</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="70"/>
-      <c r="B43" s="98"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="70" t="s">
-        <v>177</v>
-      </c>
-      <c r="B44" s="71" t="s">
-        <v>178</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="70"/>
-      <c r="B45" s="71"/>
-      <c r="C45" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>172</v>
+      <c r="F45" s="57" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="24">
-      <c r="A47" s="94" t="s">
+      <c r="A47" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="95"/>
-      <c r="C47" s="95"/>
-      <c r="D47" s="95"/>
-      <c r="E47" s="95"/>
-      <c r="F47" s="96"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="45"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
@@ -3645,10 +3748,10 @@
       <c r="B48" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="59" t="s">
+      <c r="C48" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="59" t="s">
+      <c r="D48" s="29" t="s">
         <v>3</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -3659,1188 +3762,1310 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="151.80000000000001">
-      <c r="A49" s="86" t="s">
+      <c r="A49" s="91" t="s">
+        <v>172</v>
+      </c>
+      <c r="B49" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="92"/>
+      <c r="B50" s="86"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="89" t="s">
+        <v>202</v>
+      </c>
+      <c r="F50" s="70" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="117" t="s">
         <v>173</v>
       </c>
-      <c r="B49" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49" s="60" t="s">
+      <c r="B51" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="119"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="121" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="121" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="120" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" s="120" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="119"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="121" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" s="125" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53" s="120" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53" s="126" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="119"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="121" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="125" t="s">
+        <v>75</v>
+      </c>
+      <c r="E54" s="122"/>
+      <c r="F54" s="127"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="119"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="125" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" s="122"/>
+      <c r="F55" s="127"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="119"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="121" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" s="125" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" s="122"/>
+      <c r="F56" s="127"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="119"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="121" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="125" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57" s="122"/>
+      <c r="F57" s="127"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="123"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" s="128" t="s">
+        <v>78</v>
+      </c>
+      <c r="E58" s="124"/>
+      <c r="F58" s="129"/>
+    </row>
+    <row r="59" spans="1:6" ht="110.4">
+      <c r="A59" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="B59" s="81" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D59" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="F49" s="4" t="s">
+      <c r="E59" s="94" t="s">
+        <v>249</v>
+      </c>
+      <c r="F59" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="92"/>
+      <c r="B60" s="86"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="94"/>
+      <c r="E60" s="89" t="s">
+        <v>202</v>
+      </c>
+      <c r="F60" s="70" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="96.6">
+      <c r="A61" s="117" t="s">
+        <v>247</v>
+      </c>
+      <c r="B61" s="114" t="s">
+        <v>246</v>
+      </c>
+      <c r="C61" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="D61" s="112" t="s">
+        <v>234</v>
+      </c>
+      <c r="E61" s="113" t="s">
+        <v>248</v>
+      </c>
+      <c r="F61" s="57" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="123"/>
+      <c r="B62" s="116"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="113"/>
+      <c r="E62" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="F62" s="57" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="95" t="s">
+        <v>133</v>
+      </c>
+      <c r="B63" s="79" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="D63" s="96" t="s">
+        <v>140</v>
+      </c>
+      <c r="E63" s="97" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63" s="97" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="95" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" s="79" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="D65" s="98" t="s">
+        <v>140</v>
+      </c>
+      <c r="E65" s="97" t="s">
+        <v>34</v>
+      </c>
+      <c r="F65" s="97" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66" s="19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="46"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="99" t="s">
+        <v>144</v>
+      </c>
+      <c r="B68" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" s="97" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" s="97" t="s">
+        <v>147</v>
+      </c>
+      <c r="E68" s="97" t="s">
+        <v>34</v>
+      </c>
+      <c r="F68" s="97" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="99"/>
+      <c r="B69" s="68"/>
+      <c r="C69" s="97" t="s">
+        <v>233</v>
+      </c>
+      <c r="D69" s="97" t="s">
+        <v>234</v>
+      </c>
+      <c r="E69" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="F69" s="98" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="99"/>
+      <c r="B70" s="68"/>
+      <c r="C70" s="97" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="E70" s="100" t="s">
+        <v>159</v>
+      </c>
+      <c r="F70" s="98" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="99"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="97" t="s">
+        <v>150</v>
+      </c>
+      <c r="D71" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="E71" s="84"/>
+      <c r="F71" s="84"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="99"/>
+      <c r="B72" s="68"/>
+      <c r="C72" s="97" t="s">
+        <v>151</v>
+      </c>
+      <c r="D72" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="E72" s="102"/>
+      <c r="F72" s="84"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="99"/>
+      <c r="B73" s="68"/>
+      <c r="C73" s="97" t="s">
+        <v>152</v>
+      </c>
+      <c r="D73" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="E73" s="102"/>
+      <c r="F73" s="84"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="99"/>
+      <c r="B74" s="68"/>
+      <c r="C74" s="97" t="s">
+        <v>153</v>
+      </c>
+      <c r="D74" s="101" t="s">
+        <v>155</v>
+      </c>
+      <c r="E74" s="102"/>
+      <c r="F74" s="84"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="99"/>
+      <c r="B75" s="68"/>
+      <c r="C75" s="97" t="s">
+        <v>154</v>
+      </c>
+      <c r="D75" s="101" t="s">
+        <v>156</v>
+      </c>
+      <c r="E75" s="103"/>
+      <c r="F75" s="96"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="B76" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E76" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F76" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="48"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F77" s="21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="48"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D78" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="E78" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F78" s="21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="48"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D79" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="E79" s="6"/>
+      <c r="F79" s="5"/>
+    </row>
+    <row r="80" spans="1:6" ht="138">
+      <c r="A80" s="104" t="s">
+        <v>169</v>
+      </c>
+      <c r="B80" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="C80" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="D80" s="105" t="s">
+        <v>140</v>
+      </c>
+      <c r="E80" s="106" t="s">
+        <v>163</v>
+      </c>
+      <c r="F80" s="70" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="87"/>
-      <c r="B50" s="75"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F50" s="4" t="s">
+    <row r="81" spans="1:7">
+      <c r="A81" s="117" t="s">
+        <v>175</v>
+      </c>
+      <c r="B81" s="114" t="s">
+        <v>170</v>
+      </c>
+      <c r="C81" s="118" t="s">
+        <v>139</v>
+      </c>
+      <c r="D81" s="118" t="s">
+        <v>140</v>
+      </c>
+      <c r="E81" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="F81" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="G81" s="28"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="119"/>
+      <c r="B82" s="115"/>
+      <c r="C82" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="D82" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="E82" s="120" t="s">
+        <v>35</v>
+      </c>
+      <c r="F82" s="120" t="s">
+        <v>171</v>
+      </c>
+      <c r="G82" s="28"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="119"/>
+      <c r="B83" s="115"/>
+      <c r="C83" s="121" t="s">
+        <v>65</v>
+      </c>
+      <c r="D83" s="121" t="s">
+        <v>73</v>
+      </c>
+      <c r="E83" s="122"/>
+      <c r="F83" s="122"/>
+      <c r="G83" s="28"/>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="119"/>
+      <c r="B84" s="115"/>
+      <c r="C84" s="121" t="s">
+        <v>66</v>
+      </c>
+      <c r="D84" s="121" t="s">
+        <v>74</v>
+      </c>
+      <c r="E84" s="122"/>
+      <c r="F84" s="122"/>
+      <c r="G84" s="28"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="119"/>
+      <c r="B85" s="115"/>
+      <c r="C85" s="121" t="s">
+        <v>67</v>
+      </c>
+      <c r="D85" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="E85" s="122"/>
+      <c r="F85" s="122"/>
+      <c r="G85" s="28"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="119"/>
+      <c r="B86" s="115"/>
+      <c r="C86" s="121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" s="121" t="s">
+        <v>80</v>
+      </c>
+      <c r="E86" s="122"/>
+      <c r="F86" s="122"/>
+      <c r="G86" s="28"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="119"/>
+      <c r="B87" s="115"/>
+      <c r="C87" s="121" t="s">
+        <v>69</v>
+      </c>
+      <c r="D87" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="E87" s="122"/>
+      <c r="F87" s="122"/>
+      <c r="G87" s="28"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="119"/>
+      <c r="B88" s="115"/>
+      <c r="C88" s="121" t="s">
+        <v>70</v>
+      </c>
+      <c r="D88" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="E88" s="122"/>
+      <c r="F88" s="122"/>
+      <c r="G88" s="28"/>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="123"/>
+      <c r="B89" s="116"/>
+      <c r="C89" s="121" t="s">
+        <v>72</v>
+      </c>
+      <c r="D89" s="121" t="s">
+        <v>78</v>
+      </c>
+      <c r="E89" s="124"/>
+      <c r="F89" s="124"/>
+      <c r="G89" s="28"/>
+    </row>
+    <row r="90" spans="1:7" ht="138">
+      <c r="A90" s="91" t="s">
+        <v>250</v>
+      </c>
+      <c r="B90" s="132" t="s">
+        <v>251</v>
+      </c>
+      <c r="C90" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="D90" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="E90" s="94" t="s">
+        <v>252</v>
+      </c>
+      <c r="F90" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="G90" s="28"/>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="92"/>
+      <c r="B91" s="86"/>
+      <c r="C91" s="87"/>
+      <c r="D91" s="72"/>
+      <c r="E91" s="89" t="s">
+        <v>202</v>
+      </c>
+      <c r="F91" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="G91" s="28"/>
+    </row>
+    <row r="93" spans="1:7" ht="27">
+      <c r="A93" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="B93" s="35"/>
+      <c r="C93" s="35"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="35"/>
+      <c r="F93" s="36"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="27.6">
+      <c r="A95" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="B95" s="79" t="s">
+        <v>179</v>
+      </c>
+      <c r="C95" s="70" t="s">
+        <v>181</v>
+      </c>
+      <c r="D95" s="70" t="s">
+        <v>182</v>
+      </c>
+      <c r="E95" s="70" t="s">
+        <v>183</v>
+      </c>
+      <c r="F95" s="70" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="B96" s="114" t="s">
+        <v>189</v>
+      </c>
+      <c r="C96" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="D96" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="E96" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="F96" s="59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="65"/>
+      <c r="B97" s="115"/>
+      <c r="C97" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="D97" s="109" t="s">
+        <v>187</v>
+      </c>
+      <c r="E97" s="110" t="s">
+        <v>35</v>
+      </c>
+      <c r="F97" s="59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="66"/>
+      <c r="B98" s="116"/>
+      <c r="C98" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="D98" s="109" t="s">
+        <v>188</v>
+      </c>
+      <c r="E98" s="52"/>
+      <c r="F98" s="111"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="67" t="s">
+        <v>190</v>
+      </c>
+      <c r="B99" s="107" t="s">
+        <v>232</v>
+      </c>
+      <c r="C99" s="75" t="s">
+        <v>181</v>
+      </c>
+      <c r="D99" s="70" t="s">
+        <v>182</v>
+      </c>
+      <c r="E99" s="89" t="s">
+        <v>34</v>
+      </c>
+      <c r="F99" s="70" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="67"/>
+      <c r="B100" s="107"/>
+      <c r="C100" s="76"/>
+      <c r="D100" s="77"/>
+      <c r="E100" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="F100" s="70" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="55.2">
+      <c r="A101" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="B101" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="C101" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="D101" s="112" t="s">
+        <v>126</v>
+      </c>
+      <c r="E101" s="61" t="s">
+        <v>192</v>
+      </c>
+      <c r="F101" s="57" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="55"/>
+      <c r="B102" s="56"/>
+      <c r="C102" s="63"/>
+      <c r="D102" s="113"/>
+      <c r="E102" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="F102" s="57" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="88" t="s">
-        <v>174</v>
-      </c>
-      <c r="B51" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E51" s="5" t="s">
+    <row r="104" spans="1:6" ht="27">
+      <c r="A104" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="B104" s="35"/>
+      <c r="C104" s="35"/>
+      <c r="D104" s="35"/>
+      <c r="E104" s="35"/>
+      <c r="F104" s="36"/>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B105" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E105" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F105" s="27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="41.4">
+      <c r="A106" s="99" t="s">
+        <v>206</v>
+      </c>
+      <c r="B106" s="81" t="s">
+        <v>210</v>
+      </c>
+      <c r="C106" s="108" t="s">
+        <v>197</v>
+      </c>
+      <c r="D106" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="E106" s="106" t="s">
+        <v>207</v>
+      </c>
+      <c r="F106" s="70" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="99"/>
+      <c r="B107" s="86"/>
+      <c r="C107" s="96"/>
+      <c r="D107" s="96"/>
+      <c r="E107" s="97" t="s">
+        <v>202</v>
+      </c>
+      <c r="F107" s="97" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="41.4">
+      <c r="A108" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B108" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="C108" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D108" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E108" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="32"/>
+      <c r="B109" s="33"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="41.4">
+      <c r="A110" s="99" t="s">
+        <v>214</v>
+      </c>
+      <c r="B110" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="C110" s="108" t="s">
+        <v>139</v>
+      </c>
+      <c r="D110" s="108" t="s">
+        <v>140</v>
+      </c>
+      <c r="E110" s="106" t="s">
+        <v>207</v>
+      </c>
+      <c r="F110" s="70" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="99"/>
+      <c r="B111" s="68"/>
+      <c r="C111" s="96"/>
+      <c r="D111" s="96"/>
+      <c r="E111" s="97" t="s">
+        <v>202</v>
+      </c>
+      <c r="F111" s="97" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="27.6">
+      <c r="A112" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="B112" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F112" s="31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="32"/>
+      <c r="B113" s="33"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="99" t="s">
+        <v>219</v>
+      </c>
+      <c r="B114" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="C114" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="D114" s="97" t="s">
+        <v>32</v>
+      </c>
+      <c r="E114" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="F51" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="89"/>
-      <c r="B52" s="71"/>
-      <c r="C52" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D52" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="E52" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="F52" s="23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="89"/>
-      <c r="B53" s="71"/>
-      <c r="C53" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E53" s="23" t="s">
+      <c r="F114" s="73" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="99"/>
+      <c r="B115" s="68"/>
+      <c r="C115" s="97" t="s">
+        <v>139</v>
+      </c>
+      <c r="D115" s="101" t="s">
+        <v>140</v>
+      </c>
+      <c r="E115" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="F115" s="98" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="99"/>
+      <c r="B116" s="68"/>
+      <c r="C116" s="97" t="s">
+        <v>221</v>
+      </c>
+      <c r="D116" s="101" t="s">
+        <v>201</v>
+      </c>
+      <c r="E116" s="96"/>
+      <c r="F116" s="96"/>
+    </row>
+    <row r="117" spans="1:6" ht="41.4">
+      <c r="A117" s="49" t="s">
+        <v>241</v>
+      </c>
+      <c r="B117" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="C117" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="D117" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="E117" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="50"/>
+      <c r="B118" s="33"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="82.8">
+      <c r="A119" s="80" t="s">
+        <v>243</v>
+      </c>
+      <c r="B119" s="81" t="s">
+        <v>244</v>
+      </c>
+      <c r="C119" s="108" t="s">
+        <v>126</v>
+      </c>
+      <c r="D119" s="108" t="s">
+        <v>126</v>
+      </c>
+      <c r="E119" s="106" t="s">
+        <v>245</v>
+      </c>
+      <c r="F119" s="70" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="85"/>
+      <c r="B120" s="86"/>
+      <c r="C120" s="96"/>
+      <c r="D120" s="96"/>
+      <c r="E120" s="97" t="s">
+        <v>202</v>
+      </c>
+      <c r="F120" s="97" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="27">
+      <c r="A122" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="B122" s="35"/>
+      <c r="C122" s="35"/>
+      <c r="D122" s="35"/>
+      <c r="E122" s="35"/>
+      <c r="F122" s="36"/>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C123" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E123" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F123" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="27.6">
+      <c r="A124" s="78" t="s">
+        <v>224</v>
+      </c>
+      <c r="B124" s="79" t="s">
+        <v>228</v>
+      </c>
+      <c r="C124" s="70" t="s">
+        <v>233</v>
+      </c>
+      <c r="D124" s="70" t="s">
+        <v>234</v>
+      </c>
+      <c r="E124" s="70" t="s">
+        <v>223</v>
+      </c>
+      <c r="F124" s="70" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="64" t="s">
+        <v>225</v>
+      </c>
+      <c r="B125" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="C125" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="D125" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="E125" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="F125" s="59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="65"/>
+      <c r="B126" s="56"/>
+      <c r="C126" s="57" t="s">
+        <v>239</v>
+      </c>
+      <c r="D126" s="109" t="s">
+        <v>240</v>
+      </c>
+      <c r="E126" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="F53" s="39" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="89"/>
-      <c r="B54" s="71"/>
-      <c r="C54" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="E54" s="24"/>
-      <c r="F54" s="40"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="89"/>
-      <c r="B55" s="71"/>
-      <c r="C55" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E55" s="24"/>
-      <c r="F55" s="40"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="89"/>
-      <c r="B56" s="71"/>
-      <c r="C56" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D56" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E56" s="24"/>
-      <c r="F56" s="40"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="89"/>
-      <c r="B57" s="71"/>
-      <c r="C57" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E57" s="24"/>
-      <c r="F57" s="40"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="90"/>
-      <c r="B58" s="71"/>
-      <c r="C58" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="D58" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="E58" s="25"/>
-      <c r="F58" s="38"/>
-    </row>
-    <row r="59" spans="1:6" ht="234.6">
-      <c r="A59" s="86" t="s">
-        <v>175</v>
-      </c>
-      <c r="B59" s="74" t="s">
-        <v>132</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D59" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="E59" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="87"/>
-      <c r="B60" s="75"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="62"/>
-      <c r="E60" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="B61" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="C61" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="D61" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="E61" s="43" t="s">
+      <c r="F126" s="59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="66"/>
+      <c r="B127" s="56"/>
+      <c r="C127" s="57" t="s">
+        <v>238</v>
+      </c>
+      <c r="D127" s="109" t="s">
+        <v>188</v>
+      </c>
+      <c r="E127" s="52"/>
+      <c r="F127" s="111"/>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="67" t="s">
+        <v>227</v>
+      </c>
+      <c r="B128" s="68" t="s">
+        <v>230</v>
+      </c>
+      <c r="C128" s="75" t="s">
+        <v>233</v>
+      </c>
+      <c r="D128" s="73" t="s">
+        <v>234</v>
+      </c>
+      <c r="E128" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="F61" s="43" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="53" t="s">
-        <v>134</v>
-      </c>
-      <c r="B62" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="C62" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="D62" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="E62" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="F62" s="43" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="B63" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="C63" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="D63" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="E63" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="F63" s="43" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="91" t="s">
-        <v>143</v>
-      </c>
-      <c r="B64" s="92" t="s">
-        <v>144</v>
-      </c>
-      <c r="C64" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="D64" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="E64" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="F64" s="43" t="s">
+      <c r="F128" s="70" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="91"/>
-      <c r="B65" s="92"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="F65" s="43" t="s">
+    <row r="129" spans="1:6">
+      <c r="A129" s="67"/>
+      <c r="B129" s="68"/>
+      <c r="C129" s="76"/>
+      <c r="D129" s="77"/>
+      <c r="E129" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="F129" s="70" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="76" t="s">
-        <v>145</v>
-      </c>
-      <c r="B66" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="C66" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="D66" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="E66" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="F66" s="43" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="76"/>
-      <c r="B67" s="71"/>
-      <c r="C67" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D67" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="E67" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="F67" s="45" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="76"/>
-      <c r="B68" s="71"/>
-      <c r="C68" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="D68" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="E68" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="F68" s="45" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="76"/>
-      <c r="B69" s="71"/>
-      <c r="C69" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="D69" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="E69" s="26"/>
-      <c r="F69" s="24"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="76"/>
-      <c r="B70" s="71"/>
-      <c r="C70" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="D70" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="E70" s="26"/>
-      <c r="F70" s="24"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="76"/>
-      <c r="B71" s="71"/>
-      <c r="C71" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="D71" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="E71" s="26"/>
-      <c r="F71" s="24"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="76"/>
-      <c r="B72" s="71"/>
-      <c r="C72" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="D72" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="E72" s="27"/>
-      <c r="F72" s="25"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="93" t="s">
-        <v>162</v>
-      </c>
-      <c r="B73" s="71" t="s">
-        <v>163</v>
-      </c>
-      <c r="C73" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="D73" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="E73" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="F73" s="43" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="93"/>
-      <c r="B74" s="71"/>
-      <c r="C74" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="D74" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="E74" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="F74" s="45" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="93"/>
-      <c r="B75" s="71"/>
-      <c r="C75" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="D75" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="E75" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="F75" s="45" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="93"/>
-      <c r="B76" s="71"/>
-      <c r="C76" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="D76" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="E76" s="27"/>
-      <c r="F76" s="25"/>
-    </row>
-    <row r="77" spans="1:6" ht="138">
-      <c r="A77" s="52" t="s">
-        <v>170</v>
-      </c>
-      <c r="B77" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="C77" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="D77" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="E77" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="88" t="s">
-        <v>176</v>
-      </c>
-      <c r="B78" s="74" t="s">
-        <v>171</v>
-      </c>
-      <c r="C78" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="D78" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="89"/>
-      <c r="B79" s="80"/>
-      <c r="C79" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E79" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F79" s="23" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="89"/>
-      <c r="B80" s="80"/>
-      <c r="C80" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D80" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="89"/>
-      <c r="B81" s="80"/>
-      <c r="C81" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D81" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="89"/>
-      <c r="B82" s="80"/>
-      <c r="C82" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D82" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="89"/>
-      <c r="B83" s="80"/>
-      <c r="C83" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D83" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="89"/>
-      <c r="B84" s="80"/>
-      <c r="C84" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D84" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="89"/>
-      <c r="B85" s="80"/>
-      <c r="C85" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D85" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="90"/>
-      <c r="B86" s="75"/>
-      <c r="C86" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D86" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E86" s="25"/>
-      <c r="F86" s="25"/>
-    </row>
-    <row r="88" spans="1:6" ht="27">
-      <c r="A88" s="81" t="s">
-        <v>179</v>
-      </c>
-      <c r="B88" s="82"/>
-      <c r="C88" s="82"/>
-      <c r="D88" s="82"/>
-      <c r="E88" s="82"/>
-      <c r="F88" s="83"/>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="B89" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C89" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="D89" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="F89" s="51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="27.6">
-      <c r="A90" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="B90" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="77" t="s">
-        <v>185</v>
-      </c>
-      <c r="B91" s="74" t="s">
-        <v>190</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E91" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F91" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="78"/>
-      <c r="B92" s="80"/>
-      <c r="C92" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D92" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="E92" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F92" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="79"/>
-      <c r="B93" s="75"/>
-      <c r="C93" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D93" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="E93" s="19"/>
-      <c r="F93" s="17"/>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="70" t="s">
-        <v>191</v>
-      </c>
-      <c r="B94" s="106" t="s">
-        <v>233</v>
-      </c>
-      <c r="C94" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="70"/>
-      <c r="B95" s="106"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="55.2">
-      <c r="A96" s="70" t="s">
-        <v>192</v>
-      </c>
-      <c r="B96" s="71" t="s">
-        <v>195</v>
-      </c>
-      <c r="C96" s="11" t="s">
+    <row r="130" spans="1:6" ht="41.4">
+      <c r="A130" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="B130" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="C130" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="D96" s="65" t="s">
+      <c r="D130" s="112" t="s">
         <v>126</v>
       </c>
-      <c r="E96" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="70"/>
-      <c r="B97" s="71"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="66"/>
-      <c r="E97" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="27">
-      <c r="A99" s="81" t="s">
+      <c r="E130" s="61" t="s">
+        <v>237</v>
+      </c>
+      <c r="F130" s="57" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="55"/>
+      <c r="B131" s="56"/>
+      <c r="C131" s="63"/>
+      <c r="D131" s="113"/>
+      <c r="E131" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="B99" s="82"/>
-      <c r="C99" s="82"/>
-      <c r="D99" s="82"/>
-      <c r="E99" s="82"/>
-      <c r="F99" s="83"/>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="B100" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C100" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="D100" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="55" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="41.4">
-      <c r="A101" s="76" t="s">
-        <v>207</v>
-      </c>
-      <c r="B101" s="74" t="s">
-        <v>211</v>
-      </c>
-      <c r="C101" s="67" t="s">
-        <v>198</v>
-      </c>
-      <c r="D101" s="67" t="s">
-        <v>199</v>
-      </c>
-      <c r="E101" s="48" t="s">
-        <v>208</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="76"/>
-      <c r="B102" s="75"/>
-      <c r="C102" s="25"/>
-      <c r="D102" s="25"/>
-      <c r="E102" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="F102" s="21" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="41.4">
-      <c r="A103" s="76" t="s">
-        <v>212</v>
-      </c>
-      <c r="B103" s="71" t="s">
-        <v>213</v>
-      </c>
-      <c r="C103" s="67" t="s">
-        <v>126</v>
-      </c>
-      <c r="D103" s="67" t="s">
-        <v>126</v>
-      </c>
-      <c r="E103" s="48" t="s">
-        <v>208</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="76"/>
-      <c r="B104" s="71"/>
-      <c r="C104" s="25"/>
-      <c r="D104" s="25"/>
-      <c r="E104" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="F104" s="21" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="41.4">
-      <c r="A105" s="76" t="s">
-        <v>215</v>
-      </c>
-      <c r="B105" s="71" t="s">
-        <v>214</v>
-      </c>
-      <c r="C105" s="67" t="s">
-        <v>139</v>
-      </c>
-      <c r="D105" s="67" t="s">
-        <v>140</v>
-      </c>
-      <c r="E105" s="48" t="s">
-        <v>208</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="76"/>
-      <c r="B106" s="71"/>
-      <c r="C106" s="25"/>
-      <c r="D106" s="25"/>
-      <c r="E106" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="F106" s="21" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="27.6">
-      <c r="A107" s="76" t="s">
-        <v>216</v>
-      </c>
-      <c r="B107" s="71" t="s">
-        <v>217</v>
-      </c>
-      <c r="C107" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="D107" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="E107" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="F107" s="68" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="76"/>
-      <c r="B108" s="71"/>
-      <c r="C108" s="25"/>
-      <c r="D108" s="25"/>
-      <c r="E108" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="F108" s="21" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="76" t="s">
-        <v>220</v>
-      </c>
-      <c r="B109" s="71" t="s">
-        <v>221</v>
-      </c>
-      <c r="C109" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D109" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E109" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="F109" s="69" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="76"/>
-      <c r="B110" s="71"/>
-      <c r="C110" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="D110" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="E110" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="F110" s="45" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="76"/>
-      <c r="B111" s="71"/>
-      <c r="C111" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="D111" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="E111" s="25"/>
-      <c r="F111" s="25"/>
-    </row>
-    <row r="112" spans="1:6" ht="41.4">
-      <c r="A112" s="72" t="s">
-        <v>242</v>
-      </c>
-      <c r="B112" s="71" t="s">
-        <v>243</v>
-      </c>
-      <c r="C112" s="67" t="s">
-        <v>198</v>
-      </c>
-      <c r="D112" s="67" t="s">
-        <v>199</v>
-      </c>
-      <c r="E112" s="48" t="s">
-        <v>208</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="73"/>
-      <c r="B113" s="71"/>
-      <c r="C113" s="25"/>
-      <c r="D113" s="25"/>
-      <c r="E113" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="F113" s="21" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="82.8">
-      <c r="A114" s="72" t="s">
-        <v>244</v>
-      </c>
-      <c r="B114" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="C114" s="67" t="s">
-        <v>126</v>
-      </c>
-      <c r="D114" s="67" t="s">
-        <v>126</v>
-      </c>
-      <c r="E114" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="73"/>
-      <c r="B115" s="75"/>
-      <c r="C115" s="25"/>
-      <c r="D115" s="25"/>
-      <c r="E115" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="F115" s="21" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="27">
-      <c r="A117" s="81" t="s">
-        <v>196</v>
-      </c>
-      <c r="B117" s="82"/>
-      <c r="C117" s="82"/>
-      <c r="D117" s="82"/>
-      <c r="E117" s="82"/>
-      <c r="F117" s="83"/>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="B118" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C118" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="D118" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="E118" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="F118" s="51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="27.6">
-      <c r="A119" s="55" t="s">
-        <v>225</v>
-      </c>
-      <c r="B119" s="54" t="s">
-        <v>229</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="77" t="s">
-        <v>226</v>
-      </c>
-      <c r="B120" s="71" t="s">
-        <v>230</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E120" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F120" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="78"/>
-      <c r="B121" s="71"/>
-      <c r="C121" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D121" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="E121" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F121" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="79"/>
-      <c r="B122" s="71"/>
-      <c r="C122" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D122" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="E122" s="19"/>
-      <c r="F122" s="17"/>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="70" t="s">
-        <v>228</v>
-      </c>
-      <c r="B123" s="71" t="s">
-        <v>231</v>
-      </c>
-      <c r="C123" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="D123" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="E123" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="70"/>
-      <c r="B124" s="71"/>
-      <c r="C124" s="19"/>
-      <c r="D124" s="17"/>
-      <c r="E124" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F124" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="41.4">
-      <c r="A125" s="70" t="s">
-        <v>227</v>
-      </c>
-      <c r="B125" s="71" t="s">
-        <v>232</v>
-      </c>
-      <c r="C125" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D125" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F125" s="4" t="s">
+      <c r="F131" s="57" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="70"/>
-      <c r="B126" s="71"/>
-      <c r="C126" s="6"/>
-      <c r="D126" s="66"/>
-      <c r="E126" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="A109:A111"/>
+  <mergeCells count="77">
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="A125:A127"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="B32:B39"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A59:A60"/>
     <mergeCell ref="B101:B102"/>
     <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A81:A89"/>
+    <mergeCell ref="B81:B89"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A68:A75"/>
+    <mergeCell ref="B68:B75"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A51:A58"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="A5:F5"/>
@@ -4853,56 +5078,28 @@
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A51:A58"/>
-    <mergeCell ref="B51:B58"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B78:B86"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A66:A72"/>
-    <mergeCell ref="B66:B72"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="B32:B39"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A78:A86"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B109:B111"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B90" r:id="rId1" xr:uid="{D9838373-2BFF-4B40-BA09-972769FD6671}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4916,887 +5113,887 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="15.21875" style="28" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" style="28" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="28" customWidth="1"/>
-    <col min="5" max="5" width="10" style="28" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="28" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" style="28" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10" style="7" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="13" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="29">
-        <v>0</v>
-      </c>
-      <c r="D3" s="29">
-        <v>0</v>
-      </c>
-      <c r="E3" s="29">
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
         <v>-1</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="31"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="29">
-        <v>0</v>
-      </c>
-      <c r="D4" s="29">
-        <v>0</v>
-      </c>
-      <c r="E4" s="29">
-        <v>0</v>
-      </c>
-      <c r="F4" s="29">
-        <v>0</v>
-      </c>
-      <c r="G4" s="31"/>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="29">
-        <v>0</v>
-      </c>
-      <c r="D5" s="29">
-        <v>0</v>
-      </c>
-      <c r="E5" s="29">
-        <v>0</v>
-      </c>
-      <c r="F5" s="29">
-        <v>0</v>
-      </c>
-      <c r="G5" s="31"/>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="29">
-        <v>0</v>
-      </c>
-      <c r="D6" s="29">
-        <v>0</v>
-      </c>
-      <c r="E6" s="29">
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
         <v>-1</v>
       </c>
-      <c r="F6" s="29">
-        <v>0</v>
-      </c>
-      <c r="G6" s="31"/>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="36">
-        <v>0</v>
-      </c>
-      <c r="D7" s="36">
-        <v>0</v>
-      </c>
-      <c r="E7" s="36">
+      <c r="C7" s="15">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
         <v>-1</v>
       </c>
-      <c r="F7" s="36">
-        <v>0</v>
-      </c>
-      <c r="G7" s="37"/>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="16"/>
     </row>
     <row r="9" spans="1:7" ht="17.399999999999999">
-      <c r="A9" s="107" t="s">
+      <c r="A9" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="107"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="13" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="29">
-        <v>0</v>
-      </c>
-      <c r="D11" s="29">
-        <v>0</v>
-      </c>
-      <c r="E11" s="29">
+      <c r="C11" s="8">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
         <v>-1</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="31"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="29">
-        <v>0</v>
-      </c>
-      <c r="D12" s="29">
-        <v>0</v>
-      </c>
-      <c r="E12" s="29">
-        <v>0</v>
-      </c>
-      <c r="F12" s="29">
-        <v>0</v>
-      </c>
-      <c r="G12" s="31"/>
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="29">
-        <v>0</v>
-      </c>
-      <c r="D13" s="29">
-        <v>0</v>
-      </c>
-      <c r="E13" s="29">
-        <v>0</v>
-      </c>
-      <c r="F13" s="29">
-        <v>0</v>
-      </c>
-      <c r="G13" s="31"/>
+      <c r="C13" s="8">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="29">
-        <v>0</v>
-      </c>
-      <c r="D14" s="29">
-        <v>0</v>
-      </c>
-      <c r="E14" s="29">
+      <c r="C14" s="8">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
         <v>-1</v>
       </c>
-      <c r="F14" s="29">
-        <v>0</v>
-      </c>
-      <c r="G14" s="31"/>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="36">
-        <v>0</v>
-      </c>
-      <c r="D15" s="36">
-        <v>0</v>
-      </c>
-      <c r="E15" s="36">
+      <c r="C15" s="15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="15">
         <v>-1</v>
       </c>
-      <c r="F15" s="36">
-        <v>0</v>
-      </c>
-      <c r="G15" s="37"/>
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="16"/>
     </row>
     <row r="17" spans="1:7" ht="17.399999999999999">
-      <c r="A17" s="107" t="s">
+      <c r="A17" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="107"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="G18" s="13" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="29">
-        <v>0</v>
-      </c>
-      <c r="D19" s="29">
-        <v>0</v>
-      </c>
-      <c r="E19" s="29">
+      <c r="C19" s="8">
+        <v>0</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
         <v>-1</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="31"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="29">
-        <v>0</v>
-      </c>
-      <c r="D20" s="29">
-        <v>0</v>
-      </c>
-      <c r="E20" s="29">
-        <v>0</v>
-      </c>
-      <c r="F20" s="29">
-        <v>0</v>
-      </c>
-      <c r="G20" s="31"/>
+      <c r="C20" s="8">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="29">
-        <v>0</v>
-      </c>
-      <c r="D21" s="29">
-        <v>0</v>
-      </c>
-      <c r="E21" s="29">
-        <v>0</v>
-      </c>
-      <c r="F21" s="29">
-        <v>0</v>
-      </c>
-      <c r="G21" s="31"/>
+      <c r="C21" s="8">
+        <v>0</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="29">
-        <v>0</v>
-      </c>
-      <c r="D22" s="29">
-        <v>0</v>
-      </c>
-      <c r="E22" s="29">
-        <v>0</v>
-      </c>
-      <c r="F22" s="29">
-        <v>0</v>
-      </c>
-      <c r="G22" s="31"/>
+      <c r="C22" s="8">
+        <v>0</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="29">
-        <v>0</v>
-      </c>
-      <c r="D23" s="29">
-        <v>0</v>
-      </c>
-      <c r="E23" s="29">
-        <v>0</v>
-      </c>
-      <c r="F23" s="29">
-        <v>0</v>
-      </c>
-      <c r="G23" s="31"/>
+      <c r="C23" s="8">
+        <v>0</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="29">
-        <v>0</v>
-      </c>
-      <c r="D24" s="29">
-        <v>0</v>
-      </c>
-      <c r="E24" s="29">
+      <c r="C24" s="8">
+        <v>0</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0</v>
+      </c>
+      <c r="E24" s="8">
         <v>-1</v>
       </c>
-      <c r="F24" s="29">
-        <v>0</v>
-      </c>
-      <c r="G24" s="31"/>
+      <c r="F24" s="8">
+        <v>0</v>
+      </c>
+      <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="29">
-        <v>0</v>
-      </c>
-      <c r="D25" s="29">
-        <v>0</v>
-      </c>
-      <c r="E25" s="29">
+      <c r="C25" s="8">
+        <v>0</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8">
         <v>-1</v>
       </c>
-      <c r="F25" s="29">
-        <v>0</v>
-      </c>
-      <c r="G25" s="31" t="s">
+      <c r="F25" s="8">
+        <v>0</v>
+      </c>
+      <c r="G25" s="10" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="29">
-        <v>0</v>
-      </c>
-      <c r="D26" s="29">
-        <v>0</v>
-      </c>
-      <c r="E26" s="29">
+      <c r="C26" s="8">
+        <v>0</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0</v>
+      </c>
+      <c r="E26" s="8">
         <v>-1</v>
       </c>
-      <c r="F26" s="29">
-        <v>0</v>
-      </c>
-      <c r="G26" s="31">
+      <c r="F26" s="8">
+        <v>0</v>
+      </c>
+      <c r="G26" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="36">
-        <v>0</v>
-      </c>
-      <c r="D27" s="36">
-        <v>0</v>
-      </c>
-      <c r="E27" s="36">
+      <c r="C27" s="15">
+        <v>0</v>
+      </c>
+      <c r="D27" s="15">
+        <v>0</v>
+      </c>
+      <c r="E27" s="15">
         <v>-1</v>
       </c>
-      <c r="F27" s="36">
-        <v>0</v>
-      </c>
-      <c r="G27" s="37">
+      <c r="F27" s="15">
+        <v>0</v>
+      </c>
+      <c r="G27" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.399999999999999">
-      <c r="A29" s="107" t="s">
+      <c r="A29" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="B29" s="107"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="E30" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G30" s="34" t="s">
+      <c r="G30" s="13" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="29">
-        <v>0</v>
-      </c>
-      <c r="D31" s="29">
-        <v>0</v>
-      </c>
-      <c r="E31" s="29">
+      <c r="C31" s="8">
+        <v>0</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0</v>
+      </c>
+      <c r="E31" s="8">
         <v>-1</v>
       </c>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G31" s="31"/>
+      <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="29">
-        <v>0</v>
-      </c>
-      <c r="D32" s="29">
-        <v>0</v>
-      </c>
-      <c r="E32" s="29">
-        <v>0</v>
-      </c>
-      <c r="F32" s="29" t="s">
+      <c r="C32" s="8">
+        <v>0</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0</v>
+      </c>
+      <c r="E32" s="8">
+        <v>0</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="G32" s="31"/>
+      <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="29">
-        <v>0</v>
-      </c>
-      <c r="D33" s="29">
-        <v>0</v>
-      </c>
-      <c r="E33" s="29">
-        <v>0</v>
-      </c>
-      <c r="F33" s="29" t="s">
+      <c r="C33" s="8">
+        <v>0</v>
+      </c>
+      <c r="D33" s="8">
+        <v>0</v>
+      </c>
+      <c r="E33" s="8">
+        <v>0</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="G33" s="31"/>
+      <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="29">
-        <v>0</v>
-      </c>
-      <c r="D34" s="29">
-        <v>0</v>
-      </c>
-      <c r="E34" s="29">
-        <v>0</v>
-      </c>
-      <c r="F34" s="29">
-        <v>0</v>
-      </c>
-      <c r="G34" s="31"/>
+      <c r="C34" s="8">
+        <v>0</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0</v>
+      </c>
+      <c r="E34" s="8">
+        <v>0</v>
+      </c>
+      <c r="F34" s="8">
+        <v>0</v>
+      </c>
+      <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="36">
-        <v>0</v>
-      </c>
-      <c r="D35" s="36">
-        <v>0</v>
-      </c>
-      <c r="E35" s="36">
-        <v>0</v>
-      </c>
-      <c r="F35" s="36">
-        <v>0</v>
-      </c>
-      <c r="G35" s="37"/>
+      <c r="C35" s="15">
+        <v>0</v>
+      </c>
+      <c r="D35" s="15">
+        <v>0</v>
+      </c>
+      <c r="E35" s="15">
+        <v>0</v>
+      </c>
+      <c r="F35" s="15">
+        <v>0</v>
+      </c>
+      <c r="G35" s="16"/>
     </row>
     <row r="37" spans="1:7" ht="17.399999999999999">
-      <c r="A37" s="107" t="s">
+      <c r="A37" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="B37" s="107"/>
-      <c r="C37" s="107"/>
-      <c r="D37" s="107"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="107"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D38" s="33" t="s">
+      <c r="D38" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E38" s="33" t="s">
+      <c r="E38" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F38" s="33" t="s">
+      <c r="F38" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G38" s="34" t="s">
+      <c r="G38" s="13" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="29">
-        <v>0</v>
-      </c>
-      <c r="D39" s="29">
-        <v>0</v>
-      </c>
-      <c r="E39" s="29">
+      <c r="C39" s="8">
+        <v>0</v>
+      </c>
+      <c r="D39" s="8">
+        <v>0</v>
+      </c>
+      <c r="E39" s="8">
         <v>-1</v>
       </c>
-      <c r="F39" s="29" t="s">
+      <c r="F39" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G39" s="31"/>
+      <c r="G39" s="10"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="29">
-        <v>0</v>
-      </c>
-      <c r="D40" s="29">
-        <v>0</v>
-      </c>
-      <c r="E40" s="29">
-        <v>0</v>
-      </c>
-      <c r="F40" s="29">
-        <v>0</v>
-      </c>
-      <c r="G40" s="31"/>
+      <c r="C40" s="8">
+        <v>0</v>
+      </c>
+      <c r="D40" s="8">
+        <v>0</v>
+      </c>
+      <c r="E40" s="8">
+        <v>0</v>
+      </c>
+      <c r="F40" s="8">
+        <v>0</v>
+      </c>
+      <c r="G40" s="10"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="29">
-        <v>0</v>
-      </c>
-      <c r="D41" s="29">
-        <v>0</v>
-      </c>
-      <c r="E41" s="29">
-        <v>0</v>
-      </c>
-      <c r="F41" s="29">
-        <v>0</v>
-      </c>
-      <c r="G41" s="31"/>
+      <c r="C41" s="8">
+        <v>0</v>
+      </c>
+      <c r="D41" s="8">
+        <v>0</v>
+      </c>
+      <c r="E41" s="8">
+        <v>0</v>
+      </c>
+      <c r="F41" s="8">
+        <v>0</v>
+      </c>
+      <c r="G41" s="10"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="29">
-        <v>0</v>
-      </c>
-      <c r="D42" s="29">
-        <v>0</v>
-      </c>
-      <c r="E42" s="29">
+      <c r="C42" s="8">
+        <v>0</v>
+      </c>
+      <c r="D42" s="8">
+        <v>0</v>
+      </c>
+      <c r="E42" s="8">
         <v>-1</v>
       </c>
-      <c r="F42" s="29">
-        <v>0</v>
-      </c>
-      <c r="G42" s="31"/>
+      <c r="F42" s="8">
+        <v>0</v>
+      </c>
+      <c r="G42" s="10"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="29">
-        <v>0</v>
-      </c>
-      <c r="D43" s="29">
-        <v>0</v>
-      </c>
-      <c r="E43" s="29">
+      <c r="C43" s="8">
+        <v>0</v>
+      </c>
+      <c r="D43" s="8">
+        <v>0</v>
+      </c>
+      <c r="E43" s="8">
         <v>-1</v>
       </c>
-      <c r="F43" s="29">
-        <v>0</v>
-      </c>
-      <c r="G43" s="31" t="s">
+      <c r="F43" s="8">
+        <v>0</v>
+      </c>
+      <c r="G43" s="10" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="29">
-        <v>0</v>
-      </c>
-      <c r="D44" s="29">
-        <v>0</v>
-      </c>
-      <c r="E44" s="29">
+      <c r="C44" s="8">
+        <v>0</v>
+      </c>
+      <c r="D44" s="8">
+        <v>0</v>
+      </c>
+      <c r="E44" s="8">
         <v>-1</v>
       </c>
-      <c r="F44" s="29">
-        <v>0</v>
-      </c>
-      <c r="G44" s="31"/>
+      <c r="F44" s="8">
+        <v>0</v>
+      </c>
+      <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="30" t="s">
+      <c r="A45" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C45" s="29">
-        <v>0</v>
-      </c>
-      <c r="D45" s="29">
-        <v>0</v>
-      </c>
-      <c r="E45" s="29">
+      <c r="C45" s="8">
+        <v>0</v>
+      </c>
+      <c r="D45" s="8">
+        <v>0</v>
+      </c>
+      <c r="E45" s="8">
         <v>-1</v>
       </c>
-      <c r="F45" s="29">
-        <v>0</v>
-      </c>
-      <c r="G45" s="31"/>
+      <c r="F45" s="8">
+        <v>0</v>
+      </c>
+      <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C46" s="29">
-        <v>0</v>
-      </c>
-      <c r="D46" s="29">
-        <v>0</v>
-      </c>
-      <c r="E46" s="29">
+      <c r="C46" s="8">
+        <v>0</v>
+      </c>
+      <c r="D46" s="8">
+        <v>0</v>
+      </c>
+      <c r="E46" s="8">
         <v>-1</v>
       </c>
-      <c r="F46" s="29">
-        <v>0</v>
-      </c>
-      <c r="G46" s="31" t="s">
+      <c r="F46" s="8">
+        <v>0</v>
+      </c>
+      <c r="G46" s="10" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="36">
-        <v>0</v>
-      </c>
-      <c r="D47" s="36">
-        <v>0</v>
-      </c>
-      <c r="E47" s="36">
+      <c r="C47" s="15">
+        <v>0</v>
+      </c>
+      <c r="D47" s="15">
+        <v>0</v>
+      </c>
+      <c r="E47" s="15">
         <v>-1</v>
       </c>
-      <c r="F47" s="36">
-        <v>0</v>
-      </c>
-      <c r="G47" s="37">
+      <c r="F47" s="15">
+        <v>0</v>
+      </c>
+      <c r="G47" s="16">
         <v>0</v>
       </c>
     </row>

--- a/README.xlsx
+++ b/README.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chall\Documents\我的文件\stepic_back\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4911E7A-B552-4EEF-B2A5-236D4157B937}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404912C7-0C5E-462F-A36F-244D5CEF2C4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7572" yWindow="3384" windowWidth="17508" windowHeight="11232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="252">
   <si>
     <t>请求地址</t>
   </si>
@@ -49,48 +49,27 @@
     <t>用户登录</t>
   </si>
   <si>
-    <t>http://106.13.236.185:5000/api/login_user</t>
-  </si>
-  <si>
     <t>用户注册</t>
   </si>
   <si>
-    <t>http://106.13.236.185:5000/api/regit_user</t>
-  </si>
-  <si>
     <t>管理员登录</t>
   </si>
   <si>
-    <t>http://106.13.236.185:5000/api/login_admin</t>
-  </si>
-  <si>
     <t>管理员注册</t>
   </si>
   <si>
-    <t>http://106.13.236.185:5000/api/regit_admin</t>
-  </si>
-  <si>
     <t>开发者登录</t>
   </si>
   <si>
-    <t>http://106.13.236.185:5000/api/login_developer</t>
-  </si>
-  <si>
     <t>开发者注册</t>
   </si>
   <si>
-    <t>http://106.13.236.185:5000/api/regit_developer</t>
-  </si>
-  <si>
     <t>用户</t>
   </si>
   <si>
     <t>用户查询个人信息</t>
   </si>
   <si>
-    <t>http://106.13.236.185:5000/api/user/query_userinfo</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -103,141 +82,46 @@
     <t>游戏</t>
   </si>
   <si>
-    <t>http://106.13.236.185:5000/api/game/query_all_pub</t>
-  </si>
-  <si>
     <t>无</t>
   </si>
   <si>
-    <r>
-      <t>[{"filename":"2048.py","fileurl":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4183C4"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>http://106.13.236.185:5000/static/game/2048.py</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","gid":1,"gname":"2048","image":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4183C4"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>http://106.13.236.185:5000/static/image/2048.png</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","name":"2048","note":"","star":"","version":""},{"filename":"tanchi.py","fileurl":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4183C4"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>http://106.13.236.185:5000/static/game/tanchi.py</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","gid":2,"gname":"\u8d2a\u5403\u86c7\u5927\u4f5c\u6218","image":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4183C4"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>http://106.13.236.185:5000/static/image/tanchi.png</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","name":"tanchi","note":"","star":"","version":""}]</t>
-    </r>
-  </si>
-  <si>
-    <t>http://106.13.236.185:5000/api/game/add_game</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
     <t>username</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>密码</t>
   </si>
   <si>
     <t>用户名</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>success</t>
   </si>
   <si>
     <t>success</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>failed</t>
   </si>
   <si>
     <t>failed</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>登录成功</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>用户名或密码错误</t>
   </si>
   <si>
     <t>用户名或密码错误</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>注册失败</t>
@@ -250,26 +134,26 @@
   </si>
   <si>
     <t>注册成功</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>用户名重复</t>
   </si>
   <si>
     <t>password</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>密码</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>注册失败</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>登录注册</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>unick</t>
@@ -288,7 +172,7 @@
   </si>
   <si>
     <t>uname</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>exper</t>
@@ -313,7 +197,7 @@
   </si>
   <si>
     <t>修改成功</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>修改失败</t>
@@ -348,7 +232,7 @@
       </rPr>
       <t>方式请求数据，所有请求参数都为必选，但部分数据可以为空（None）。</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
@@ -370,7 +254,7 @@
   </si>
   <si>
     <t>gname</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>status</t>
@@ -389,7 +273,7 @@
   </si>
   <si>
     <t>游戏名</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>审核状态</t>
@@ -399,14 +283,14 @@
   </si>
   <si>
     <t>简介</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>逻辑名重复</t>
   </si>
   <si>
     <t>新增成功</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>新增失败</t>
@@ -434,11 +318,11 @@
   </si>
   <si>
     <t>admin @main(stepic) - 表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>develop @main(stepic) - 表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>did</t>
@@ -457,35 +341,35 @@
   </si>
   <si>
     <t>名</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>大小</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>比例</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>不是null</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>键</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>主键</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>game @main(stepic) - 表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>gid</t>
@@ -498,7 +382,7 @@
   </si>
   <si>
     <t>默认值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>sid</t>
@@ -514,7 +398,7 @@
   </si>
   <si>
     <t>score @main(stepic) - 表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>uname</t>
@@ -530,58 +414,34 @@
   </si>
   <si>
     <t>外键</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>tbuser @main(stepic) - 表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>查询所有用户</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://106.13.236.185:5000/api/user/update_userinfo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>统一请求地址前缀：http://106.13.236.185:5000/api/</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://106.13.236.185:5000/api/user/query_all</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://106.13.236.185:5000/api</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[ { "birthday": "", "exper": "", "intro": "", "phone": "", "sex": "\u7537", "uid": 1, "uname": "dmar", "unick": "" }, { "birthday": null, "exper": 0, "intro": "\u6682\u65f6\u6ca1\u6709\u4e2a\u4eba\u7b80\u4ecb\u3002", "phone": null, "sex": "\u672a\u77e5", "uid": 2, "uname": "liweii", "unick": null }, { "birthday": null, "exper": 0, "intro": "\u6682\u65f6\u6ca1\u6709\u4e2a\u4eba\u7b80\u4ecb\u3002", "phone": null, "sex": "\u672a\u77e5", "uid": 3, "uname": "admin", "unick": null } ]</t>
   </si>
   <si>
     <t>删除某一用户</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://106.13.236.185:5000/api/user/delete</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>删除成功</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>删除失败</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://106.13.236.185:5000/api/game/query_all</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>开始审核某游戏</t>
@@ -593,71 +453,59 @@
     <t>审核失败某游戏</t>
   </si>
   <si>
-    <t>http://106.13.236.185:5000/api/game/check_start</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>http://106.13.236.185:5001/api/game/check_pass</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>http://106.13.236.185:5002/api/game/check_fail</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>gid</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>游戏编号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>成功</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>删除某游戏</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://106.13.236.185:5000/api/game/delete</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>开发者上传游戏</t>
   </si>
   <si>
-    <t>http://106.13.236.185:5000/api/game/upload</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>enctype=multipart/form-data</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>编码方式</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>逻辑名</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>版本</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>note</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>version</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -675,7 +523,7 @@
       </rPr>
       <t>[FILE文件]</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -693,74 +541,59 @@
       </rPr>
       <t>[FILE文件]</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>游戏文件</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>图片文件</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>上传成功</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>上传失败</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>error</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>未知错误</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>开发者更新游戏</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://106.13.236.185:5000/api/game/update</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "filename": "tanchi.py", "fileurl": "http://106.13.236.185:5000/static/game/tanchi.py", "gid": 2, "gname": "\u8d2a\u5403\u86c7\u5927\u4f5c\u6218", "image": "http://106.13.236.185:5000/static/image/tanchi.png", "name": "tanchi", "note": null, "star": 0, "status": "\u5ba1\u6838\u901a\u8fc7", "version": "1.0" }</t>
-  </si>
-  <si>
-    <t>http://106.13.236.185:5000/api/game/query_by_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>包含个人信息的json数据【字典】</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>包含所有用户信息的json数据【外层列表】【内层字典】</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>包含游戏信息的json数据【外层列表】【内层字典】</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>包含单个游戏信息的json数据【字典】</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>通过游戏编号查询游戏</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://106.13.236.185:5000/api/game/update_game</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>修改失败</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -776,7 +609,7 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -803,7 +636,7 @@
       </rPr>
       <t>（仅测试数据使用或者管理员使用）</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -819,7 +652,7 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -846,125 +679,105 @@
       </rPr>
       <t>（仅测试数据使用或者管理员使用）</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>用户新增经验值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://106.13.236.185:5000/api/user/update_exper</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>管理员</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://106.13.236.185:5000/api/admin/query_info</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>管理员查询个人信息</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>aname</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>管理员登录名</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{ "address": null, "aid": 1, "aname": "admin", "aphone": null }</t>
   </si>
   <si>
     <t>管理员修改个人信息</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>address</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>aphone</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>地址</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>手机号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://106.13.236.185:5000/api/admin/update_info</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>删除某一管理员</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>查询所有管理员</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[ { "address": "\u5c71\u4e1c\u7406\u5de5\u5927\u5b66", "aid": 1, "aname": "admin", "aphone": "17753062762" } ]</t>
   </si>
   <si>
     <t>包含所有管理员信息的json数据【外层列表】【内层字典】</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://106.13.236.185:5000/api/admin/query_all</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>开发者</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://106.13.236.185:5000/api/user/update_user</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>uid</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>用户编号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>修改用户信息（根据uid修改）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>用户修改个人信息（根据uname修改）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>得分</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>empty</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>空（没有用户）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>空（没有游戏）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>空（没有管理员）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>根据uid查询得分</t>
@@ -974,167 +787,111 @@
   </si>
   <si>
     <t>包含得分信息的json数据【字典】</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>空（没有得分数据）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://106.13.236.185:5000/api/score/query_by_uid</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>查询所有得分</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://106.13.236.185:5000/api/score/query_all</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://106.13.236.185:5000/api/score/query_by_gid</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>根据gid查询得分</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>查询游戏最高纪录</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://106.13.236.185:5000/api/score/query_max</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{ "score": 1 }</t>
   </si>
   <si>
     <t>包含得分信息的json数据【外层列表】【内层字典】</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>新增一条游戏得分</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>http://106.13.236.185:5001/api/score/add</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>score</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>失败</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{ "did": 1, "dname": "developer1", "dnick": null, "dphone": null }</t>
   </si>
   <si>
     <t>开发者查询个人信息</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>开发者修改个人信息</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>查询所有开发者</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>删除某一开发者</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://106.13.236.185:5000/api/developer/query_info</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://106.13.236.185:5000/api/developer/update_info</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://106.13.236.185:5000/api/developer/delete</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://106.13.236.185:5000/api/developer/query_all</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://106.13.236.185:5000/api/admin/delete</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>dname</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>开发者登录名</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>包含所有开发者信息的json数据【外层列表】【内层字典】</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>空（没有开发者）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[ { "did": 1, "dname": "developer1", "dnick": null, "dphone": null } ]</t>
   </si>
   <si>
     <t>dphone</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>dnick</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>开发者昵称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>根据uid显示个人动态中游戏得分（只显示每条游戏最高分，时间倒序排序）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://106.13.236.185:5000/api/score/query_event</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>查询并展示所有游戏的最高分以及得分者（只显示每条游戏最高分，时间倒序排序）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://106.13.236.185:5000/api/score/query_max_all</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[{"date":"2020-12-25","gname":"\u8d2a\u5403\u86c7\u5927\u4f5c\u6218","score":30,"uname":"dmar","unick":""},{"date":"2020-12-23","gname":"2048","score":100,"uname":"dmar","unick":""}]</t>
   </si>
   <si>
-    <t>http://106.13.236.185:5000/api/game/query_upload</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>开发者查询已上传的游戏</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{ "did": 1, "filename": "2048.py", "fileurl": "http://106.13.236.185:5000/static/game/2048.py", "gid": 1, "gname": "2048", "image": "http://106.13.236.185:5000/static/image/2048.png", "name": "2048", "note": null, "status": "\u5ba1\u6838\u5931\u8d25", "version": "1.5" }]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ { "dname": "developer1", "filename": "2048.py", "fileurl": "http://106.13.236.185:5000/static/game/2048.py", "gid": 1, "gname": "2048", "image": "http://106.13.236.185:5000/static/image/2048.png", "name": "2048", "note": null, "status": "\u5ba1\u6838\u5931\u8d25", "version": "1.5" }]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1150,21 +907,143 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://106.13.236.185:5000/api/game/query_all_check</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ { "dname": "developer1", "filename": "elsfk.py", "fileurl": "http://106.13.236.185:5000/static/game/elsfk.py", "gid": 3, "gname": "\u4fc4\u7f57\u65af\u65b9\u5757", "image": "http://106.13.236.185:5000/static/image/elsfk.png", "name": "elsfk", "note": "\u4fc4\u7f57\u65af\u65b9\u5757\uff0c\u4f53\u9a8c\u5feb\u4e50", "status": "\u672a\u5ba1\u6838", "version": "1.1" } ]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一请求地址前缀：https://stepic-api.redcountry.top/api/</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/login_user</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/regit_user</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/login_admin</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/regit_admin</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/login_developer</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/regit_developer</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/user/query_userinfo</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/user/update_userinfo</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/user/update_user</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/user/query_all</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/user/delete</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/user/update_exper</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/game/query_all_pub</t>
+  </si>
+  <si>
+    <t>[{"filename":"2048.py","fileurl":"https://stepic-api.redcountry.top/static/game/2048.py","gid":1,"gname":"2048","image":"https://stepic-api.redcountry.top/static/image/2048.png","name":"2048","note":"","star":"","version":""},{"filename":"tanchi.py","fileurl":"https://stepic-api.redcountry.top/static/game/tanchi.py","gid":2,"gname":"\u8d2a\u5403\u86c7\u5927\u4f5c\u6218","image":"https://stepic-api.redcountry.top/static/image/tanchi.png","name":"tanchi","note":"","star":"","version":""}]</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/game/add_game</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/game/query_all</t>
+  </si>
+  <si>
+    <t>[ { "dname": "developer1", "filename": "2048.py", "fileurl": "https://stepic-api.redcountry.top/static/game/2048.py", "gid": 1, "gname": "2048", "image": "https://stepic-api.redcountry.top/static/image/2048.png", "name": "2048", "note": null, "status": "\u5ba1\u6838\u5931\u8d25", "version": "1.5" }]</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/game/query_upload</t>
+  </si>
+  <si>
+    <t>[{ "did": 1, "filename": "2048.py", "fileurl": "https://stepic-api.redcountry.top/static/game/2048.py", "gid": 1, "gname": "2048", "image": "https://stepic-api.redcountry.top/static/image/2048.png", "name": "2048", "note": null, "status": "\u5ba1\u6838\u5931\u8d25", "version": "1.5" }]</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/game/check_start</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/game/delete</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/game/upload</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/game/update</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/game/query_by_id</t>
+  </si>
+  <si>
+    <t>{ "filename": "tanchi.py", "fileurl": "https://stepic-api.redcountry.top/static/game/tanchi.py", "gid": 2, "gname": "\u8d2a\u5403\u86c7\u5927\u4f5c\u6218", "image": "https://stepic-api.redcountry.top/static/image/tanchi.png", "name": "tanchi", "note": null, "star": 0, "status": "\u5ba1\u6838\u901a\u8fc7", "version": "1.0" }</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/game/update_game</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/game/query_all_check</t>
+  </si>
+  <si>
+    <t>[ { "dname": "developer1", "filename": "elsfk.py", "fileurl": "https://stepic-api.redcountry.top/static/game/elsfk.py", "gid": 3, "gname": "\u4fc4\u7f57\u65af\u65b9\u5757", "image": "https://stepic-api.redcountry.top/static/image/elsfk.png", "name": "elsfk", "note": "\u4fc4\u7f57\u65af\u65b9\u5757\uff0c\u4f53\u9a8c\u5feb\u4e50", "status": "\u672a\u5ba1\u6838", "version": "1.1" } ]</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/admin/query_info</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/admin/update_info</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/admin/delete</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/admin/query_all</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/score/query_by_uid</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/score/query_all</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/score/query_by_gid</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/score/query_max</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/score/query_event</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/score/query_max_all</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/developer/query_info</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/developer/update_info</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/developer/delete</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/developer/query_all</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1189,14 +1068,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF4183C4"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1271,7 +1142,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1293,6 +1164,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1468,9 +1345,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1545,66 +1422,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1614,12 +1431,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1641,14 +1452,32 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1656,75 +1485,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1738,14 +1504,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1754,9 +1517,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1775,44 +1535,162 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3053,8 +2931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90:B91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3068,336 +2946,334 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30.6">
-      <c r="A1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="A1" s="129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
     </row>
     <row r="3" spans="1:6" ht="15">
-      <c r="A3" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="A3" s="130" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
     </row>
     <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
+      <c r="A4" s="132" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
     </row>
     <row r="5" spans="1:6" ht="24">
-      <c r="A5" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="A5" s="125" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="54" t="s">
+      <c r="B6" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="33" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="99" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="103"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="B9" s="94" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="93"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="70" t="s">
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="93"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="99" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="103"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="94" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="70" t="s">
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="93"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="93"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="70" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="67"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="70" t="s">
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="99" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="103"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="94" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="101"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="102"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="70" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="57" t="s">
+      <c r="F21" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="57" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="55"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="57" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="55"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="57" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="70" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="67"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="70" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="55" t="s">
+    </row>
+    <row r="23" spans="1:6" ht="24">
+      <c r="A23" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="57" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="55"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="57" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="55"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="57" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="70" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="67"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="70" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="57" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="65"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="57" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="66"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="57" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="24">
-      <c r="A23" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="45"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="122"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
@@ -3420,326 +3296,326 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="41.4">
-      <c r="A25" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="79" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="70" t="s">
+      <c r="A25" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="93" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26" s="94" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="70" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="55" t="s">
-        <v>200</v>
-      </c>
-      <c r="B26" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="59" t="s">
-        <v>62</v>
+      <c r="E26" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="55"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="57" t="s">
+      <c r="A27" s="93"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="93"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="32"/>
+      <c r="F28" s="72"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="93"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="32"/>
+      <c r="F29" s="72"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="93"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="109" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="110" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="59" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="55"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="57" t="s">
+      <c r="E30" s="32"/>
+      <c r="F30" s="72"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="93"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="109" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="52"/>
-      <c r="F28" s="111"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="55"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="57" t="s">
+      <c r="E31" s="32"/>
+      <c r="F31" s="72"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="95" t="s">
+        <v>171</v>
+      </c>
+      <c r="B32" s="97" t="s">
+        <v>218</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="E32" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="112"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="112"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="112"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="49"/>
+      <c r="F35" s="50"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="112"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="49"/>
+      <c r="F36" s="50"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="112"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="49"/>
+      <c r="F37" s="50"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="112"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="49"/>
+      <c r="F38" s="50"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="96"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="109" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="52"/>
-      <c r="F29" s="111"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="55"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="57" t="s">
+      <c r="E39" s="54"/>
+      <c r="F39" s="45"/>
+    </row>
+    <row r="40" spans="1:6" ht="106.8" customHeight="1">
+      <c r="A40" s="100" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="87" t="s">
+        <v>219</v>
+      </c>
+      <c r="C40" s="113" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="113" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" s="35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="102"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="F41" s="35" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="103" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="123" t="s">
+        <v>220</v>
+      </c>
+      <c r="C42" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="43" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="103"/>
+      <c r="B43" s="124"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="43" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="93" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" s="94" t="s">
+        <v>221</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="109" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="52"/>
-      <c r="F30" s="111"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="55"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="109" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="52"/>
-      <c r="F31" s="111"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="80" t="s">
-        <v>199</v>
-      </c>
-      <c r="B32" s="81" t="s">
-        <v>196</v>
-      </c>
-      <c r="C32" s="70" t="s">
-        <v>197</v>
-      </c>
-      <c r="D32" s="74" t="s">
-        <v>198</v>
-      </c>
-      <c r="E32" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" s="73" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="82"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="73" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="82"/>
-      <c r="B34" s="83"/>
-      <c r="C34" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="82"/>
-      <c r="B35" s="83"/>
-      <c r="C35" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" s="76"/>
-      <c r="F35" s="77"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="82"/>
-      <c r="B36" s="83"/>
-      <c r="C36" s="70" t="s">
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="93"/>
+      <c r="B45" s="94"/>
+      <c r="C45" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="76"/>
-      <c r="F36" s="77"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="82"/>
-      <c r="B37" s="83"/>
-      <c r="C37" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="76"/>
-      <c r="F37" s="77"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="82"/>
-      <c r="B38" s="83"/>
-      <c r="C38" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="74" t="s">
-        <v>60</v>
-      </c>
-      <c r="E38" s="76"/>
-      <c r="F38" s="77"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="85"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="74" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" s="87"/>
-      <c r="F39" s="72"/>
-    </row>
-    <row r="40" spans="1:6" ht="106.8" customHeight="1">
-      <c r="A40" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="B40" s="114" t="s">
-        <v>124</v>
-      </c>
-      <c r="C40" s="130" t="s">
-        <v>126</v>
-      </c>
-      <c r="D40" s="130" t="s">
-        <v>126</v>
-      </c>
-      <c r="E40" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="F40" s="57" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="66"/>
-      <c r="B41" s="116"/>
-      <c r="C41" s="131"/>
-      <c r="D41" s="131"/>
-      <c r="E41" s="61" t="s">
-        <v>202</v>
-      </c>
-      <c r="F41" s="57" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="B42" s="88" t="s">
-        <v>129</v>
-      </c>
-      <c r="C42" s="75" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="E42" s="89" t="s">
-        <v>34</v>
-      </c>
-      <c r="F42" s="70" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="67"/>
-      <c r="B43" s="90"/>
-      <c r="C43" s="87"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="F43" s="70" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="B44" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="C44" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="E44" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="57" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="55"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="E45" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="F45" s="57" t="s">
-        <v>171</v>
+      <c r="E45" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="35" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="24">
-      <c r="A47" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="45"/>
+      <c r="A47" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" s="121"/>
+      <c r="C47" s="121"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="121"/>
+      <c r="F47" s="122"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
@@ -3762,673 +3638,673 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="151.80000000000001">
-      <c r="A49" s="91" t="s">
-        <v>172</v>
-      </c>
-      <c r="B49" s="81" t="s">
+      <c r="A49" s="89" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" s="97" t="s">
+        <v>222</v>
+      </c>
+      <c r="C49" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="F49" s="43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="90"/>
+      <c r="B50" s="92"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="F50" s="43" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="85" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" s="94" t="s">
+        <v>224</v>
+      </c>
+      <c r="C51" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="115"/>
+      <c r="B52" s="94"/>
+      <c r="C52" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="F52" s="76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="115"/>
+      <c r="B53" s="94"/>
+      <c r="C53" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="E49" s="89" t="s">
-        <v>27</v>
-      </c>
-      <c r="F49" s="70" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="92"/>
-      <c r="B50" s="86"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="89" t="s">
-        <v>202</v>
-      </c>
-      <c r="F50" s="70" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="117" t="s">
-        <v>173</v>
-      </c>
-      <c r="B51" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="D51" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="E51" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="F51" s="57" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="119"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="121" t="s">
+      <c r="F53" s="81" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="115"/>
+      <c r="B54" s="94"/>
+      <c r="C54" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="121" t="s">
-        <v>73</v>
-      </c>
-      <c r="E52" s="120" t="s">
-        <v>41</v>
-      </c>
-      <c r="F52" s="120" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="119"/>
-      <c r="B53" s="56"/>
-      <c r="C53" s="121" t="s">
+      <c r="E54" s="78"/>
+      <c r="F54" s="82"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="115"/>
+      <c r="B55" s="94"/>
+      <c r="C55" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55" s="78"/>
+      <c r="F55" s="82"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="115"/>
+      <c r="B56" s="94"/>
+      <c r="C56" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="78"/>
+      <c r="F56" s="82"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="115"/>
+      <c r="B57" s="94"/>
+      <c r="C57" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="D53" s="125" t="s">
-        <v>74</v>
-      </c>
-      <c r="E53" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="F53" s="126" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="119"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="121" t="s">
-        <v>67</v>
-      </c>
-      <c r="D54" s="125" t="s">
-        <v>75</v>
-      </c>
-      <c r="E54" s="122"/>
-      <c r="F54" s="127"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="119"/>
-      <c r="B55" s="56"/>
-      <c r="C55" s="121" t="s">
+      <c r="E57" s="78"/>
+      <c r="F57" s="82"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="86"/>
+      <c r="B58" s="94"/>
+      <c r="C58" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="D55" s="125" t="s">
-        <v>80</v>
-      </c>
-      <c r="E55" s="122"/>
-      <c r="F55" s="127"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="119"/>
-      <c r="B56" s="56"/>
-      <c r="C56" s="121" t="s">
-        <v>69</v>
-      </c>
-      <c r="D56" s="125" t="s">
-        <v>79</v>
-      </c>
-      <c r="E56" s="122"/>
-      <c r="F56" s="127"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="119"/>
-      <c r="B57" s="56"/>
-      <c r="C57" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="D57" s="125" t="s">
-        <v>76</v>
-      </c>
-      <c r="E57" s="122"/>
-      <c r="F57" s="127"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="123"/>
-      <c r="B58" s="56"/>
-      <c r="C58" s="120" t="s">
-        <v>72</v>
-      </c>
-      <c r="D58" s="128" t="s">
-        <v>78</v>
-      </c>
-      <c r="E58" s="124"/>
-      <c r="F58" s="129"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="84"/>
     </row>
     <row r="59" spans="1:6" ht="110.4">
-      <c r="A59" s="91" t="s">
+      <c r="A59" s="89" t="s">
+        <v>151</v>
+      </c>
+      <c r="B59" s="97" t="s">
+        <v>225</v>
+      </c>
+      <c r="C59" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="F59" s="43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="90"/>
+      <c r="B60" s="92"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="B59" s="81" t="s">
-        <v>132</v>
-      </c>
-      <c r="C59" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="D59" s="93" t="s">
-        <v>26</v>
-      </c>
-      <c r="E59" s="94" t="s">
-        <v>249</v>
-      </c>
-      <c r="F59" s="70" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="92"/>
-      <c r="B60" s="86"/>
-      <c r="C60" s="72"/>
-      <c r="D60" s="94"/>
-      <c r="E60" s="89" t="s">
-        <v>202</v>
-      </c>
-      <c r="F60" s="70" t="s">
-        <v>204</v>
+      <c r="F60" s="43" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="96.6">
-      <c r="A61" s="117" t="s">
-        <v>247</v>
-      </c>
-      <c r="B61" s="114" t="s">
-        <v>246</v>
-      </c>
-      <c r="C61" s="59" t="s">
-        <v>233</v>
-      </c>
-      <c r="D61" s="112" t="s">
-        <v>234</v>
-      </c>
-      <c r="E61" s="113" t="s">
-        <v>248</v>
-      </c>
-      <c r="F61" s="57" t="s">
-        <v>167</v>
+      <c r="A61" s="85" t="s">
+        <v>207</v>
+      </c>
+      <c r="B61" s="87" t="s">
+        <v>227</v>
+      </c>
+      <c r="C61" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="D61" s="73" t="s">
+        <v>197</v>
+      </c>
+      <c r="E61" s="74" t="s">
+        <v>228</v>
+      </c>
+      <c r="F61" s="35" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="123"/>
-      <c r="B62" s="116"/>
-      <c r="C62" s="63"/>
-      <c r="D62" s="113"/>
-      <c r="E62" s="61" t="s">
-        <v>202</v>
-      </c>
-      <c r="F62" s="57" t="s">
-        <v>204</v>
+      <c r="A62" s="86"/>
+      <c r="B62" s="88"/>
+      <c r="C62" s="41"/>
+      <c r="D62" s="74"/>
+      <c r="E62" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="F62" s="35" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="95" t="s">
-        <v>133</v>
-      </c>
-      <c r="B63" s="79" t="s">
-        <v>136</v>
-      </c>
-      <c r="C63" s="96" t="s">
-        <v>139</v>
-      </c>
-      <c r="D63" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="E63" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="F63" s="97" t="s">
-        <v>141</v>
+      <c r="A63" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="C63" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="D63" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="E63" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" s="60" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="26" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="95" t="s">
-        <v>135</v>
-      </c>
-      <c r="B65" s="79" t="s">
-        <v>138</v>
-      </c>
-      <c r="C65" s="98" t="s">
-        <v>139</v>
-      </c>
-      <c r="D65" s="98" t="s">
-        <v>140</v>
-      </c>
-      <c r="E65" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="F65" s="97" t="s">
-        <v>141</v>
+      <c r="A65" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="D65" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="E65" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65" s="60" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="B66" s="47" t="s">
-        <v>143</v>
+      <c r="A66" s="117" t="s">
+        <v>125</v>
+      </c>
+      <c r="B66" s="118" t="s">
+        <v>230</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="46"/>
-      <c r="B67" s="47"/>
+      <c r="A67" s="117"/>
+      <c r="B67" s="118"/>
       <c r="C67" s="6"/>
       <c r="D67" s="5"/>
       <c r="E67" s="20" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F67" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" s="99" t="s">
+        <v>231</v>
+      </c>
+      <c r="C68" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="D68" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="E68" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="F68" s="60" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="98"/>
+      <c r="B69" s="99"/>
+      <c r="C69" s="60" t="s">
+        <v>196</v>
+      </c>
+      <c r="D69" s="60" t="s">
+        <v>197</v>
+      </c>
+      <c r="E69" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="F69" s="61" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="98"/>
+      <c r="B70" s="99"/>
+      <c r="C70" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="D70" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="E70" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="F70" s="61" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="98"/>
+      <c r="B71" s="99"/>
+      <c r="C71" s="60" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="99" t="s">
-        <v>144</v>
-      </c>
-      <c r="B68" s="68" t="s">
-        <v>145</v>
-      </c>
-      <c r="C68" s="97" t="s">
-        <v>146</v>
-      </c>
-      <c r="D68" s="97" t="s">
-        <v>147</v>
-      </c>
-      <c r="E68" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="F68" s="97" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="99"/>
-      <c r="B69" s="68"/>
-      <c r="C69" s="97" t="s">
-        <v>233</v>
-      </c>
-      <c r="D69" s="97" t="s">
-        <v>234</v>
-      </c>
-      <c r="E69" s="98" t="s">
-        <v>36</v>
-      </c>
-      <c r="F69" s="98" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="99"/>
-      <c r="B70" s="68"/>
-      <c r="C70" s="97" t="s">
-        <v>71</v>
-      </c>
-      <c r="D70" s="97" t="s">
-        <v>77</v>
-      </c>
-      <c r="E70" s="100" t="s">
-        <v>159</v>
-      </c>
-      <c r="F70" s="98" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="99"/>
-      <c r="B71" s="68"/>
-      <c r="C71" s="97" t="s">
-        <v>150</v>
-      </c>
-      <c r="D71" s="97" t="s">
-        <v>148</v>
-      </c>
-      <c r="E71" s="84"/>
-      <c r="F71" s="84"/>
+      <c r="D71" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="E71" s="53"/>
+      <c r="F71" s="53"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="99"/>
-      <c r="B72" s="68"/>
-      <c r="C72" s="97" t="s">
-        <v>151</v>
-      </c>
-      <c r="D72" s="101" t="s">
-        <v>80</v>
-      </c>
-      <c r="E72" s="102"/>
-      <c r="F72" s="84"/>
+      <c r="A72" s="98"/>
+      <c r="B72" s="99"/>
+      <c r="C72" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="D72" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="E72" s="64"/>
+      <c r="F72" s="53"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="99"/>
-      <c r="B73" s="68"/>
-      <c r="C73" s="97" t="s">
-        <v>152</v>
-      </c>
-      <c r="D73" s="101" t="s">
-        <v>149</v>
-      </c>
-      <c r="E73" s="102"/>
-      <c r="F73" s="84"/>
+      <c r="A73" s="98"/>
+      <c r="B73" s="99"/>
+      <c r="C73" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="D73" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="E73" s="64"/>
+      <c r="F73" s="53"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="99"/>
-      <c r="B74" s="68"/>
-      <c r="C74" s="97" t="s">
-        <v>153</v>
-      </c>
-      <c r="D74" s="101" t="s">
-        <v>155</v>
-      </c>
-      <c r="E74" s="102"/>
-      <c r="F74" s="84"/>
+      <c r="A74" s="98"/>
+      <c r="B74" s="99"/>
+      <c r="C74" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="D74" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="E74" s="64"/>
+      <c r="F74" s="53"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="99"/>
-      <c r="B75" s="68"/>
-      <c r="C75" s="97" t="s">
-        <v>154</v>
-      </c>
-      <c r="D75" s="101" t="s">
-        <v>156</v>
-      </c>
-      <c r="E75" s="103"/>
-      <c r="F75" s="96"/>
+      <c r="A75" s="98"/>
+      <c r="B75" s="99"/>
+      <c r="C75" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="D75" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="E75" s="65"/>
+      <c r="F75" s="59"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="B76" s="33" t="s">
-        <v>162</v>
+      <c r="A76" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="B76" s="109" t="s">
+        <v>232</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="48"/>
-      <c r="B77" s="33"/>
+      <c r="A77" s="119"/>
+      <c r="B77" s="109"/>
       <c r="C77" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F77" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D77" s="19" t="s">
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="119"/>
+      <c r="B78" s="109"/>
+      <c r="C78" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D78" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E78" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="E77" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F77" s="21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="48"/>
-      <c r="B78" s="33"/>
-      <c r="C78" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D78" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="E78" s="22" t="s">
-        <v>159</v>
-      </c>
       <c r="F78" s="21" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="48"/>
-      <c r="B79" s="33"/>
+      <c r="A79" s="119"/>
+      <c r="B79" s="109"/>
       <c r="C79" s="3" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="5"/>
     </row>
     <row r="80" spans="1:6" ht="138">
-      <c r="A80" s="104" t="s">
-        <v>169</v>
-      </c>
-      <c r="B80" s="79" t="s">
-        <v>164</v>
-      </c>
-      <c r="C80" s="105" t="s">
-        <v>139</v>
-      </c>
-      <c r="D80" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="E80" s="106" t="s">
-        <v>163</v>
-      </c>
-      <c r="F80" s="70" t="s">
-        <v>168</v>
+      <c r="A80" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="B80" s="52" t="s">
+        <v>233</v>
+      </c>
+      <c r="C80" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D80" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="E80" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="F80" s="43" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="117" t="s">
-        <v>175</v>
-      </c>
-      <c r="B81" s="114" t="s">
-        <v>170</v>
-      </c>
-      <c r="C81" s="118" t="s">
-        <v>139</v>
-      </c>
-      <c r="D81" s="118" t="s">
-        <v>140</v>
-      </c>
-      <c r="E81" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="F81" s="57" t="s">
+      <c r="A81" s="85" t="s">
+        <v>152</v>
+      </c>
+      <c r="B81" s="87" t="s">
+        <v>235</v>
+      </c>
+      <c r="C81" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="D81" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="E81" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F81" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G81" s="28"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="115"/>
+      <c r="B82" s="116"/>
+      <c r="C82" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D82" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E82" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="G82" s="28"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="115"/>
+      <c r="B83" s="116"/>
+      <c r="C83" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="D83" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="E83" s="78"/>
+      <c r="F83" s="78"/>
+      <c r="G83" s="28"/>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="115"/>
+      <c r="B84" s="116"/>
+      <c r="C84" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="D84" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="E84" s="78"/>
+      <c r="F84" s="78"/>
+      <c r="G84" s="28"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="115"/>
+      <c r="B85" s="116"/>
+      <c r="C85" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="D85" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="E85" s="78"/>
+      <c r="F85" s="78"/>
+      <c r="G85" s="28"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="115"/>
+      <c r="B86" s="116"/>
+      <c r="C86" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="D86" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="E86" s="78"/>
+      <c r="F86" s="78"/>
+      <c r="G86" s="28"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="115"/>
+      <c r="B87" s="116"/>
+      <c r="C87" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="D87" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="78"/>
+      <c r="F87" s="78"/>
+      <c r="G87" s="28"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="115"/>
+      <c r="B88" s="116"/>
+      <c r="C88" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="D88" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="E88" s="78"/>
+      <c r="F88" s="78"/>
+      <c r="G88" s="28"/>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="86"/>
+      <c r="B89" s="88"/>
+      <c r="C89" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="G81" s="28"/>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="119"/>
-      <c r="B82" s="115"/>
-      <c r="C82" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="D82" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="E82" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="F82" s="120" t="s">
-        <v>171</v>
-      </c>
-      <c r="G82" s="28"/>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="119"/>
-      <c r="B83" s="115"/>
-      <c r="C83" s="121" t="s">
-        <v>65</v>
-      </c>
-      <c r="D83" s="121" t="s">
-        <v>73</v>
-      </c>
-      <c r="E83" s="122"/>
-      <c r="F83" s="122"/>
-      <c r="G83" s="28"/>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="119"/>
-      <c r="B84" s="115"/>
-      <c r="C84" s="121" t="s">
-        <v>66</v>
-      </c>
-      <c r="D84" s="121" t="s">
-        <v>74</v>
-      </c>
-      <c r="E84" s="122"/>
-      <c r="F84" s="122"/>
-      <c r="G84" s="28"/>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="119"/>
-      <c r="B85" s="115"/>
-      <c r="C85" s="121" t="s">
-        <v>67</v>
-      </c>
-      <c r="D85" s="121" t="s">
-        <v>75</v>
-      </c>
-      <c r="E85" s="122"/>
-      <c r="F85" s="122"/>
-      <c r="G85" s="28"/>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="119"/>
-      <c r="B86" s="115"/>
-      <c r="C86" s="121" t="s">
+      <c r="D89" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="D86" s="121" t="s">
-        <v>80</v>
-      </c>
-      <c r="E86" s="122"/>
-      <c r="F86" s="122"/>
-      <c r="G86" s="28"/>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="119"/>
-      <c r="B87" s="115"/>
-      <c r="C87" s="121" t="s">
-        <v>69</v>
-      </c>
-      <c r="D87" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="E87" s="122"/>
-      <c r="F87" s="122"/>
-      <c r="G87" s="28"/>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="119"/>
-      <c r="B88" s="115"/>
-      <c r="C88" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="D88" s="121" t="s">
-        <v>76</v>
-      </c>
-      <c r="E88" s="122"/>
-      <c r="F88" s="122"/>
-      <c r="G88" s="28"/>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="123"/>
-      <c r="B89" s="116"/>
-      <c r="C89" s="121" t="s">
-        <v>72</v>
-      </c>
-      <c r="D89" s="121" t="s">
-        <v>78</v>
-      </c>
-      <c r="E89" s="124"/>
-      <c r="F89" s="124"/>
+      <c r="E89" s="79"/>
+      <c r="F89" s="79"/>
       <c r="G89" s="28"/>
     </row>
     <row r="90" spans="1:7" ht="138">
-      <c r="A90" s="91" t="s">
-        <v>250</v>
-      </c>
-      <c r="B90" s="132" t="s">
-        <v>251</v>
-      </c>
-      <c r="C90" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="D90" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="E90" s="94" t="s">
-        <v>252</v>
-      </c>
-      <c r="F90" s="70" t="s">
-        <v>167</v>
+      <c r="A90" s="89" t="s">
+        <v>208</v>
+      </c>
+      <c r="B90" s="91" t="s">
+        <v>236</v>
+      </c>
+      <c r="C90" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="F90" s="43" t="s">
+        <v>145</v>
       </c>
       <c r="G90" s="28"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="92"/>
-      <c r="B91" s="86"/>
-      <c r="C91" s="87"/>
-      <c r="D91" s="72"/>
-      <c r="E91" s="89" t="s">
-        <v>202</v>
-      </c>
-      <c r="F91" s="70" t="s">
-        <v>204</v>
+      <c r="A91" s="90"/>
+      <c r="B91" s="92"/>
+      <c r="C91" s="54"/>
+      <c r="D91" s="45"/>
+      <c r="E91" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="F91" s="43" t="s">
+        <v>176</v>
       </c>
       <c r="G91" s="28"/>
     </row>
     <row r="93" spans="1:7" ht="27">
-      <c r="A93" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="B93" s="35"/>
-      <c r="C93" s="35"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="35"/>
-      <c r="F93" s="36"/>
+      <c r="A93" s="104" t="s">
+        <v>154</v>
+      </c>
+      <c r="B93" s="105"/>
+      <c r="C93" s="105"/>
+      <c r="D93" s="105"/>
+      <c r="E93" s="105"/>
+      <c r="F93" s="106"/>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="25" t="s">
@@ -4451,146 +4327,146 @@
       </c>
     </row>
     <row r="95" spans="1:7" ht="27.6">
-      <c r="A95" s="78" t="s">
-        <v>180</v>
-      </c>
-      <c r="B95" s="79" t="s">
-        <v>179</v>
-      </c>
-      <c r="C95" s="70" t="s">
-        <v>181</v>
-      </c>
-      <c r="D95" s="70" t="s">
-        <v>182</v>
-      </c>
-      <c r="E95" s="70" t="s">
-        <v>183</v>
-      </c>
-      <c r="F95" s="70" t="s">
+      <c r="A95" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="B95" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="C95" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="D95" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="E95" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="F95" s="43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="100" t="s">
+        <v>159</v>
+      </c>
+      <c r="B96" s="87" t="s">
+        <v>239</v>
+      </c>
+      <c r="C96" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="D96" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="E96" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F96" s="37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="101"/>
+      <c r="B97" s="116"/>
+      <c r="C97" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="D97" s="70" t="s">
+        <v>162</v>
+      </c>
+      <c r="E97" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="F97" s="37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="102"/>
+      <c r="B98" s="88"/>
+      <c r="C98" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D98" s="70" t="s">
+        <v>163</v>
+      </c>
+      <c r="E98" s="32"/>
+      <c r="F98" s="72"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="103" t="s">
+        <v>164</v>
+      </c>
+      <c r="B99" s="126" t="s">
+        <v>240</v>
+      </c>
+      <c r="C99" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="D99" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="E99" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F99" s="43" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="103"/>
+      <c r="B100" s="126"/>
+      <c r="C100" s="49"/>
+      <c r="D100" s="50"/>
+      <c r="E100" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F100" s="43" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="55.2">
+      <c r="A101" s="93" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="64" t="s">
-        <v>184</v>
-      </c>
-      <c r="B96" s="114" t="s">
-        <v>189</v>
-      </c>
-      <c r="C96" s="57" t="s">
-        <v>181</v>
-      </c>
-      <c r="D96" s="57" t="s">
-        <v>182</v>
-      </c>
-      <c r="E96" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="F96" s="59" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="65"/>
-      <c r="B97" s="115"/>
-      <c r="C97" s="57" t="s">
-        <v>185</v>
-      </c>
-      <c r="D97" s="109" t="s">
-        <v>187</v>
-      </c>
-      <c r="E97" s="110" t="s">
-        <v>35</v>
-      </c>
-      <c r="F97" s="59" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="66"/>
-      <c r="B98" s="116"/>
-      <c r="C98" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="D98" s="109" t="s">
-        <v>188</v>
-      </c>
-      <c r="E98" s="52"/>
-      <c r="F98" s="111"/>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="67" t="s">
-        <v>190</v>
-      </c>
-      <c r="B99" s="107" t="s">
-        <v>232</v>
-      </c>
-      <c r="C99" s="75" t="s">
-        <v>181</v>
-      </c>
-      <c r="D99" s="70" t="s">
-        <v>182</v>
-      </c>
-      <c r="E99" s="89" t="s">
-        <v>34</v>
-      </c>
-      <c r="F99" s="70" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="67"/>
-      <c r="B100" s="107"/>
-      <c r="C100" s="76"/>
-      <c r="D100" s="77"/>
-      <c r="E100" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="F100" s="70" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="55.2">
-      <c r="A101" s="55" t="s">
-        <v>191</v>
-      </c>
-      <c r="B101" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="C101" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="D101" s="112" t="s">
-        <v>126</v>
-      </c>
-      <c r="E101" s="61" t="s">
-        <v>192</v>
-      </c>
-      <c r="F101" s="57" t="s">
-        <v>193</v>
+      <c r="B101" s="94" t="s">
+        <v>241</v>
+      </c>
+      <c r="C101" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D101" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="E101" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F101" s="35" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="55"/>
-      <c r="B102" s="56"/>
-      <c r="C102" s="63"/>
-      <c r="D102" s="113"/>
-      <c r="E102" s="61" t="s">
-        <v>202</v>
-      </c>
-      <c r="F102" s="57" t="s">
-        <v>205</v>
+      <c r="A102" s="93"/>
+      <c r="B102" s="94"/>
+      <c r="C102" s="41"/>
+      <c r="D102" s="74"/>
+      <c r="E102" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="F102" s="35" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="27">
-      <c r="A104" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="B104" s="35"/>
-      <c r="C104" s="35"/>
-      <c r="D104" s="35"/>
-      <c r="E104" s="35"/>
-      <c r="F104" s="36"/>
+      <c r="A104" s="104" t="s">
+        <v>173</v>
+      </c>
+      <c r="B104" s="105"/>
+      <c r="C104" s="105"/>
+      <c r="D104" s="105"/>
+      <c r="E104" s="105"/>
+      <c r="F104" s="106"/>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="27" t="s">
@@ -4613,254 +4489,254 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="41.4">
-      <c r="A106" s="99" t="s">
-        <v>206</v>
-      </c>
-      <c r="B106" s="81" t="s">
-        <v>210</v>
-      </c>
-      <c r="C106" s="108" t="s">
-        <v>197</v>
-      </c>
-      <c r="D106" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="E106" s="106" t="s">
-        <v>207</v>
-      </c>
-      <c r="F106" s="70" t="s">
-        <v>218</v>
+      <c r="A106" s="98" t="s">
+        <v>178</v>
+      </c>
+      <c r="B106" s="97" t="s">
+        <v>242</v>
+      </c>
+      <c r="C106" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="D106" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="E106" s="68" t="s">
+        <v>179</v>
+      </c>
+      <c r="F106" s="43" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="99"/>
-      <c r="B107" s="86"/>
-      <c r="C107" s="96"/>
-      <c r="D107" s="96"/>
-      <c r="E107" s="97" t="s">
-        <v>202</v>
-      </c>
-      <c r="F107" s="97" t="s">
-        <v>209</v>
+      <c r="A107" s="98"/>
+      <c r="B107" s="92"/>
+      <c r="C107" s="59"/>
+      <c r="D107" s="59"/>
+      <c r="E107" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="F107" s="60" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="41.4">
-      <c r="A108" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="B108" s="33" t="s">
-        <v>212</v>
+      <c r="A108" s="110" t="s">
+        <v>182</v>
+      </c>
+      <c r="B108" s="109" t="s">
+        <v>243</v>
       </c>
       <c r="C108" s="30" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D108" s="30" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E108" s="24" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="32"/>
-      <c r="B109" s="33"/>
+      <c r="A109" s="110"/>
+      <c r="B109" s="109"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="3" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="41.4">
-      <c r="A110" s="99" t="s">
-        <v>214</v>
-      </c>
-      <c r="B110" s="68" t="s">
-        <v>213</v>
-      </c>
-      <c r="C110" s="108" t="s">
-        <v>139</v>
-      </c>
-      <c r="D110" s="108" t="s">
-        <v>140</v>
-      </c>
-      <c r="E110" s="106" t="s">
-        <v>207</v>
-      </c>
-      <c r="F110" s="70" t="s">
-        <v>218</v>
+      <c r="A110" s="98" t="s">
+        <v>183</v>
+      </c>
+      <c r="B110" s="99" t="s">
+        <v>244</v>
+      </c>
+      <c r="C110" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="D110" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="E110" s="68" t="s">
+        <v>179</v>
+      </c>
+      <c r="F110" s="43" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="99"/>
-      <c r="B111" s="68"/>
-      <c r="C111" s="96"/>
-      <c r="D111" s="96"/>
-      <c r="E111" s="97" t="s">
-        <v>202</v>
-      </c>
-      <c r="F111" s="97" t="s">
-        <v>209</v>
+      <c r="A111" s="98"/>
+      <c r="B111" s="99"/>
+      <c r="C111" s="59"/>
+      <c r="D111" s="59"/>
+      <c r="E111" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="F111" s="60" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="27.6">
-      <c r="A112" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="B112" s="33" t="s">
-        <v>216</v>
+      <c r="A112" s="110" t="s">
+        <v>184</v>
+      </c>
+      <c r="B112" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="F112" s="31" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="32"/>
-      <c r="B113" s="33"/>
+      <c r="A113" s="110"/>
+      <c r="B113" s="109"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="3" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="99" t="s">
-        <v>219</v>
-      </c>
-      <c r="B114" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="C114" s="97" t="s">
-        <v>54</v>
-      </c>
-      <c r="D114" s="97" t="s">
-        <v>32</v>
-      </c>
-      <c r="E114" s="98" t="s">
-        <v>34</v>
-      </c>
-      <c r="F114" s="73" t="s">
-        <v>141</v>
+      <c r="A114" s="98" t="s">
+        <v>187</v>
+      </c>
+      <c r="B114" s="99" t="s">
+        <v>188</v>
+      </c>
+      <c r="C114" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D114" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E114" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="F114" s="46" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="99"/>
-      <c r="B115" s="68"/>
-      <c r="C115" s="97" t="s">
-        <v>139</v>
-      </c>
-      <c r="D115" s="101" t="s">
-        <v>140</v>
-      </c>
-      <c r="E115" s="98" t="s">
-        <v>36</v>
-      </c>
-      <c r="F115" s="98" t="s">
-        <v>222</v>
+      <c r="A115" s="98"/>
+      <c r="B115" s="99"/>
+      <c r="C115" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="D115" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="E115" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="F115" s="61" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="99"/>
-      <c r="B116" s="68"/>
-      <c r="C116" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="D116" s="101" t="s">
-        <v>201</v>
-      </c>
-      <c r="E116" s="96"/>
-      <c r="F116" s="96"/>
+      <c r="A116" s="98"/>
+      <c r="B116" s="99"/>
+      <c r="C116" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="D116" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="E116" s="59"/>
+      <c r="F116" s="59"/>
     </row>
     <row r="117" spans="1:6" ht="41.4">
-      <c r="A117" s="49" t="s">
-        <v>241</v>
-      </c>
-      <c r="B117" s="33" t="s">
-        <v>242</v>
+      <c r="A117" s="107" t="s">
+        <v>204</v>
+      </c>
+      <c r="B117" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="C117" s="30" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="D117" s="30" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="E117" s="24" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="50"/>
-      <c r="B118" s="33"/>
+      <c r="A118" s="108"/>
+      <c r="B118" s="109"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="3" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="82.8">
-      <c r="A119" s="80" t="s">
-        <v>243</v>
-      </c>
-      <c r="B119" s="81" t="s">
-        <v>244</v>
-      </c>
-      <c r="C119" s="108" t="s">
-        <v>126</v>
-      </c>
-      <c r="D119" s="108" t="s">
-        <v>126</v>
-      </c>
-      <c r="E119" s="106" t="s">
-        <v>245</v>
-      </c>
-      <c r="F119" s="70" t="s">
-        <v>218</v>
+      <c r="A119" s="95" t="s">
+        <v>205</v>
+      </c>
+      <c r="B119" s="97" t="s">
+        <v>247</v>
+      </c>
+      <c r="C119" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="D119" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="E119" s="68" t="s">
+        <v>206</v>
+      </c>
+      <c r="F119" s="43" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="85"/>
-      <c r="B120" s="86"/>
-      <c r="C120" s="96"/>
-      <c r="D120" s="96"/>
-      <c r="E120" s="97" t="s">
-        <v>202</v>
-      </c>
-      <c r="F120" s="97" t="s">
-        <v>209</v>
+      <c r="A120" s="96"/>
+      <c r="B120" s="92"/>
+      <c r="C120" s="59"/>
+      <c r="D120" s="59"/>
+      <c r="E120" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="F120" s="60" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="27">
-      <c r="A122" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="B122" s="35"/>
-      <c r="C122" s="35"/>
-      <c r="D122" s="35"/>
-      <c r="E122" s="35"/>
-      <c r="F122" s="36"/>
+      <c r="A122" s="104" t="s">
+        <v>168</v>
+      </c>
+      <c r="B122" s="105"/>
+      <c r="C122" s="105"/>
+      <c r="D122" s="105"/>
+      <c r="E122" s="105"/>
+      <c r="F122" s="106"/>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="25" t="s">
@@ -4883,139 +4759,200 @@
       </c>
     </row>
     <row r="124" spans="1:6" ht="27.6">
-      <c r="A124" s="78" t="s">
-        <v>224</v>
-      </c>
-      <c r="B124" s="79" t="s">
-        <v>228</v>
-      </c>
-      <c r="C124" s="70" t="s">
-        <v>233</v>
-      </c>
-      <c r="D124" s="70" t="s">
-        <v>234</v>
-      </c>
-      <c r="E124" s="70" t="s">
-        <v>223</v>
-      </c>
-      <c r="F124" s="70" t="s">
-        <v>165</v>
+      <c r="A124" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="B124" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="C124" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="D124" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="E124" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="F124" s="43" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="64" t="s">
-        <v>225</v>
-      </c>
-      <c r="B125" s="56" t="s">
-        <v>229</v>
-      </c>
-      <c r="C125" s="57" t="s">
-        <v>233</v>
-      </c>
-      <c r="D125" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="E125" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="F125" s="59" t="s">
-        <v>62</v>
+      <c r="A125" s="100" t="s">
+        <v>193</v>
+      </c>
+      <c r="B125" s="94" t="s">
+        <v>249</v>
+      </c>
+      <c r="C125" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="D125" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="E125" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F125" s="37" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="65"/>
-      <c r="B126" s="56"/>
-      <c r="C126" s="57" t="s">
-        <v>239</v>
-      </c>
-      <c r="D126" s="109" t="s">
-        <v>240</v>
-      </c>
-      <c r="E126" s="110" t="s">
-        <v>35</v>
-      </c>
-      <c r="F126" s="59" t="s">
-        <v>63</v>
+      <c r="A126" s="101"/>
+      <c r="B126" s="94"/>
+      <c r="C126" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="D126" s="70" t="s">
+        <v>203</v>
+      </c>
+      <c r="E126" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="F126" s="37" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="66"/>
-      <c r="B127" s="56"/>
-      <c r="C127" s="57" t="s">
-        <v>238</v>
-      </c>
-      <c r="D127" s="109" t="s">
-        <v>188</v>
-      </c>
-      <c r="E127" s="52"/>
-      <c r="F127" s="111"/>
+      <c r="A127" s="102"/>
+      <c r="B127" s="94"/>
+      <c r="C127" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="D127" s="70" t="s">
+        <v>163</v>
+      </c>
+      <c r="E127" s="32"/>
+      <c r="F127" s="72"/>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="67" t="s">
-        <v>227</v>
-      </c>
-      <c r="B128" s="68" t="s">
-        <v>230</v>
-      </c>
-      <c r="C128" s="75" t="s">
-        <v>233</v>
-      </c>
-      <c r="D128" s="73" t="s">
-        <v>234</v>
-      </c>
-      <c r="E128" s="89" t="s">
-        <v>34</v>
-      </c>
-      <c r="F128" s="70" t="s">
-        <v>130</v>
+      <c r="A128" s="103" t="s">
+        <v>195</v>
+      </c>
+      <c r="B128" s="99" t="s">
+        <v>250</v>
+      </c>
+      <c r="C128" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="D128" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="E128" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F128" s="43" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="67"/>
-      <c r="B129" s="68"/>
-      <c r="C129" s="76"/>
-      <c r="D129" s="77"/>
-      <c r="E129" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="F129" s="70" t="s">
-        <v>131</v>
+      <c r="A129" s="103"/>
+      <c r="B129" s="99"/>
+      <c r="C129" s="49"/>
+      <c r="D129" s="50"/>
+      <c r="E129" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F129" s="43" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="41.4">
-      <c r="A130" s="55" t="s">
-        <v>226</v>
-      </c>
-      <c r="B130" s="56" t="s">
-        <v>231</v>
-      </c>
-      <c r="C130" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="D130" s="112" t="s">
-        <v>126</v>
-      </c>
-      <c r="E130" s="61" t="s">
-        <v>237</v>
-      </c>
-      <c r="F130" s="57" t="s">
-        <v>235</v>
+      <c r="A130" s="93" t="s">
+        <v>194</v>
+      </c>
+      <c r="B130" s="94" t="s">
+        <v>251</v>
+      </c>
+      <c r="C130" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D130" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="E130" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="F130" s="35" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="55"/>
-      <c r="B131" s="56"/>
-      <c r="C131" s="63"/>
-      <c r="D131" s="113"/>
-      <c r="E131" s="61" t="s">
-        <v>202</v>
-      </c>
-      <c r="F131" s="57" t="s">
-        <v>236</v>
+      <c r="A131" s="93"/>
+      <c r="B131" s="94"/>
+      <c r="C131" s="41"/>
+      <c r="D131" s="74"/>
+      <c r="E131" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="F131" s="35" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A51:A58"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A81:A89"/>
+    <mergeCell ref="B81:B89"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A68:A75"/>
+    <mergeCell ref="B68:B75"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="B32:B39"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B59:B60"/>
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="B61:B62"/>
     <mergeCell ref="A90:A91"/>
@@ -5032,71 +4969,10 @@
     <mergeCell ref="B128:B129"/>
     <mergeCell ref="A122:F122"/>
     <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="B32:B39"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A81:A89"/>
-    <mergeCell ref="B81:B89"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="A68:A75"/>
-    <mergeCell ref="B68:B75"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A51:A58"/>
-    <mergeCell ref="B51:B58"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="A114:A116"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:B109"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B90" r:id="rId1" xr:uid="{D9838373-2BFF-4B40-BA09-972769FD6671}"/>
+    <hyperlink ref="B90" r:id="rId1" display="http://106.13.236.185:5000/api/game/query_all_check" xr:uid="{D9838373-2BFF-4B40-BA09-972769FD6671}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -5123,45 +4999,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999">
-      <c r="A1" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
+      <c r="A1" s="127" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="11" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>99</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C3" s="8">
         <v>0</v>
@@ -5173,16 +5049,16 @@
         <v>-1</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="9" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C4" s="8">
         <v>0</v>
@@ -5200,10 +5076,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C5" s="8">
         <v>0</v>
@@ -5221,10 +5097,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C6" s="8">
         <v>0</v>
@@ -5242,10 +5118,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="14" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C7" s="15">
         <v>0</v>
@@ -5262,45 +5138,45 @@
       <c r="G7" s="16"/>
     </row>
     <row r="9" spans="1:7" ht="17.399999999999999">
-      <c r="A9" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
+      <c r="A9" s="127" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="127"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="11" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>99</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C11" s="8">
         <v>0</v>
@@ -5312,16 +5188,16 @@
         <v>-1</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C12" s="8">
         <v>0</v>
@@ -5339,10 +5215,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C13" s="8">
         <v>0</v>
@@ -5360,10 +5236,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C14" s="8">
         <v>0</v>
@@ -5381,10 +5257,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="14" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C15" s="15">
         <v>0</v>
@@ -5401,45 +5277,45 @@
       <c r="G15" s="16"/>
     </row>
     <row r="17" spans="1:7" ht="17.399999999999999">
-      <c r="A17" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
+      <c r="A17" s="127" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="127"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="127"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="11" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="13" t="s">
         <v>99</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="9" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C19" s="8">
         <v>0</v>
@@ -5451,16 +5327,16 @@
         <v>-1</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="9" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C20" s="8">
         <v>0</v>
@@ -5478,10 +5354,10 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C21" s="8">
         <v>0</v>
@@ -5499,10 +5375,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="9" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C22" s="8">
         <v>0</v>
@@ -5520,10 +5396,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C23" s="8">
         <v>0</v>
@@ -5541,10 +5417,10 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="9" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C24" s="8">
         <v>0</v>
@@ -5562,10 +5438,10 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="9" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C25" s="8">
         <v>0</v>
@@ -5580,15 +5456,15 @@
         <v>0</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="9" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C26" s="8">
         <v>0</v>
@@ -5608,10 +5484,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="14" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C27" s="15">
         <v>0</v>
@@ -5630,45 +5506,45 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.399999999999999">
-      <c r="A29" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
+      <c r="A29" s="127" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="127"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="127"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="11" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B30" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="13" t="s">
         <v>99</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="9" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C31" s="8">
         <v>0</v>
@@ -5680,16 +5556,16 @@
         <v>-1</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="9" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C32" s="8">
         <v>0</v>
@@ -5701,16 +5577,16 @@
         <v>0</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="9" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C33" s="8">
         <v>0</v>
@@ -5722,16 +5598,16 @@
         <v>0</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="9" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C34" s="8">
         <v>0</v>
@@ -5749,10 +5625,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="14" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C35" s="15">
         <v>0</v>
@@ -5769,45 +5645,45 @@
       <c r="G35" s="16"/>
     </row>
     <row r="37" spans="1:7" ht="17.399999999999999">
-      <c r="A37" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
+      <c r="A37" s="127" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="127"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="127"/>
+      <c r="F37" s="127"/>
+      <c r="G37" s="127"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="11" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B38" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G38" s="13" t="s">
         <v>99</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="9" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C39" s="8">
         <v>0</v>
@@ -5819,16 +5695,16 @@
         <v>-1</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G39" s="10"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="9" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C40" s="8">
         <v>0</v>
@@ -5846,10 +5722,10 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="9" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C41" s="8">
         <v>0</v>
@@ -5867,10 +5743,10 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C42" s="8">
         <v>0</v>
@@ -5888,10 +5764,10 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="9" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C43" s="8">
         <v>0</v>
@@ -5906,15 +5782,15 @@
         <v>0</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="9" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C44" s="8">
         <v>0</v>
@@ -5932,10 +5808,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="9" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C45" s="8">
         <v>0</v>
@@ -5953,10 +5829,10 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="9" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C46" s="8">
         <v>0</v>
@@ -5971,15 +5847,15 @@
         <v>0</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="14" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C47" s="15">
         <v>0</v>
@@ -6005,7 +5881,7 @@
     <mergeCell ref="A29:G29"/>
     <mergeCell ref="A37:G37"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="5">

--- a/README.xlsx
+++ b/README.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chall\Documents\我的文件\stepic_back\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404912C7-0C5E-462F-A36F-244D5CEF2C4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE01634-1A7B-4CB3-BEC1-DF38A288DD93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="255">
   <si>
     <t>请求地址</t>
   </si>
@@ -817,10 +817,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>http://106.13.236.185:5001/api/score/add</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>score</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -910,133 +906,150 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>https://stepic-api.redcountry.top/api/login_user</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/regit_user</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/login_admin</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/regit_admin</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/login_developer</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/regit_developer</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/user/query_userinfo</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/user/update_userinfo</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/user/update_user</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/user/query_all</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/user/delete</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/user/update_exper</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/game/query_all_pub</t>
+  </si>
+  <si>
+    <t>[{"filename":"2048.py","fileurl":"https://stepic-api.redcountry.top/static/game/2048.py","gid":1,"gname":"2048","image":"https://stepic-api.redcountry.top/static/image/2048.png","name":"2048","note":"","star":"","version":""},{"filename":"tanchi.py","fileurl":"https://stepic-api.redcountry.top/static/game/tanchi.py","gid":2,"gname":"\u8d2a\u5403\u86c7\u5927\u4f5c\u6218","image":"https://stepic-api.redcountry.top/static/image/tanchi.png","name":"tanchi","note":"","star":"","version":""}]</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/game/add_game</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/game/query_all</t>
+  </si>
+  <si>
+    <t>[ { "dname": "developer1", "filename": "2048.py", "fileurl": "https://stepic-api.redcountry.top/static/game/2048.py", "gid": 1, "gname": "2048", "image": "https://stepic-api.redcountry.top/static/image/2048.png", "name": "2048", "note": null, "status": "\u5ba1\u6838\u5931\u8d25", "version": "1.5" }]</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/game/query_upload</t>
+  </si>
+  <si>
+    <t>[{ "did": 1, "filename": "2048.py", "fileurl": "https://stepic-api.redcountry.top/static/game/2048.py", "gid": 1, "gname": "2048", "image": "https://stepic-api.redcountry.top/static/image/2048.png", "name": "2048", "note": null, "status": "\u5ba1\u6838\u5931\u8d25", "version": "1.5" }]</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/game/check_start</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/game/delete</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/game/upload</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/game/update</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/game/query_by_id</t>
+  </si>
+  <si>
+    <t>{ "filename": "tanchi.py", "fileurl": "https://stepic-api.redcountry.top/static/game/tanchi.py", "gid": 2, "gname": "\u8d2a\u5403\u86c7\u5927\u4f5c\u6218", "image": "https://stepic-api.redcountry.top/static/image/tanchi.png", "name": "tanchi", "note": null, "star": 0, "status": "\u5ba1\u6838\u901a\u8fc7", "version": "1.0" }</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/game/update_game</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/game/query_all_check</t>
+  </si>
+  <si>
+    <t>[ { "dname": "developer1", "filename": "elsfk.py", "fileurl": "https://stepic-api.redcountry.top/static/game/elsfk.py", "gid": 3, "gname": "\u4fc4\u7f57\u65af\u65b9\u5757", "image": "https://stepic-api.redcountry.top/static/image/elsfk.png", "name": "elsfk", "note": "\u4fc4\u7f57\u65af\u65b9\u5757\uff0c\u4f53\u9a8c\u5feb\u4e50", "status": "\u672a\u5ba1\u6838", "version": "1.1" } ]</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/admin/query_info</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/admin/update_info</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/admin/delete</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/admin/query_all</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/score/query_by_uid</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/score/query_all</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/score/query_by_gid</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/score/query_max</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/score/query_event</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/score/query_max_all</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/developer/query_info</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/developer/update_info</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/developer/delete</t>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/developer/query_all</t>
+  </si>
+  <si>
+    <t>新增一条游戏得分(通过游戏逻辑名name)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏逻辑名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>统一请求地址前缀：https://stepic-api.redcountry.top/api/</t>
-  </si>
-  <si>
-    <t>https://stepic-api.redcountry.top/api/login_user</t>
-  </si>
-  <si>
-    <t>https://stepic-api.redcountry.top/api/regit_user</t>
-  </si>
-  <si>
-    <t>https://stepic-api.redcountry.top/api/login_admin</t>
-  </si>
-  <si>
-    <t>https://stepic-api.redcountry.top/api/regit_admin</t>
-  </si>
-  <si>
-    <t>https://stepic-api.redcountry.top/api/login_developer</t>
-  </si>
-  <si>
-    <t>https://stepic-api.redcountry.top/api/regit_developer</t>
-  </si>
-  <si>
-    <t>https://stepic-api.redcountry.top/api/user/query_userinfo</t>
-  </si>
-  <si>
-    <t>https://stepic-api.redcountry.top/api/user/update_userinfo</t>
-  </si>
-  <si>
-    <t>https://stepic-api.redcountry.top/api/user/update_user</t>
-  </si>
-  <si>
-    <t>https://stepic-api.redcountry.top/api/user/query_all</t>
-  </si>
-  <si>
-    <t>https://stepic-api.redcountry.top/api/user/delete</t>
-  </si>
-  <si>
-    <t>https://stepic-api.redcountry.top/api/user/update_exper</t>
-  </si>
-  <si>
-    <t>https://stepic-api.redcountry.top/api/game/query_all_pub</t>
-  </si>
-  <si>
-    <t>[{"filename":"2048.py","fileurl":"https://stepic-api.redcountry.top/static/game/2048.py","gid":1,"gname":"2048","image":"https://stepic-api.redcountry.top/static/image/2048.png","name":"2048","note":"","star":"","version":""},{"filename":"tanchi.py","fileurl":"https://stepic-api.redcountry.top/static/game/tanchi.py","gid":2,"gname":"\u8d2a\u5403\u86c7\u5927\u4f5c\u6218","image":"https://stepic-api.redcountry.top/static/image/tanchi.png","name":"tanchi","note":"","star":"","version":""}]</t>
-  </si>
-  <si>
-    <t>https://stepic-api.redcountry.top/api/game/add_game</t>
-  </si>
-  <si>
-    <t>https://stepic-api.redcountry.top/api/game/query_all</t>
-  </si>
-  <si>
-    <t>[ { "dname": "developer1", "filename": "2048.py", "fileurl": "https://stepic-api.redcountry.top/static/game/2048.py", "gid": 1, "gname": "2048", "image": "https://stepic-api.redcountry.top/static/image/2048.png", "name": "2048", "note": null, "status": "\u5ba1\u6838\u5931\u8d25", "version": "1.5" }]</t>
-  </si>
-  <si>
-    <t>https://stepic-api.redcountry.top/api/game/query_upload</t>
-  </si>
-  <si>
-    <t>[{ "did": 1, "filename": "2048.py", "fileurl": "https://stepic-api.redcountry.top/static/game/2048.py", "gid": 1, "gname": "2048", "image": "https://stepic-api.redcountry.top/static/image/2048.png", "name": "2048", "note": null, "status": "\u5ba1\u6838\u5931\u8d25", "version": "1.5" }]</t>
-  </si>
-  <si>
-    <t>https://stepic-api.redcountry.top/api/game/check_start</t>
-  </si>
-  <si>
-    <t>https://stepic-api.redcountry.top/api/game/delete</t>
-  </si>
-  <si>
-    <t>https://stepic-api.redcountry.top/api/game/upload</t>
-  </si>
-  <si>
-    <t>https://stepic-api.redcountry.top/api/game/update</t>
-  </si>
-  <si>
-    <t>https://stepic-api.redcountry.top/api/game/query_by_id</t>
-  </si>
-  <si>
-    <t>{ "filename": "tanchi.py", "fileurl": "https://stepic-api.redcountry.top/static/game/tanchi.py", "gid": 2, "gname": "\u8d2a\u5403\u86c7\u5927\u4f5c\u6218", "image": "https://stepic-api.redcountry.top/static/image/tanchi.png", "name": "tanchi", "note": null, "star": 0, "status": "\u5ba1\u6838\u901a\u8fc7", "version": "1.0" }</t>
-  </si>
-  <si>
-    <t>https://stepic-api.redcountry.top/api/game/update_game</t>
-  </si>
-  <si>
-    <t>https://stepic-api.redcountry.top/api/game/query_all_check</t>
-  </si>
-  <si>
-    <t>[ { "dname": "developer1", "filename": "elsfk.py", "fileurl": "https://stepic-api.redcountry.top/static/game/elsfk.py", "gid": 3, "gname": "\u4fc4\u7f57\u65af\u65b9\u5757", "image": "https://stepic-api.redcountry.top/static/image/elsfk.png", "name": "elsfk", "note": "\u4fc4\u7f57\u65af\u65b9\u5757\uff0c\u4f53\u9a8c\u5feb\u4e50", "status": "\u672a\u5ba1\u6838", "version": "1.1" } ]</t>
-  </si>
-  <si>
-    <t>https://stepic-api.redcountry.top/api/admin/query_info</t>
-  </si>
-  <si>
-    <t>https://stepic-api.redcountry.top/api/admin/update_info</t>
-  </si>
-  <si>
-    <t>https://stepic-api.redcountry.top/api/admin/delete</t>
-  </si>
-  <si>
-    <t>https://stepic-api.redcountry.top/api/admin/query_all</t>
-  </si>
-  <si>
-    <t>https://stepic-api.redcountry.top/api/score/query_by_uid</t>
-  </si>
-  <si>
-    <t>https://stepic-api.redcountry.top/api/score/query_all</t>
-  </si>
-  <si>
-    <t>https://stepic-api.redcountry.top/api/score/query_by_gid</t>
-  </si>
-  <si>
-    <t>https://stepic-api.redcountry.top/api/score/query_max</t>
-  </si>
-  <si>
-    <t>https://stepic-api.redcountry.top/api/score/query_event</t>
-  </si>
-  <si>
-    <t>https://stepic-api.redcountry.top/api/score/query_max_all</t>
-  </si>
-  <si>
-    <t>https://stepic-api.redcountry.top/api/developer/query_info</t>
-  </si>
-  <si>
-    <t>https://stepic-api.redcountry.top/api/developer/update_info</t>
-  </si>
-  <si>
-    <t>https://stepic-api.redcountry.top/api/developer/delete</t>
-  </si>
-  <si>
-    <t>https://stepic-api.redcountry.top/api/developer/query_all</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/score/add</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/score/add2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1347,7 +1360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1547,150 +1560,159 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2929,10 +2951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G131"/>
+  <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2946,52 +2968,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30.6">
-      <c r="A1" s="129" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="128"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
     </row>
     <row r="3" spans="1:6" ht="15">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
     </row>
     <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="132" t="s">
-        <v>209</v>
-      </c>
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
+      <c r="A4" s="96" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
     </row>
     <row r="5" spans="1:6" ht="24">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="33" t="s">
@@ -3014,11 +3036,11 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="99" t="s">
-        <v>210</v>
+      <c r="B7" s="95" t="s">
+        <v>208</v>
       </c>
       <c r="C7" s="42" t="s">
         <v>20</v>
@@ -3034,8 +3056,8 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="103"/>
-      <c r="B8" s="99"/>
+      <c r="A8" s="94"/>
+      <c r="B8" s="95"/>
       <c r="C8" s="42" t="s">
         <v>19</v>
       </c>
@@ -3050,11 +3072,11 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="94" t="s">
-        <v>211</v>
+      <c r="B9" s="99" t="s">
+        <v>209</v>
       </c>
       <c r="C9" s="36" t="s">
         <v>20</v>
@@ -3070,8 +3092,8 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="93"/>
-      <c r="B10" s="94"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="99"/>
       <c r="C10" s="38" t="s">
         <v>19</v>
       </c>
@@ -3086,8 +3108,8 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="93"/>
-      <c r="B11" s="94"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="99"/>
       <c r="C11" s="40"/>
       <c r="D11" s="41"/>
       <c r="E11" s="39" t="s">
@@ -3098,11 +3120,11 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="103" t="s">
+      <c r="A12" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="99" t="s">
-        <v>212</v>
+      <c r="B12" s="95" t="s">
+        <v>210</v>
       </c>
       <c r="C12" s="44" t="s">
         <v>20</v>
@@ -3118,8 +3140,8 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="103"/>
-      <c r="B13" s="99"/>
+      <c r="A13" s="94"/>
+      <c r="B13" s="95"/>
       <c r="C13" s="42" t="s">
         <v>19</v>
       </c>
@@ -3134,11 +3156,11 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="94" t="s">
-        <v>213</v>
+      <c r="B14" s="99" t="s">
+        <v>211</v>
       </c>
       <c r="C14" s="36" t="s">
         <v>14</v>
@@ -3154,8 +3176,8 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="93"/>
-      <c r="B15" s="94"/>
+      <c r="A15" s="98"/>
+      <c r="B15" s="99"/>
       <c r="C15" s="38" t="s">
         <v>35</v>
       </c>
@@ -3170,8 +3192,8 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="93"/>
-      <c r="B16" s="94"/>
+      <c r="A16" s="98"/>
+      <c r="B16" s="99"/>
       <c r="C16" s="40"/>
       <c r="D16" s="41"/>
       <c r="E16" s="39" t="s">
@@ -3182,11 +3204,11 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="103" t="s">
+      <c r="A17" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="99" t="s">
-        <v>214</v>
+      <c r="B17" s="95" t="s">
+        <v>212</v>
       </c>
       <c r="C17" s="44" t="s">
         <v>20</v>
@@ -3202,8 +3224,8 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="103"/>
-      <c r="B18" s="99"/>
+      <c r="A18" s="94"/>
+      <c r="B18" s="95"/>
       <c r="C18" s="42" t="s">
         <v>19</v>
       </c>
@@ -3218,11 +3240,11 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="100" t="s">
+      <c r="A19" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="94" t="s">
-        <v>215</v>
+      <c r="B19" s="99" t="s">
+        <v>213</v>
       </c>
       <c r="C19" s="36" t="s">
         <v>20</v>
@@ -3238,8 +3260,8 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="101"/>
-      <c r="B20" s="94"/>
+      <c r="A20" s="105"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="38" t="s">
         <v>35</v>
       </c>
@@ -3254,8 +3276,8 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="102"/>
-      <c r="B21" s="94"/>
+      <c r="A21" s="106"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="40"/>
       <c r="D21" s="41"/>
       <c r="E21" s="39" t="s">
@@ -3266,14 +3288,14 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="24">
-      <c r="A23" s="120" t="s">
+      <c r="A23" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="121"/>
-      <c r="C23" s="121"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="122"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="103"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
@@ -3300,7 +3322,7 @@
         <v>13</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C25" s="43" t="s">
         <v>14</v>
@@ -3316,11 +3338,11 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="93" t="s">
+      <c r="A26" s="98" t="s">
         <v>172</v>
       </c>
-      <c r="B26" s="94" t="s">
-        <v>217</v>
+      <c r="B26" s="99" t="s">
+        <v>215</v>
       </c>
       <c r="C26" s="35" t="s">
         <v>44</v>
@@ -3336,8 +3358,8 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="93"/>
-      <c r="B27" s="94"/>
+      <c r="A27" s="98"/>
+      <c r="B27" s="99"/>
       <c r="C27" s="35" t="s">
         <v>39</v>
       </c>
@@ -3352,8 +3374,8 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="93"/>
-      <c r="B28" s="94"/>
+      <c r="A28" s="98"/>
+      <c r="B28" s="99"/>
       <c r="C28" s="35" t="s">
         <v>40</v>
       </c>
@@ -3364,8 +3386,8 @@
       <c r="F28" s="72"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="93"/>
-      <c r="B29" s="94"/>
+      <c r="A29" s="98"/>
+      <c r="B29" s="99"/>
       <c r="C29" s="35" t="s">
         <v>41</v>
       </c>
@@ -3376,8 +3398,8 @@
       <c r="F29" s="72"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="93"/>
-      <c r="B30" s="94"/>
+      <c r="A30" s="98"/>
+      <c r="B30" s="99"/>
       <c r="C30" s="35" t="s">
         <v>42</v>
       </c>
@@ -3388,8 +3410,8 @@
       <c r="F30" s="72"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="93"/>
-      <c r="B31" s="94"/>
+      <c r="A31" s="98"/>
+      <c r="B31" s="99"/>
       <c r="C31" s="35" t="s">
         <v>43</v>
       </c>
@@ -3400,11 +3422,11 @@
       <c r="F31" s="72"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="95" t="s">
+      <c r="A32" s="125" t="s">
         <v>171</v>
       </c>
-      <c r="B32" s="97" t="s">
-        <v>218</v>
+      <c r="B32" s="87" t="s">
+        <v>216</v>
       </c>
       <c r="C32" s="43" t="s">
         <v>169</v>
@@ -3420,8 +3442,8 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="112"/>
-      <c r="B33" s="111"/>
+      <c r="A33" s="126"/>
+      <c r="B33" s="124"/>
       <c r="C33" s="43" t="s">
         <v>44</v>
       </c>
@@ -3436,8 +3458,8 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="112"/>
-      <c r="B34" s="111"/>
+      <c r="A34" s="126"/>
+      <c r="B34" s="124"/>
       <c r="C34" s="43" t="s">
         <v>39</v>
       </c>
@@ -3448,8 +3470,8 @@
       <c r="F34" s="53"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="112"/>
-      <c r="B35" s="111"/>
+      <c r="A35" s="126"/>
+      <c r="B35" s="124"/>
       <c r="C35" s="43" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3482,8 @@
       <c r="F35" s="50"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="112"/>
-      <c r="B36" s="111"/>
+      <c r="A36" s="126"/>
+      <c r="B36" s="124"/>
       <c r="C36" s="43" t="s">
         <v>41</v>
       </c>
@@ -3472,8 +3494,8 @@
       <c r="F36" s="50"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="112"/>
-      <c r="B37" s="111"/>
+      <c r="A37" s="126"/>
+      <c r="B37" s="124"/>
       <c r="C37" s="43" t="s">
         <v>42</v>
       </c>
@@ -3484,8 +3506,8 @@
       <c r="F37" s="50"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="112"/>
-      <c r="B38" s="111"/>
+      <c r="A38" s="126"/>
+      <c r="B38" s="124"/>
       <c r="C38" s="43" t="s">
         <v>43</v>
       </c>
@@ -3496,8 +3518,8 @@
       <c r="F38" s="50"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="96"/>
-      <c r="B39" s="92"/>
+      <c r="A39" s="127"/>
+      <c r="B39" s="88"/>
       <c r="C39" s="43" t="s">
         <v>45</v>
       </c>
@@ -3508,16 +3530,16 @@
       <c r="F39" s="45"/>
     </row>
     <row r="40" spans="1:6" ht="106.8" customHeight="1">
-      <c r="A40" s="100" t="s">
+      <c r="A40" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="B40" s="87" t="s">
-        <v>219</v>
-      </c>
-      <c r="C40" s="113" t="s">
+      <c r="B40" s="114" t="s">
+        <v>217</v>
+      </c>
+      <c r="C40" s="128" t="s">
         <v>112</v>
       </c>
-      <c r="D40" s="113" t="s">
+      <c r="D40" s="128" t="s">
         <v>112</v>
       </c>
       <c r="E40" s="35" t="s">
@@ -3528,10 +3550,10 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="102"/>
-      <c r="B41" s="88"/>
-      <c r="C41" s="114"/>
-      <c r="D41" s="114"/>
+      <c r="A41" s="106"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="129"/>
+      <c r="D41" s="129"/>
       <c r="E41" s="39" t="s">
         <v>174</v>
       </c>
@@ -3540,11 +3562,11 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="103" t="s">
+      <c r="A42" s="94" t="s">
         <v>114</v>
       </c>
-      <c r="B42" s="123" t="s">
-        <v>220</v>
+      <c r="B42" s="110" t="s">
+        <v>218</v>
       </c>
       <c r="C42" s="48" t="s">
         <v>44</v>
@@ -3560,8 +3582,8 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="103"/>
-      <c r="B43" s="124"/>
+      <c r="A43" s="94"/>
+      <c r="B43" s="111"/>
       <c r="C43" s="54"/>
       <c r="D43" s="45"/>
       <c r="E43" s="55" t="s">
@@ -3572,11 +3594,11 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="93" t="s">
+      <c r="A44" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="B44" s="94" t="s">
-        <v>221</v>
+      <c r="B44" s="99" t="s">
+        <v>219</v>
       </c>
       <c r="C44" s="35" t="s">
         <v>14</v>
@@ -3592,8 +3614,8 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="93"/>
-      <c r="B45" s="94"/>
+      <c r="A45" s="98"/>
+      <c r="B45" s="99"/>
       <c r="C45" s="35" t="s">
         <v>45</v>
       </c>
@@ -3608,14 +3630,14 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="24">
-      <c r="A47" s="120" t="s">
+      <c r="A47" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="121"/>
-      <c r="C47" s="121"/>
-      <c r="D47" s="121"/>
-      <c r="E47" s="121"/>
-      <c r="F47" s="122"/>
+      <c r="B47" s="102"/>
+      <c r="C47" s="102"/>
+      <c r="D47" s="102"/>
+      <c r="E47" s="102"/>
+      <c r="F47" s="103"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
@@ -3637,12 +3659,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="151.80000000000001">
-      <c r="A49" s="89" t="s">
+    <row r="49" spans="1:6" ht="165.6">
+      <c r="A49" s="112" t="s">
         <v>149</v>
       </c>
-      <c r="B49" s="97" t="s">
-        <v>222</v>
+      <c r="B49" s="87" t="s">
+        <v>220</v>
       </c>
       <c r="C49" s="48" t="s">
         <v>18</v>
@@ -3651,15 +3673,15 @@
         <v>18</v>
       </c>
       <c r="E49" s="55" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F49" s="43" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="90"/>
-      <c r="B50" s="92"/>
+      <c r="A50" s="113"/>
+      <c r="B50" s="88"/>
       <c r="C50" s="54"/>
       <c r="D50" s="45"/>
       <c r="E50" s="55" t="s">
@@ -3670,11 +3692,11 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="85" t="s">
+      <c r="A51" s="107" t="s">
         <v>150</v>
       </c>
-      <c r="B51" s="94" t="s">
-        <v>224</v>
+      <c r="B51" s="99" t="s">
+        <v>222</v>
       </c>
       <c r="C51" s="41" t="s">
         <v>61</v>
@@ -3690,8 +3712,8 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="115"/>
-      <c r="B52" s="94"/>
+      <c r="A52" s="108"/>
+      <c r="B52" s="99"/>
       <c r="C52" s="77" t="s">
         <v>55</v>
       </c>
@@ -3706,8 +3728,8 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="115"/>
-      <c r="B53" s="94"/>
+      <c r="A53" s="108"/>
+      <c r="B53" s="99"/>
       <c r="C53" s="77" t="s">
         <v>56</v>
       </c>
@@ -3722,8 +3744,8 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="115"/>
-      <c r="B54" s="94"/>
+      <c r="A54" s="108"/>
+      <c r="B54" s="99"/>
       <c r="C54" s="77" t="s">
         <v>57</v>
       </c>
@@ -3734,8 +3756,8 @@
       <c r="F54" s="82"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="115"/>
-      <c r="B55" s="94"/>
+      <c r="A55" s="108"/>
+      <c r="B55" s="99"/>
       <c r="C55" s="77" t="s">
         <v>58</v>
       </c>
@@ -3746,8 +3768,8 @@
       <c r="F55" s="82"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="115"/>
-      <c r="B56" s="94"/>
+      <c r="A56" s="108"/>
+      <c r="B56" s="99"/>
       <c r="C56" s="77" t="s">
         <v>59</v>
       </c>
@@ -3758,8 +3780,8 @@
       <c r="F56" s="82"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="115"/>
-      <c r="B57" s="94"/>
+      <c r="A57" s="108"/>
+      <c r="B57" s="99"/>
       <c r="C57" s="77" t="s">
         <v>60</v>
       </c>
@@ -3770,8 +3792,8 @@
       <c r="F57" s="82"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="86"/>
-      <c r="B58" s="94"/>
+      <c r="A58" s="109"/>
+      <c r="B58" s="99"/>
       <c r="C58" s="76" t="s">
         <v>62</v>
       </c>
@@ -3781,12 +3803,12 @@
       <c r="E58" s="79"/>
       <c r="F58" s="84"/>
     </row>
-    <row r="59" spans="1:6" ht="110.4">
-      <c r="A59" s="89" t="s">
+    <row r="59" spans="1:6" ht="124.2">
+      <c r="A59" s="112" t="s">
         <v>151</v>
       </c>
-      <c r="B59" s="97" t="s">
-        <v>225</v>
+      <c r="B59" s="87" t="s">
+        <v>223</v>
       </c>
       <c r="C59" s="46" t="s">
         <v>18</v>
@@ -3795,15 +3817,15 @@
         <v>18</v>
       </c>
       <c r="E59" s="57" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F59" s="43" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="90"/>
-      <c r="B60" s="92"/>
+      <c r="A60" s="113"/>
+      <c r="B60" s="88"/>
       <c r="C60" s="45"/>
       <c r="D60" s="57"/>
       <c r="E60" s="55" t="s">
@@ -3813,29 +3835,29 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="96.6">
-      <c r="A61" s="85" t="s">
-        <v>207</v>
-      </c>
-      <c r="B61" s="87" t="s">
-        <v>227</v>
+    <row r="61" spans="1:6" ht="124.2">
+      <c r="A61" s="107" t="s">
+        <v>206</v>
+      </c>
+      <c r="B61" s="114" t="s">
+        <v>225</v>
       </c>
       <c r="C61" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="D61" s="73" t="s">
         <v>196</v>
       </c>
-      <c r="D61" s="73" t="s">
-        <v>197</v>
-      </c>
       <c r="E61" s="74" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F61" s="35" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="86"/>
-      <c r="B62" s="88"/>
+      <c r="A62" s="109"/>
+      <c r="B62" s="116"/>
       <c r="C62" s="41"/>
       <c r="D62" s="74"/>
       <c r="E62" s="39" t="s">
@@ -3850,7 +3872,7 @@
         <v>117</v>
       </c>
       <c r="B63" s="52" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C63" s="59" t="s">
         <v>122</v>
@@ -3910,7 +3932,7 @@
         <v>125</v>
       </c>
       <c r="B66" s="118" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C66" s="22" t="s">
         <v>122</v>
@@ -3938,11 +3960,11 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="98" t="s">
+      <c r="A68" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="B68" s="99" t="s">
-        <v>231</v>
+      <c r="B68" s="95" t="s">
+        <v>229</v>
       </c>
       <c r="C68" s="60" t="s">
         <v>127</v>
@@ -3958,13 +3980,13 @@
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="98"/>
-      <c r="B69" s="99"/>
+      <c r="A69" s="86"/>
+      <c r="B69" s="95"/>
       <c r="C69" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="D69" s="60" t="s">
         <v>196</v>
-      </c>
-      <c r="D69" s="60" t="s">
-        <v>197</v>
       </c>
       <c r="E69" s="61" t="s">
         <v>26</v>
@@ -3974,8 +3996,8 @@
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="98"/>
-      <c r="B70" s="99"/>
+      <c r="A70" s="86"/>
+      <c r="B70" s="95"/>
       <c r="C70" s="60" t="s">
         <v>61</v>
       </c>
@@ -3990,8 +4012,8 @@
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="98"/>
-      <c r="B71" s="99"/>
+      <c r="A71" s="86"/>
+      <c r="B71" s="95"/>
       <c r="C71" s="60" t="s">
         <v>131</v>
       </c>
@@ -4002,8 +4024,8 @@
       <c r="F71" s="53"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="98"/>
-      <c r="B72" s="99"/>
+      <c r="A72" s="86"/>
+      <c r="B72" s="95"/>
       <c r="C72" s="60" t="s">
         <v>132</v>
       </c>
@@ -4014,8 +4036,8 @@
       <c r="F72" s="53"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="98"/>
-      <c r="B73" s="99"/>
+      <c r="A73" s="86"/>
+      <c r="B73" s="95"/>
       <c r="C73" s="60" t="s">
         <v>133</v>
       </c>
@@ -4026,8 +4048,8 @@
       <c r="F73" s="53"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="98"/>
-      <c r="B74" s="99"/>
+      <c r="A74" s="86"/>
+      <c r="B74" s="95"/>
       <c r="C74" s="60" t="s">
         <v>134</v>
       </c>
@@ -4038,8 +4060,8 @@
       <c r="F74" s="53"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="98"/>
-      <c r="B75" s="99"/>
+      <c r="A75" s="86"/>
+      <c r="B75" s="95"/>
       <c r="C75" s="60" t="s">
         <v>135</v>
       </c>
@@ -4053,8 +4075,8 @@
       <c r="A76" s="119" t="s">
         <v>142</v>
       </c>
-      <c r="B76" s="109" t="s">
-        <v>232</v>
+      <c r="B76" s="90" t="s">
+        <v>230</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>127</v>
@@ -4071,7 +4093,7 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="119"/>
-      <c r="B77" s="109"/>
+      <c r="B77" s="90"/>
       <c r="C77" s="3" t="s">
         <v>122</v>
       </c>
@@ -4087,7 +4109,7 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="119"/>
-      <c r="B78" s="109"/>
+      <c r="B78" s="90"/>
       <c r="C78" s="3" t="s">
         <v>133</v>
       </c>
@@ -4103,7 +4125,7 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="119"/>
-      <c r="B79" s="109"/>
+      <c r="B79" s="90"/>
       <c r="C79" s="3" t="s">
         <v>134</v>
       </c>
@@ -4118,7 +4140,7 @@
         <v>147</v>
       </c>
       <c r="B80" s="52" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C80" s="67" t="s">
         <v>122</v>
@@ -4127,18 +4149,18 @@
         <v>123</v>
       </c>
       <c r="E80" s="68" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F80" s="43" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="85" t="s">
+      <c r="A81" s="107" t="s">
         <v>152</v>
       </c>
-      <c r="B81" s="87" t="s">
-        <v>235</v>
+      <c r="B81" s="114" t="s">
+        <v>233</v>
       </c>
       <c r="C81" s="75" t="s">
         <v>122</v>
@@ -4155,8 +4177,8 @@
       <c r="G81" s="28"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="115"/>
-      <c r="B82" s="116"/>
+      <c r="A82" s="108"/>
+      <c r="B82" s="115"/>
       <c r="C82" s="35" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4194,8 @@
       <c r="G82" s="28"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="115"/>
-      <c r="B83" s="116"/>
+      <c r="A83" s="108"/>
+      <c r="B83" s="115"/>
       <c r="C83" s="77" t="s">
         <v>55</v>
       </c>
@@ -4185,8 +4207,8 @@
       <c r="G83" s="28"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="115"/>
-      <c r="B84" s="116"/>
+      <c r="A84" s="108"/>
+      <c r="B84" s="115"/>
       <c r="C84" s="77" t="s">
         <v>56</v>
       </c>
@@ -4198,8 +4220,8 @@
       <c r="G84" s="28"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="115"/>
-      <c r="B85" s="116"/>
+      <c r="A85" s="108"/>
+      <c r="B85" s="115"/>
       <c r="C85" s="77" t="s">
         <v>57</v>
       </c>
@@ -4211,8 +4233,8 @@
       <c r="G85" s="28"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="115"/>
-      <c r="B86" s="116"/>
+      <c r="A86" s="108"/>
+      <c r="B86" s="115"/>
       <c r="C86" s="77" t="s">
         <v>58</v>
       </c>
@@ -4224,8 +4246,8 @@
       <c r="G86" s="28"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="115"/>
-      <c r="B87" s="116"/>
+      <c r="A87" s="108"/>
+      <c r="B87" s="115"/>
       <c r="C87" s="77" t="s">
         <v>59</v>
       </c>
@@ -4237,8 +4259,8 @@
       <c r="G87" s="28"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="115"/>
-      <c r="B88" s="116"/>
+      <c r="A88" s="108"/>
+      <c r="B88" s="115"/>
       <c r="C88" s="77" t="s">
         <v>60</v>
       </c>
@@ -4250,8 +4272,8 @@
       <c r="G88" s="28"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="86"/>
-      <c r="B89" s="88"/>
+      <c r="A89" s="109"/>
+      <c r="B89" s="116"/>
       <c r="C89" s="77" t="s">
         <v>62</v>
       </c>
@@ -4262,12 +4284,12 @@
       <c r="F89" s="79"/>
       <c r="G89" s="28"/>
     </row>
-    <row r="90" spans="1:7" ht="138">
-      <c r="A90" s="89" t="s">
-        <v>208</v>
-      </c>
-      <c r="B90" s="91" t="s">
-        <v>236</v>
+    <row r="90" spans="1:7" ht="151.80000000000001">
+      <c r="A90" s="112" t="s">
+        <v>207</v>
+      </c>
+      <c r="B90" s="130" t="s">
+        <v>234</v>
       </c>
       <c r="C90" s="48" t="s">
         <v>18</v>
@@ -4276,7 +4298,7 @@
         <v>18</v>
       </c>
       <c r="E90" s="57" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F90" s="43" t="s">
         <v>145</v>
@@ -4284,8 +4306,8 @@
       <c r="G90" s="28"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="90"/>
-      <c r="B91" s="92"/>
+      <c r="A91" s="113"/>
+      <c r="B91" s="88"/>
       <c r="C91" s="54"/>
       <c r="D91" s="45"/>
       <c r="E91" s="55" t="s">
@@ -4297,14 +4319,14 @@
       <c r="G91" s="28"/>
     </row>
     <row r="93" spans="1:7" ht="27">
-      <c r="A93" s="104" t="s">
+      <c r="A93" s="120" t="s">
         <v>154</v>
       </c>
-      <c r="B93" s="105"/>
-      <c r="C93" s="105"/>
-      <c r="D93" s="105"/>
-      <c r="E93" s="105"/>
-      <c r="F93" s="106"/>
+      <c r="B93" s="121"/>
+      <c r="C93" s="121"/>
+      <c r="D93" s="121"/>
+      <c r="E93" s="121"/>
+      <c r="F93" s="122"/>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="25" t="s">
@@ -4331,7 +4353,7 @@
         <v>155</v>
       </c>
       <c r="B95" s="52" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C95" s="43" t="s">
         <v>156</v>
@@ -4347,11 +4369,11 @@
       </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="100" t="s">
+      <c r="A96" s="104" t="s">
         <v>159</v>
       </c>
-      <c r="B96" s="87" t="s">
-        <v>239</v>
+      <c r="B96" s="114" t="s">
+        <v>237</v>
       </c>
       <c r="C96" s="35" t="s">
         <v>156</v>
@@ -4367,8 +4389,8 @@
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="101"/>
-      <c r="B97" s="116"/>
+      <c r="A97" s="105"/>
+      <c r="B97" s="115"/>
       <c r="C97" s="35" t="s">
         <v>160</v>
       </c>
@@ -4383,8 +4405,8 @@
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="102"/>
-      <c r="B98" s="88"/>
+      <c r="A98" s="106"/>
+      <c r="B98" s="116"/>
       <c r="C98" s="35" t="s">
         <v>161</v>
       </c>
@@ -4395,11 +4417,11 @@
       <c r="F98" s="72"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="103" t="s">
+      <c r="A99" s="94" t="s">
         <v>164</v>
       </c>
-      <c r="B99" s="126" t="s">
-        <v>240</v>
+      <c r="B99" s="123" t="s">
+        <v>238</v>
       </c>
       <c r="C99" s="48" t="s">
         <v>156</v>
@@ -4415,8 +4437,8 @@
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="103"/>
-      <c r="B100" s="126"/>
+      <c r="A100" s="94"/>
+      <c r="B100" s="123"/>
       <c r="C100" s="49"/>
       <c r="D100" s="50"/>
       <c r="E100" s="55" t="s">
@@ -4427,11 +4449,11 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="55.2">
-      <c r="A101" s="93" t="s">
+      <c r="A101" s="98" t="s">
         <v>165</v>
       </c>
-      <c r="B101" s="94" t="s">
-        <v>241</v>
+      <c r="B101" s="99" t="s">
+        <v>239</v>
       </c>
       <c r="C101" s="37" t="s">
         <v>112</v>
@@ -4447,8 +4469,8 @@
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="93"/>
-      <c r="B102" s="94"/>
+      <c r="A102" s="98"/>
+      <c r="B102" s="99"/>
       <c r="C102" s="41"/>
       <c r="D102" s="74"/>
       <c r="E102" s="39" t="s">
@@ -4459,14 +4481,14 @@
       </c>
     </row>
     <row r="104" spans="1:6" ht="27">
-      <c r="A104" s="104" t="s">
+      <c r="A104" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="B104" s="105"/>
-      <c r="C104" s="105"/>
-      <c r="D104" s="105"/>
-      <c r="E104" s="105"/>
-      <c r="F104" s="106"/>
+      <c r="B104" s="121"/>
+      <c r="C104" s="121"/>
+      <c r="D104" s="121"/>
+      <c r="E104" s="121"/>
+      <c r="F104" s="122"/>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="27" t="s">
@@ -4489,11 +4511,11 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="41.4">
-      <c r="A106" s="98" t="s">
+      <c r="A106" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="B106" s="97" t="s">
-        <v>242</v>
+      <c r="B106" s="87" t="s">
+        <v>240</v>
       </c>
       <c r="C106" s="69" t="s">
         <v>169</v>
@@ -4509,8 +4531,8 @@
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="98"/>
-      <c r="B107" s="92"/>
+      <c r="A107" s="86"/>
+      <c r="B107" s="88"/>
       <c r="C107" s="59"/>
       <c r="D107" s="59"/>
       <c r="E107" s="60" t="s">
@@ -4521,11 +4543,11 @@
       </c>
     </row>
     <row r="108" spans="1:6" ht="41.4">
-      <c r="A108" s="110" t="s">
+      <c r="A108" s="89" t="s">
         <v>182</v>
       </c>
-      <c r="B108" s="109" t="s">
-        <v>243</v>
+      <c r="B108" s="90" t="s">
+        <v>241</v>
       </c>
       <c r="C108" s="30" t="s">
         <v>112</v>
@@ -4541,8 +4563,8 @@
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="110"/>
-      <c r="B109" s="109"/>
+      <c r="A109" s="89"/>
+      <c r="B109" s="90"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="3" t="s">
@@ -4553,11 +4575,11 @@
       </c>
     </row>
     <row r="110" spans="1:6" ht="41.4">
-      <c r="A110" s="98" t="s">
+      <c r="A110" s="86" t="s">
         <v>183</v>
       </c>
-      <c r="B110" s="99" t="s">
-        <v>244</v>
+      <c r="B110" s="95" t="s">
+        <v>242</v>
       </c>
       <c r="C110" s="69" t="s">
         <v>122</v>
@@ -4573,8 +4595,8 @@
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="98"/>
-      <c r="B111" s="99"/>
+      <c r="A111" s="86"/>
+      <c r="B111" s="95"/>
       <c r="C111" s="59"/>
       <c r="D111" s="59"/>
       <c r="E111" s="60" t="s">
@@ -4585,11 +4607,11 @@
       </c>
     </row>
     <row r="112" spans="1:6" ht="27.6">
-      <c r="A112" s="110" t="s">
+      <c r="A112" s="89" t="s">
         <v>184</v>
       </c>
-      <c r="B112" s="109" t="s">
-        <v>245</v>
+      <c r="B112" s="90" t="s">
+        <v>243</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>122</v>
@@ -4605,8 +4627,8 @@
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="110"/>
-      <c r="B113" s="109"/>
+      <c r="A113" s="89"/>
+      <c r="B113" s="90"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="3" t="s">
@@ -4617,11 +4639,11 @@
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="98" t="s">
+      <c r="A114" s="86" t="s">
         <v>187</v>
       </c>
-      <c r="B114" s="99" t="s">
-        <v>188</v>
+      <c r="B114" s="134" t="s">
+        <v>253</v>
       </c>
       <c r="C114" s="60" t="s">
         <v>44</v>
@@ -4637,8 +4659,8 @@
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="98"/>
-      <c r="B115" s="99"/>
+      <c r="A115" s="86"/>
+      <c r="B115" s="135"/>
       <c r="C115" s="60" t="s">
         <v>122</v>
       </c>
@@ -4649,14 +4671,14 @@
         <v>26</v>
       </c>
       <c r="F115" s="61" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="98"/>
-      <c r="B116" s="99"/>
+      <c r="A116" s="86"/>
+      <c r="B116" s="136"/>
       <c r="C116" s="60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D116" s="63" t="s">
         <v>173</v>
@@ -4665,11 +4687,11 @@
       <c r="F116" s="59"/>
     </row>
     <row r="117" spans="1:6" ht="41.4">
-      <c r="A117" s="107" t="s">
-        <v>204</v>
-      </c>
-      <c r="B117" s="109" t="s">
-        <v>246</v>
+      <c r="A117" s="131" t="s">
+        <v>203</v>
+      </c>
+      <c r="B117" s="90" t="s">
+        <v>244</v>
       </c>
       <c r="C117" s="30" t="s">
         <v>169</v>
@@ -4685,8 +4707,8 @@
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="108"/>
-      <c r="B118" s="109"/>
+      <c r="A118" s="132"/>
+      <c r="B118" s="90"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="3" t="s">
@@ -4697,11 +4719,11 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="82.8">
-      <c r="A119" s="95" t="s">
-        <v>205</v>
-      </c>
-      <c r="B119" s="97" t="s">
-        <v>247</v>
+      <c r="A119" s="125" t="s">
+        <v>204</v>
+      </c>
+      <c r="B119" s="87" t="s">
+        <v>245</v>
       </c>
       <c r="C119" s="69" t="s">
         <v>112</v>
@@ -4710,15 +4732,15 @@
         <v>112</v>
       </c>
       <c r="E119" s="68" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F119" s="43" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="96"/>
-      <c r="B120" s="92"/>
+      <c r="A120" s="127"/>
+      <c r="B120" s="88"/>
       <c r="C120" s="59"/>
       <c r="D120" s="59"/>
       <c r="E120" s="60" t="s">
@@ -4728,199 +4750,252 @@
         <v>181</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="27">
-      <c r="A122" s="104" t="s">
+    <row r="121" spans="1:6">
+      <c r="A121" s="98" t="s">
+        <v>250</v>
+      </c>
+      <c r="B121" s="134" t="s">
+        <v>254</v>
+      </c>
+      <c r="C121" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="D121" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="E121" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="F121" s="37" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="98"/>
+      <c r="B122" s="135"/>
+      <c r="C122" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="D122" s="80" t="s">
+        <v>251</v>
+      </c>
+      <c r="E122" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="F122" s="76" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="98"/>
+      <c r="B123" s="136"/>
+      <c r="C123" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="D123" s="80" t="s">
+        <v>173</v>
+      </c>
+      <c r="E123" s="79"/>
+      <c r="F123" s="79"/>
+    </row>
+    <row r="125" spans="1:6" ht="27">
+      <c r="A125" s="120" t="s">
         <v>168</v>
       </c>
-      <c r="B122" s="105"/>
-      <c r="C122" s="105"/>
-      <c r="D122" s="105"/>
-      <c r="E122" s="105"/>
-      <c r="F122" s="106"/>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="25" t="s">
+      <c r="B125" s="121"/>
+      <c r="C125" s="121"/>
+      <c r="D125" s="121"/>
+      <c r="E125" s="121"/>
+      <c r="F125" s="122"/>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B123" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C123" s="25" t="s">
+      <c r="B126" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C126" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D123" s="25" t="s">
+      <c r="D126" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E123" s="25" t="s">
+      <c r="E126" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F123" s="25" t="s">
+      <c r="F126" s="25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="27.6">
-      <c r="A124" s="51" t="s">
+    <row r="127" spans="1:6" ht="27.6">
+      <c r="A127" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="B127" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="C127" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="D127" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="E127" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="F127" s="43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="104" t="s">
         <v>192</v>
       </c>
-      <c r="B124" s="52" t="s">
+      <c r="B128" s="99" t="s">
+        <v>247</v>
+      </c>
+      <c r="C128" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="D128" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="E128" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F128" s="37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="105"/>
+      <c r="B129" s="99"/>
+      <c r="C129" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="D129" s="70" t="s">
+        <v>202</v>
+      </c>
+      <c r="E129" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="F129" s="37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="106"/>
+      <c r="B130" s="99"/>
+      <c r="C130" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="D130" s="70" t="s">
+        <v>163</v>
+      </c>
+      <c r="E130" s="32"/>
+      <c r="F130" s="72"/>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="94" t="s">
+        <v>194</v>
+      </c>
+      <c r="B131" s="95" t="s">
         <v>248</v>
       </c>
-      <c r="C124" s="43" t="s">
+      <c r="C131" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="D131" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="D124" s="43" t="s">
+      <c r="E131" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F131" s="43" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="94"/>
+      <c r="B132" s="95"/>
+      <c r="C132" s="49"/>
+      <c r="D132" s="50"/>
+      <c r="E132" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F132" s="43" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="41.4">
+      <c r="A133" s="98" t="s">
+        <v>193</v>
+      </c>
+      <c r="B133" s="99" t="s">
+        <v>249</v>
+      </c>
+      <c r="C133" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D133" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="E133" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="F133" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="E124" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="F124" s="43" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="100" t="s">
-        <v>193</v>
-      </c>
-      <c r="B125" s="94" t="s">
-        <v>249</v>
-      </c>
-      <c r="C125" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="D125" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="E125" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="F125" s="37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="101"/>
-      <c r="B126" s="94"/>
-      <c r="C126" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="D126" s="70" t="s">
-        <v>203</v>
-      </c>
-      <c r="E126" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="F126" s="37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="102"/>
-      <c r="B127" s="94"/>
-      <c r="C127" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="D127" s="70" t="s">
-        <v>163</v>
-      </c>
-      <c r="E127" s="32"/>
-      <c r="F127" s="72"/>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="103" t="s">
-        <v>195</v>
-      </c>
-      <c r="B128" s="99" t="s">
-        <v>250</v>
-      </c>
-      <c r="C128" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="D128" s="46" t="s">
-        <v>197</v>
-      </c>
-      <c r="E128" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="F128" s="43" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="103"/>
-      <c r="B129" s="99"/>
-      <c r="C129" s="49"/>
-      <c r="D129" s="50"/>
-      <c r="E129" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="F129" s="43" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="41.4">
-      <c r="A130" s="93" t="s">
-        <v>194</v>
-      </c>
-      <c r="B130" s="94" t="s">
-        <v>251</v>
-      </c>
-      <c r="C130" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="D130" s="73" t="s">
-        <v>112</v>
-      </c>
-      <c r="E130" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="F130" s="35" t="s">
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="98"/>
+      <c r="B134" s="99"/>
+      <c r="C134" s="41"/>
+      <c r="D134" s="74"/>
+      <c r="E134" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="F134" s="35" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="93"/>
-      <c r="B131" s="94"/>
-      <c r="C131" s="41"/>
-      <c r="D131" s="74"/>
-      <c r="E131" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="F131" s="35" t="s">
-        <v>199</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="77">
-    <mergeCell ref="A114:A116"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A51:A58"/>
-    <mergeCell ref="B51:B58"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
+  <mergeCells count="79">
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="B121:B123"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="B32:B39"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B59:B60"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="B101:B102"/>
     <mergeCell ref="A101:A102"/>
@@ -4937,38 +5012,35 @@
     <mergeCell ref="B99:B100"/>
     <mergeCell ref="B96:B98"/>
     <mergeCell ref="A96:A98"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="B32:B39"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="A125:A127"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="A51:A58"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -4999,15 +5071,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="11" t="s">
@@ -5138,15 +5210,15 @@
       <c r="G7" s="16"/>
     </row>
     <row r="9" spans="1:7" ht="17.399999999999999">
-      <c r="A9" s="127" t="s">
+      <c r="A9" s="133" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="127"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
+      <c r="B9" s="133"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="11" t="s">
@@ -5277,15 +5349,15 @@
       <c r="G15" s="16"/>
     </row>
     <row r="17" spans="1:7" ht="17.399999999999999">
-      <c r="A17" s="127" t="s">
+      <c r="A17" s="133" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="11" t="s">
@@ -5506,15 +5578,15 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.399999999999999">
-      <c r="A29" s="127" t="s">
+      <c r="A29" s="133" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="127"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="127"/>
+      <c r="B29" s="133"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="133"/>
+      <c r="G29" s="133"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="11" t="s">
@@ -5645,15 +5717,15 @@
       <c r="G35" s="16"/>
     </row>
     <row r="37" spans="1:7" ht="17.399999999999999">
-      <c r="A37" s="127" t="s">
+      <c r="A37" s="133" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="127"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="127"/>
-      <c r="E37" s="127"/>
-      <c r="F37" s="127"/>
-      <c r="G37" s="127"/>
+      <c r="B37" s="133"/>
+      <c r="C37" s="133"/>
+      <c r="D37" s="133"/>
+      <c r="E37" s="133"/>
+      <c r="F37" s="133"/>
+      <c r="G37" s="133"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="11" t="s">

--- a/README.xlsx
+++ b/README.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chall\Documents\我的文件\stepic_back\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE01634-1A7B-4CB3-BEC1-DF38A288DD93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01A02D4-131E-4C82-8D50-09BF5699A69B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="259">
   <si>
     <t>请求地址</t>
   </si>
@@ -1049,6 +1049,22 @@
   </si>
   <si>
     <t>https://stepic-api.redcountry.top/api/score/add2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除某一得分</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://stepic-api.redcountry.top/api/score/delete</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>得分编号</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1561,20 +1577,140 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1585,134 +1721,14 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2951,10 +2967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G134"/>
+  <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2968,14 +2984,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30.6">
-      <c r="A1" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
+      <c r="A1" s="131" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="85"/>
@@ -2986,34 +3002,34 @@
       <c r="F2" s="85"/>
     </row>
     <row r="3" spans="1:6" ht="15">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
     </row>
     <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="134" t="s">
         <v>252</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
     </row>
     <row r="5" spans="1:6" ht="24">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="130" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="33" t="s">
@@ -3036,10 +3052,10 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="103" t="s">
         <v>208</v>
       </c>
       <c r="C7" s="42" t="s">
@@ -3056,8 +3072,8 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="94"/>
-      <c r="B8" s="95"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="103"/>
       <c r="C8" s="42" t="s">
         <v>19</v>
       </c>
@@ -3072,10 +3088,10 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="98" t="s">
+      <c r="A9" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="99" t="s">
+      <c r="B9" s="98" t="s">
         <v>209</v>
       </c>
       <c r="C9" s="36" t="s">
@@ -3092,8 +3108,8 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="98"/>
-      <c r="B10" s="99"/>
+      <c r="A10" s="86"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="38" t="s">
         <v>19</v>
       </c>
@@ -3108,8 +3124,8 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="98"/>
-      <c r="B11" s="99"/>
+      <c r="A11" s="86"/>
+      <c r="B11" s="98"/>
       <c r="C11" s="40"/>
       <c r="D11" s="41"/>
       <c r="E11" s="39" t="s">
@@ -3120,10 +3136,10 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="94" t="s">
+      <c r="A12" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="103" t="s">
         <v>210</v>
       </c>
       <c r="C12" s="44" t="s">
@@ -3140,8 +3156,8 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="94"/>
-      <c r="B13" s="95"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="103"/>
       <c r="C13" s="42" t="s">
         <v>19</v>
       </c>
@@ -3156,10 +3172,10 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="98" t="s">
+      <c r="A14" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="99" t="s">
+      <c r="B14" s="98" t="s">
         <v>211</v>
       </c>
       <c r="C14" s="36" t="s">
@@ -3176,8 +3192,8 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="98"/>
-      <c r="B15" s="99"/>
+      <c r="A15" s="86"/>
+      <c r="B15" s="98"/>
       <c r="C15" s="38" t="s">
         <v>35</v>
       </c>
@@ -3192,8 +3208,8 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="98"/>
-      <c r="B16" s="99"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="98"/>
       <c r="C16" s="40"/>
       <c r="D16" s="41"/>
       <c r="E16" s="39" t="s">
@@ -3204,10 +3220,10 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="103" t="s">
         <v>212</v>
       </c>
       <c r="C17" s="44" t="s">
@@ -3224,8 +3240,8 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="94"/>
-      <c r="B18" s="95"/>
+      <c r="A18" s="107"/>
+      <c r="B18" s="103"/>
       <c r="C18" s="42" t="s">
         <v>19</v>
       </c>
@@ -3243,7 +3259,7 @@
       <c r="A19" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="98" t="s">
         <v>213</v>
       </c>
       <c r="C19" s="36" t="s">
@@ -3261,7 +3277,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="105"/>
-      <c r="B20" s="99"/>
+      <c r="B20" s="98"/>
       <c r="C20" s="38" t="s">
         <v>35</v>
       </c>
@@ -3277,7 +3293,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="106"/>
-      <c r="B21" s="99"/>
+      <c r="B21" s="98"/>
       <c r="C21" s="40"/>
       <c r="D21" s="41"/>
       <c r="E21" s="39" t="s">
@@ -3288,14 +3304,14 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="24">
-      <c r="A23" s="101" t="s">
+      <c r="A23" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="102"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="103"/>
+      <c r="B23" s="126"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="127"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
@@ -3338,10 +3354,10 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="98" t="s">
+      <c r="A26" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="B26" s="99" t="s">
+      <c r="B26" s="98" t="s">
         <v>215</v>
       </c>
       <c r="C26" s="35" t="s">
@@ -3358,8 +3374,8 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="98"/>
-      <c r="B27" s="99"/>
+      <c r="A27" s="86"/>
+      <c r="B27" s="98"/>
       <c r="C27" s="35" t="s">
         <v>39</v>
       </c>
@@ -3374,8 +3390,8 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="98"/>
-      <c r="B28" s="99"/>
+      <c r="A28" s="86"/>
+      <c r="B28" s="98"/>
       <c r="C28" s="35" t="s">
         <v>40</v>
       </c>
@@ -3386,8 +3402,8 @@
       <c r="F28" s="72"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="98"/>
-      <c r="B29" s="99"/>
+      <c r="A29" s="86"/>
+      <c r="B29" s="98"/>
       <c r="C29" s="35" t="s">
         <v>41</v>
       </c>
@@ -3398,8 +3414,8 @@
       <c r="F29" s="72"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="98"/>
-      <c r="B30" s="99"/>
+      <c r="A30" s="86"/>
+      <c r="B30" s="98"/>
       <c r="C30" s="35" t="s">
         <v>42</v>
       </c>
@@ -3410,8 +3426,8 @@
       <c r="F30" s="72"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="98"/>
-      <c r="B31" s="99"/>
+      <c r="A31" s="86"/>
+      <c r="B31" s="98"/>
       <c r="C31" s="35" t="s">
         <v>43</v>
       </c>
@@ -3422,10 +3438,10 @@
       <c r="F31" s="72"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="125" t="s">
+      <c r="A32" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="B32" s="87" t="s">
+      <c r="B32" s="101" t="s">
         <v>216</v>
       </c>
       <c r="C32" s="43" t="s">
@@ -3442,8 +3458,8 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="126"/>
-      <c r="B33" s="124"/>
+      <c r="A33" s="116"/>
+      <c r="B33" s="115"/>
       <c r="C33" s="43" t="s">
         <v>44</v>
       </c>
@@ -3458,8 +3474,8 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="126"/>
-      <c r="B34" s="124"/>
+      <c r="A34" s="116"/>
+      <c r="B34" s="115"/>
       <c r="C34" s="43" t="s">
         <v>39</v>
       </c>
@@ -3470,8 +3486,8 @@
       <c r="F34" s="53"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="126"/>
-      <c r="B35" s="124"/>
+      <c r="A35" s="116"/>
+      <c r="B35" s="115"/>
       <c r="C35" s="43" t="s">
         <v>40</v>
       </c>
@@ -3482,8 +3498,8 @@
       <c r="F35" s="50"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="126"/>
-      <c r="B36" s="124"/>
+      <c r="A36" s="116"/>
+      <c r="B36" s="115"/>
       <c r="C36" s="43" t="s">
         <v>41</v>
       </c>
@@ -3494,8 +3510,8 @@
       <c r="F36" s="50"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="126"/>
-      <c r="B37" s="124"/>
+      <c r="A37" s="116"/>
+      <c r="B37" s="115"/>
       <c r="C37" s="43" t="s">
         <v>42</v>
       </c>
@@ -3506,8 +3522,8 @@
       <c r="F37" s="50"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="126"/>
-      <c r="B38" s="124"/>
+      <c r="A38" s="116"/>
+      <c r="B38" s="115"/>
       <c r="C38" s="43" t="s">
         <v>43</v>
       </c>
@@ -3518,8 +3534,8 @@
       <c r="F38" s="50"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="127"/>
-      <c r="B39" s="88"/>
+      <c r="A39" s="100"/>
+      <c r="B39" s="97"/>
       <c r="C39" s="43" t="s">
         <v>45</v>
       </c>
@@ -3533,13 +3549,13 @@
       <c r="A40" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="B40" s="114" t="s">
+      <c r="B40" s="92" t="s">
         <v>217</v>
       </c>
-      <c r="C40" s="128" t="s">
+      <c r="C40" s="117" t="s">
         <v>112</v>
       </c>
-      <c r="D40" s="128" t="s">
+      <c r="D40" s="117" t="s">
         <v>112</v>
       </c>
       <c r="E40" s="35" t="s">
@@ -3551,9 +3567,9 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="106"/>
-      <c r="B41" s="116"/>
-      <c r="C41" s="129"/>
-      <c r="D41" s="129"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="118"/>
       <c r="E41" s="39" t="s">
         <v>174</v>
       </c>
@@ -3562,10 +3578,10 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="94" t="s">
+      <c r="A42" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="B42" s="110" t="s">
+      <c r="B42" s="128" t="s">
         <v>218</v>
       </c>
       <c r="C42" s="48" t="s">
@@ -3582,8 +3598,8 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="94"/>
-      <c r="B43" s="111"/>
+      <c r="A43" s="107"/>
+      <c r="B43" s="129"/>
       <c r="C43" s="54"/>
       <c r="D43" s="45"/>
       <c r="E43" s="55" t="s">
@@ -3594,10 +3610,10 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="98" t="s">
+      <c r="A44" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="B44" s="99" t="s">
+      <c r="B44" s="98" t="s">
         <v>219</v>
       </c>
       <c r="C44" s="35" t="s">
@@ -3614,8 +3630,8 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="98"/>
-      <c r="B45" s="99"/>
+      <c r="A45" s="86"/>
+      <c r="B45" s="98"/>
       <c r="C45" s="35" t="s">
         <v>45</v>
       </c>
@@ -3630,14 +3646,14 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="24">
-      <c r="A47" s="101" t="s">
+      <c r="A47" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="102"/>
-      <c r="C47" s="102"/>
-      <c r="D47" s="102"/>
-      <c r="E47" s="102"/>
-      <c r="F47" s="103"/>
+      <c r="B47" s="126"/>
+      <c r="C47" s="126"/>
+      <c r="D47" s="126"/>
+      <c r="E47" s="126"/>
+      <c r="F47" s="127"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
@@ -3660,10 +3676,10 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="165.6">
-      <c r="A49" s="112" t="s">
+      <c r="A49" s="94" t="s">
         <v>149</v>
       </c>
-      <c r="B49" s="87" t="s">
+      <c r="B49" s="101" t="s">
         <v>220</v>
       </c>
       <c r="C49" s="48" t="s">
@@ -3680,8 +3696,8 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="113"/>
-      <c r="B50" s="88"/>
+      <c r="A50" s="95"/>
+      <c r="B50" s="97"/>
       <c r="C50" s="54"/>
       <c r="D50" s="45"/>
       <c r="E50" s="55" t="s">
@@ -3692,10 +3708,10 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="107" t="s">
+      <c r="A51" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="B51" s="99" t="s">
+      <c r="B51" s="98" t="s">
         <v>222</v>
       </c>
       <c r="C51" s="41" t="s">
@@ -3712,8 +3728,8 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="108"/>
-      <c r="B52" s="99"/>
+      <c r="A52" s="119"/>
+      <c r="B52" s="98"/>
       <c r="C52" s="77" t="s">
         <v>55</v>
       </c>
@@ -3728,8 +3744,8 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="108"/>
-      <c r="B53" s="99"/>
+      <c r="A53" s="119"/>
+      <c r="B53" s="98"/>
       <c r="C53" s="77" t="s">
         <v>56</v>
       </c>
@@ -3744,8 +3760,8 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="108"/>
-      <c r="B54" s="99"/>
+      <c r="A54" s="119"/>
+      <c r="B54" s="98"/>
       <c r="C54" s="77" t="s">
         <v>57</v>
       </c>
@@ -3756,8 +3772,8 @@
       <c r="F54" s="82"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="108"/>
-      <c r="B55" s="99"/>
+      <c r="A55" s="119"/>
+      <c r="B55" s="98"/>
       <c r="C55" s="77" t="s">
         <v>58</v>
       </c>
@@ -3768,8 +3784,8 @@
       <c r="F55" s="82"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="108"/>
-      <c r="B56" s="99"/>
+      <c r="A56" s="119"/>
+      <c r="B56" s="98"/>
       <c r="C56" s="77" t="s">
         <v>59</v>
       </c>
@@ -3780,8 +3796,8 @@
       <c r="F56" s="82"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="108"/>
-      <c r="B57" s="99"/>
+      <c r="A57" s="119"/>
+      <c r="B57" s="98"/>
       <c r="C57" s="77" t="s">
         <v>60</v>
       </c>
@@ -3792,8 +3808,8 @@
       <c r="F57" s="82"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="109"/>
-      <c r="B58" s="99"/>
+      <c r="A58" s="91"/>
+      <c r="B58" s="98"/>
       <c r="C58" s="76" t="s">
         <v>62</v>
       </c>
@@ -3804,10 +3820,10 @@
       <c r="F58" s="84"/>
     </row>
     <row r="59" spans="1:6" ht="124.2">
-      <c r="A59" s="112" t="s">
+      <c r="A59" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="B59" s="87" t="s">
+      <c r="B59" s="101" t="s">
         <v>223</v>
       </c>
       <c r="C59" s="46" t="s">
@@ -3824,8 +3840,8 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="113"/>
-      <c r="B60" s="88"/>
+      <c r="A60" s="95"/>
+      <c r="B60" s="97"/>
       <c r="C60" s="45"/>
       <c r="D60" s="57"/>
       <c r="E60" s="55" t="s">
@@ -3836,10 +3852,10 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="124.2">
-      <c r="A61" s="107" t="s">
+      <c r="A61" s="90" t="s">
         <v>206</v>
       </c>
-      <c r="B61" s="114" t="s">
+      <c r="B61" s="92" t="s">
         <v>225</v>
       </c>
       <c r="C61" s="37" t="s">
@@ -3856,8 +3872,8 @@
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="109"/>
-      <c r="B62" s="116"/>
+      <c r="A62" s="91"/>
+      <c r="B62" s="93"/>
       <c r="C62" s="41"/>
       <c r="D62" s="74"/>
       <c r="E62" s="39" t="s">
@@ -3928,10 +3944,10 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="117" t="s">
+      <c r="A66" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="B66" s="118" t="s">
+      <c r="B66" s="122" t="s">
         <v>228</v>
       </c>
       <c r="C66" s="22" t="s">
@@ -3948,8 +3964,8 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="117"/>
-      <c r="B67" s="118"/>
+      <c r="A67" s="121"/>
+      <c r="B67" s="122"/>
       <c r="C67" s="6"/>
       <c r="D67" s="5"/>
       <c r="E67" s="20" t="s">
@@ -3960,10 +3976,10 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="86" t="s">
+      <c r="A68" s="102" t="s">
         <v>126</v>
       </c>
-      <c r="B68" s="95" t="s">
+      <c r="B68" s="103" t="s">
         <v>229</v>
       </c>
       <c r="C68" s="60" t="s">
@@ -3980,8 +3996,8 @@
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="86"/>
-      <c r="B69" s="95"/>
+      <c r="A69" s="102"/>
+      <c r="B69" s="103"/>
       <c r="C69" s="60" t="s">
         <v>195</v>
       </c>
@@ -3996,8 +4012,8 @@
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="86"/>
-      <c r="B70" s="95"/>
+      <c r="A70" s="102"/>
+      <c r="B70" s="103"/>
       <c r="C70" s="60" t="s">
         <v>61</v>
       </c>
@@ -4012,8 +4028,8 @@
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="86"/>
-      <c r="B71" s="95"/>
+      <c r="A71" s="102"/>
+      <c r="B71" s="103"/>
       <c r="C71" s="60" t="s">
         <v>131</v>
       </c>
@@ -4024,8 +4040,8 @@
       <c r="F71" s="53"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="86"/>
-      <c r="B72" s="95"/>
+      <c r="A72" s="102"/>
+      <c r="B72" s="103"/>
       <c r="C72" s="60" t="s">
         <v>132</v>
       </c>
@@ -4036,8 +4052,8 @@
       <c r="F72" s="53"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="86"/>
-      <c r="B73" s="95"/>
+      <c r="A73" s="102"/>
+      <c r="B73" s="103"/>
       <c r="C73" s="60" t="s">
         <v>133</v>
       </c>
@@ -4048,8 +4064,8 @@
       <c r="F73" s="53"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="86"/>
-      <c r="B74" s="95"/>
+      <c r="A74" s="102"/>
+      <c r="B74" s="103"/>
       <c r="C74" s="60" t="s">
         <v>134</v>
       </c>
@@ -4060,8 +4076,8 @@
       <c r="F74" s="53"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="86"/>
-      <c r="B75" s="95"/>
+      <c r="A75" s="102"/>
+      <c r="B75" s="103"/>
       <c r="C75" s="60" t="s">
         <v>135</v>
       </c>
@@ -4072,10 +4088,10 @@
       <c r="F75" s="59"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="119" t="s">
+      <c r="A76" s="123" t="s">
         <v>142</v>
       </c>
-      <c r="B76" s="90" t="s">
+      <c r="B76" s="113" t="s">
         <v>230</v>
       </c>
       <c r="C76" s="19" t="s">
@@ -4092,8 +4108,8 @@
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="119"/>
-      <c r="B77" s="90"/>
+      <c r="A77" s="123"/>
+      <c r="B77" s="113"/>
       <c r="C77" s="3" t="s">
         <v>122</v>
       </c>
@@ -4108,8 +4124,8 @@
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="119"/>
-      <c r="B78" s="90"/>
+      <c r="A78" s="123"/>
+      <c r="B78" s="113"/>
       <c r="C78" s="3" t="s">
         <v>133</v>
       </c>
@@ -4124,8 +4140,8 @@
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="119"/>
-      <c r="B79" s="90"/>
+      <c r="A79" s="123"/>
+      <c r="B79" s="113"/>
       <c r="C79" s="3" t="s">
         <v>134</v>
       </c>
@@ -4156,10 +4172,10 @@
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="107" t="s">
+      <c r="A81" s="90" t="s">
         <v>152</v>
       </c>
-      <c r="B81" s="114" t="s">
+      <c r="B81" s="92" t="s">
         <v>233</v>
       </c>
       <c r="C81" s="75" t="s">
@@ -4177,8 +4193,8 @@
       <c r="G81" s="28"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="108"/>
-      <c r="B82" s="115"/>
+      <c r="A82" s="119"/>
+      <c r="B82" s="120"/>
       <c r="C82" s="35" t="s">
         <v>61</v>
       </c>
@@ -4194,8 +4210,8 @@
       <c r="G82" s="28"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="108"/>
-      <c r="B83" s="115"/>
+      <c r="A83" s="119"/>
+      <c r="B83" s="120"/>
       <c r="C83" s="77" t="s">
         <v>55</v>
       </c>
@@ -4207,8 +4223,8 @@
       <c r="G83" s="28"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="108"/>
-      <c r="B84" s="115"/>
+      <c r="A84" s="119"/>
+      <c r="B84" s="120"/>
       <c r="C84" s="77" t="s">
         <v>56</v>
       </c>
@@ -4220,8 +4236,8 @@
       <c r="G84" s="28"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="108"/>
-      <c r="B85" s="115"/>
+      <c r="A85" s="119"/>
+      <c r="B85" s="120"/>
       <c r="C85" s="77" t="s">
         <v>57</v>
       </c>
@@ -4233,8 +4249,8 @@
       <c r="G85" s="28"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="108"/>
-      <c r="B86" s="115"/>
+      <c r="A86" s="119"/>
+      <c r="B86" s="120"/>
       <c r="C86" s="77" t="s">
         <v>58</v>
       </c>
@@ -4246,8 +4262,8 @@
       <c r="G86" s="28"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="108"/>
-      <c r="B87" s="115"/>
+      <c r="A87" s="119"/>
+      <c r="B87" s="120"/>
       <c r="C87" s="77" t="s">
         <v>59</v>
       </c>
@@ -4259,8 +4275,8 @@
       <c r="G87" s="28"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="108"/>
-      <c r="B88" s="115"/>
+      <c r="A88" s="119"/>
+      <c r="B88" s="120"/>
       <c r="C88" s="77" t="s">
         <v>60</v>
       </c>
@@ -4272,8 +4288,8 @@
       <c r="G88" s="28"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="109"/>
-      <c r="B89" s="116"/>
+      <c r="A89" s="91"/>
+      <c r="B89" s="93"/>
       <c r="C89" s="77" t="s">
         <v>62</v>
       </c>
@@ -4285,10 +4301,10 @@
       <c r="G89" s="28"/>
     </row>
     <row r="90" spans="1:7" ht="151.80000000000001">
-      <c r="A90" s="112" t="s">
+      <c r="A90" s="94" t="s">
         <v>207</v>
       </c>
-      <c r="B90" s="130" t="s">
+      <c r="B90" s="96" t="s">
         <v>234</v>
       </c>
       <c r="C90" s="48" t="s">
@@ -4306,8 +4322,8 @@
       <c r="G90" s="28"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="113"/>
-      <c r="B91" s="88"/>
+      <c r="A91" s="95"/>
+      <c r="B91" s="97"/>
       <c r="C91" s="54"/>
       <c r="D91" s="45"/>
       <c r="E91" s="55" t="s">
@@ -4319,14 +4335,14 @@
       <c r="G91" s="28"/>
     </row>
     <row r="93" spans="1:7" ht="27">
-      <c r="A93" s="120" t="s">
+      <c r="A93" s="108" t="s">
         <v>154</v>
       </c>
-      <c r="B93" s="121"/>
-      <c r="C93" s="121"/>
-      <c r="D93" s="121"/>
-      <c r="E93" s="121"/>
-      <c r="F93" s="122"/>
+      <c r="B93" s="109"/>
+      <c r="C93" s="109"/>
+      <c r="D93" s="109"/>
+      <c r="E93" s="109"/>
+      <c r="F93" s="110"/>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="25" t="s">
@@ -4372,7 +4388,7 @@
       <c r="A96" s="104" t="s">
         <v>159</v>
       </c>
-      <c r="B96" s="114" t="s">
+      <c r="B96" s="92" t="s">
         <v>237</v>
       </c>
       <c r="C96" s="35" t="s">
@@ -4390,7 +4406,7 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="105"/>
-      <c r="B97" s="115"/>
+      <c r="B97" s="120"/>
       <c r="C97" s="35" t="s">
         <v>160</v>
       </c>
@@ -4406,7 +4422,7 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="106"/>
-      <c r="B98" s="116"/>
+      <c r="B98" s="93"/>
       <c r="C98" s="35" t="s">
         <v>161</v>
       </c>
@@ -4417,10 +4433,10 @@
       <c r="F98" s="72"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="94" t="s">
+      <c r="A99" s="107" t="s">
         <v>164</v>
       </c>
-      <c r="B99" s="123" t="s">
+      <c r="B99" s="124" t="s">
         <v>238</v>
       </c>
       <c r="C99" s="48" t="s">
@@ -4437,8 +4453,8 @@
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="94"/>
-      <c r="B100" s="123"/>
+      <c r="A100" s="107"/>
+      <c r="B100" s="124"/>
       <c r="C100" s="49"/>
       <c r="D100" s="50"/>
       <c r="E100" s="55" t="s">
@@ -4449,10 +4465,10 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="55.2">
-      <c r="A101" s="98" t="s">
+      <c r="A101" s="86" t="s">
         <v>165</v>
       </c>
-      <c r="B101" s="99" t="s">
+      <c r="B101" s="98" t="s">
         <v>239</v>
       </c>
       <c r="C101" s="37" t="s">
@@ -4469,8 +4485,8 @@
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="98"/>
-      <c r="B102" s="99"/>
+      <c r="A102" s="86"/>
+      <c r="B102" s="98"/>
       <c r="C102" s="41"/>
       <c r="D102" s="74"/>
       <c r="E102" s="39" t="s">
@@ -4481,14 +4497,14 @@
       </c>
     </row>
     <row r="104" spans="1:6" ht="27">
-      <c r="A104" s="120" t="s">
+      <c r="A104" s="108" t="s">
         <v>173</v>
       </c>
-      <c r="B104" s="121"/>
-      <c r="C104" s="121"/>
-      <c r="D104" s="121"/>
-      <c r="E104" s="121"/>
-      <c r="F104" s="122"/>
+      <c r="B104" s="109"/>
+      <c r="C104" s="109"/>
+      <c r="D104" s="109"/>
+      <c r="E104" s="109"/>
+      <c r="F104" s="110"/>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="27" t="s">
@@ -4511,10 +4527,10 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="41.4">
-      <c r="A106" s="86" t="s">
+      <c r="A106" s="102" t="s">
         <v>178</v>
       </c>
-      <c r="B106" s="87" t="s">
+      <c r="B106" s="101" t="s">
         <v>240</v>
       </c>
       <c r="C106" s="69" t="s">
@@ -4531,8 +4547,8 @@
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="86"/>
-      <c r="B107" s="88"/>
+      <c r="A107" s="102"/>
+      <c r="B107" s="97"/>
       <c r="C107" s="59"/>
       <c r="D107" s="59"/>
       <c r="E107" s="60" t="s">
@@ -4543,10 +4559,10 @@
       </c>
     </row>
     <row r="108" spans="1:6" ht="41.4">
-      <c r="A108" s="89" t="s">
+      <c r="A108" s="114" t="s">
         <v>182</v>
       </c>
-      <c r="B108" s="90" t="s">
+      <c r="B108" s="113" t="s">
         <v>241</v>
       </c>
       <c r="C108" s="30" t="s">
@@ -4563,8 +4579,8 @@
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="89"/>
-      <c r="B109" s="90"/>
+      <c r="A109" s="114"/>
+      <c r="B109" s="113"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="3" t="s">
@@ -4575,10 +4591,10 @@
       </c>
     </row>
     <row r="110" spans="1:6" ht="41.4">
-      <c r="A110" s="86" t="s">
+      <c r="A110" s="102" t="s">
         <v>183</v>
       </c>
-      <c r="B110" s="95" t="s">
+      <c r="B110" s="103" t="s">
         <v>242</v>
       </c>
       <c r="C110" s="69" t="s">
@@ -4595,8 +4611,8 @@
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="86"/>
-      <c r="B111" s="95"/>
+      <c r="A111" s="102"/>
+      <c r="B111" s="103"/>
       <c r="C111" s="59"/>
       <c r="D111" s="59"/>
       <c r="E111" s="60" t="s">
@@ -4607,10 +4623,10 @@
       </c>
     </row>
     <row r="112" spans="1:6" ht="27.6">
-      <c r="A112" s="89" t="s">
+      <c r="A112" s="114" t="s">
         <v>184</v>
       </c>
-      <c r="B112" s="90" t="s">
+      <c r="B112" s="113" t="s">
         <v>243</v>
       </c>
       <c r="C112" s="4" t="s">
@@ -4627,8 +4643,8 @@
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="89"/>
-      <c r="B113" s="90"/>
+      <c r="A113" s="114"/>
+      <c r="B113" s="113"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="3" t="s">
@@ -4639,10 +4655,10 @@
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="86" t="s">
+      <c r="A114" s="102" t="s">
         <v>187</v>
       </c>
-      <c r="B114" s="134" t="s">
+      <c r="B114" s="87" t="s">
         <v>253</v>
       </c>
       <c r="C114" s="60" t="s">
@@ -4659,8 +4675,8 @@
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="86"/>
-      <c r="B115" s="135"/>
+      <c r="A115" s="102"/>
+      <c r="B115" s="88"/>
       <c r="C115" s="60" t="s">
         <v>122</v>
       </c>
@@ -4675,8 +4691,8 @@
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="86"/>
-      <c r="B116" s="136"/>
+      <c r="A116" s="102"/>
+      <c r="B116" s="89"/>
       <c r="C116" s="60" t="s">
         <v>188</v>
       </c>
@@ -4687,10 +4703,10 @@
       <c r="F116" s="59"/>
     </row>
     <row r="117" spans="1:6" ht="41.4">
-      <c r="A117" s="131" t="s">
+      <c r="A117" s="111" t="s">
         <v>203</v>
       </c>
-      <c r="B117" s="90" t="s">
+      <c r="B117" s="113" t="s">
         <v>244</v>
       </c>
       <c r="C117" s="30" t="s">
@@ -4707,8 +4723,8 @@
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="132"/>
-      <c r="B118" s="90"/>
+      <c r="A118" s="112"/>
+      <c r="B118" s="113"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="3" t="s">
@@ -4719,10 +4735,10 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="82.8">
-      <c r="A119" s="125" t="s">
+      <c r="A119" s="99" t="s">
         <v>204</v>
       </c>
-      <c r="B119" s="87" t="s">
+      <c r="B119" s="101" t="s">
         <v>245</v>
       </c>
       <c r="C119" s="69" t="s">
@@ -4739,8 +4755,8 @@
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="127"/>
-      <c r="B120" s="88"/>
+      <c r="A120" s="100"/>
+      <c r="B120" s="97"/>
       <c r="C120" s="59"/>
       <c r="D120" s="59"/>
       <c r="E120" s="60" t="s">
@@ -4751,10 +4767,10 @@
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="98" t="s">
+      <c r="A121" s="86" t="s">
         <v>250</v>
       </c>
-      <c r="B121" s="134" t="s">
+      <c r="B121" s="87" t="s">
         <v>254</v>
       </c>
       <c r="C121" s="77" t="s">
@@ -4771,8 +4787,8 @@
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="98"/>
-      <c r="B122" s="135"/>
+      <c r="A122" s="86"/>
+      <c r="B122" s="88"/>
       <c r="C122" s="77" t="s">
         <v>131</v>
       </c>
@@ -4787,8 +4803,8 @@
       </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="98"/>
-      <c r="B123" s="136"/>
+      <c r="A123" s="86"/>
+      <c r="B123" s="89"/>
       <c r="C123" s="77" t="s">
         <v>188</v>
       </c>
@@ -4798,192 +4814,235 @@
       <c r="E123" s="79"/>
       <c r="F123" s="79"/>
     </row>
-    <row r="125" spans="1:6" ht="27">
-      <c r="A125" s="120" t="s">
+    <row r="124" spans="1:6">
+      <c r="A124" s="107" t="s">
+        <v>255</v>
+      </c>
+      <c r="B124" s="101" t="s">
+        <v>256</v>
+      </c>
+      <c r="C124" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="D124" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="E124" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F124" s="43" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="107"/>
+      <c r="B125" s="97"/>
+      <c r="C125" s="54"/>
+      <c r="D125" s="45"/>
+      <c r="E125" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F125" s="43" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="27">
+      <c r="A127" s="108" t="s">
         <v>168</v>
       </c>
-      <c r="B125" s="121"/>
-      <c r="C125" s="121"/>
-      <c r="D125" s="121"/>
-      <c r="E125" s="121"/>
-      <c r="F125" s="122"/>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="25" t="s">
+      <c r="B127" s="109"/>
+      <c r="C127" s="109"/>
+      <c r="D127" s="109"/>
+      <c r="E127" s="109"/>
+      <c r="F127" s="110"/>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B126" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C126" s="25" t="s">
+      <c r="B128" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D126" s="25" t="s">
+      <c r="D128" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E126" s="25" t="s">
+      <c r="E128" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F126" s="25" t="s">
+      <c r="F128" s="25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="27.6">
-      <c r="A127" s="51" t="s">
+    <row r="129" spans="1:6" ht="27.6">
+      <c r="A129" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="B127" s="52" t="s">
+      <c r="B129" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="C127" s="43" t="s">
+      <c r="C129" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="D127" s="43" t="s">
+      <c r="D129" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="E127" s="43" t="s">
+      <c r="E129" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="F127" s="43" t="s">
+      <c r="F129" s="43" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="104" t="s">
+    <row r="130" spans="1:6">
+      <c r="A130" s="104" t="s">
         <v>192</v>
       </c>
-      <c r="B128" s="99" t="s">
+      <c r="B130" s="98" t="s">
         <v>247</v>
       </c>
-      <c r="C128" s="35" t="s">
+      <c r="C130" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="D128" s="35" t="s">
+      <c r="D130" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="E128" s="37" t="s">
+      <c r="E130" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="F128" s="37" t="s">
+      <c r="F130" s="37" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="105"/>
-      <c r="B129" s="99"/>
-      <c r="C129" s="35" t="s">
+    <row r="131" spans="1:6">
+      <c r="A131" s="105"/>
+      <c r="B131" s="98"/>
+      <c r="C131" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="D129" s="70" t="s">
+      <c r="D131" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="E129" s="71" t="s">
+      <c r="E131" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="F129" s="37" t="s">
+      <c r="F131" s="37" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="106"/>
-      <c r="B130" s="99"/>
-      <c r="C130" s="35" t="s">
+    <row r="132" spans="1:6">
+      <c r="A132" s="106"/>
+      <c r="B132" s="98"/>
+      <c r="C132" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="D130" s="70" t="s">
+      <c r="D132" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="E130" s="32"/>
-      <c r="F130" s="72"/>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="94" t="s">
+      <c r="E132" s="32"/>
+      <c r="F132" s="72"/>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="107" t="s">
         <v>194</v>
       </c>
-      <c r="B131" s="95" t="s">
+      <c r="B133" s="103" t="s">
         <v>248</v>
       </c>
-      <c r="C131" s="48" t="s">
+      <c r="C133" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="D131" s="46" t="s">
+      <c r="D133" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="E131" s="55" t="s">
+      <c r="E133" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F131" s="43" t="s">
+      <c r="F133" s="43" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="94"/>
-      <c r="B132" s="95"/>
-      <c r="C132" s="49"/>
-      <c r="D132" s="50"/>
-      <c r="E132" s="55" t="s">
+    <row r="134" spans="1:6">
+      <c r="A134" s="107"/>
+      <c r="B134" s="103"/>
+      <c r="C134" s="49"/>
+      <c r="D134" s="50"/>
+      <c r="E134" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="F132" s="43" t="s">
+      <c r="F134" s="43" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="41.4">
-      <c r="A133" s="98" t="s">
+    <row r="135" spans="1:6" ht="41.4">
+      <c r="A135" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="B133" s="99" t="s">
+      <c r="B135" s="98" t="s">
         <v>249</v>
       </c>
-      <c r="C133" s="37" t="s">
+      <c r="C135" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="D133" s="73" t="s">
+      <c r="D135" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="E133" s="39" t="s">
+      <c r="E135" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="F133" s="35" t="s">
+      <c r="F135" s="35" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="98"/>
-      <c r="B134" s="99"/>
-      <c r="C134" s="41"/>
-      <c r="D134" s="74"/>
-      <c r="E134" s="39" t="s">
+    <row r="136" spans="1:6">
+      <c r="A136" s="86"/>
+      <c r="B136" s="98"/>
+      <c r="C136" s="41"/>
+      <c r="D136" s="74"/>
+      <c r="E136" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="F134" s="35" t="s">
+      <c r="F136" s="35" t="s">
         <v>198</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="79">
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="B121:B123"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B114:B116"/>
+  <mergeCells count="81">
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="A51:A58"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="A47:F47"/>
     <mergeCell ref="A26:A31"/>
     <mergeCell ref="B26:B31"/>
     <mergeCell ref="B32:B39"/>
@@ -5000,6 +5059,28 @@
     <mergeCell ref="B101:B102"/>
     <mergeCell ref="A101:A102"/>
     <mergeCell ref="A81:A89"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="A130:A132"/>
+    <mergeCell ref="B130:B132"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="B121:B123"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
     <mergeCell ref="B81:B89"/>
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="B66:B67"/>
@@ -5010,37 +5091,6 @@
     <mergeCell ref="A93:F93"/>
     <mergeCell ref="A99:A100"/>
     <mergeCell ref="B99:B100"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="A51:A58"/>
-    <mergeCell ref="B51:B58"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A114:A116"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:B109"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -5071,15 +5121,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="136" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="11" t="s">
@@ -5210,15 +5260,15 @@
       <c r="G7" s="16"/>
     </row>
     <row r="9" spans="1:7" ht="17.399999999999999">
-      <c r="A9" s="133" t="s">
+      <c r="A9" s="136" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="133"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="11" t="s">
@@ -5349,15 +5399,15 @@
       <c r="G15" s="16"/>
     </row>
     <row r="17" spans="1:7" ht="17.399999999999999">
-      <c r="A17" s="133" t="s">
+      <c r="A17" s="136" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="133"/>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
+      <c r="B17" s="136"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="11" t="s">
@@ -5578,15 +5628,15 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.399999999999999">
-      <c r="A29" s="133" t="s">
+      <c r="A29" s="136" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="133"/>
-      <c r="C29" s="133"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="133"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="136"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="11" t="s">
@@ -5717,15 +5767,15 @@
       <c r="G35" s="16"/>
     </row>
     <row r="37" spans="1:7" ht="17.399999999999999">
-      <c r="A37" s="133" t="s">
+      <c r="A37" s="136" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="133"/>
-      <c r="C37" s="133"/>
-      <c r="D37" s="133"/>
-      <c r="E37" s="133"/>
-      <c r="F37" s="133"/>
-      <c r="G37" s="133"/>
+      <c r="B37" s="136"/>
+      <c r="C37" s="136"/>
+      <c r="D37" s="136"/>
+      <c r="E37" s="136"/>
+      <c r="F37" s="136"/>
+      <c r="G37" s="136"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="11" t="s">
